--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,55 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>POSITIVE_SCORE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>NEGATIVE_SCORE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>POLARITY_SCORE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SUBJECTIVITY_SCORE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AVG_SENTENCE_LENGTH</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>COMPLEX_WORD_COUNT</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WORD_COUNT</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SYLLABLE_PER_WORD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PERSONAL_PRONOUNS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AVG_WORD_LENGTH</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FOG_INDEX</t>
         </is>
@@ -501,38 +506,43 @@
           <t>Netclan20241017</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.99999980000004</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04237288099683999</v>
+        <v>0.7931034209274682</v>
       </c>
       <c r="F2" t="n">
-        <v>10.72727272727273</v>
+        <v>0.0357583230138615</v>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>27.96551724137931</v>
       </c>
       <c r="H2" t="n">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64406779661017</v>
+        <v>811</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.683107274969174</v>
       </c>
       <c r="K2" t="n">
-        <v>7.415254237288136</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.507858243451464</v>
+        <v>9.42170160295931</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11.45451762404864</v>
       </c>
     </row>
     <row r="3">
@@ -541,38 +551,43 @@
           <t>Netclan20241018</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>12</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2631578808864273</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04973821976508319</v>
+        <v>0.5348837084910766</v>
       </c>
       <c r="F3" t="n">
-        <v>9.317073170731707</v>
+        <v>0.04095238091337868</v>
       </c>
       <c r="G3" t="n">
-        <v>176</v>
+        <v>18.10344827586207</v>
       </c>
       <c r="H3" t="n">
-        <v>382</v>
+        <v>650</v>
       </c>
       <c r="I3" t="n">
-        <v>2.544502617801047</v>
+        <v>1050</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.422857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>6.895287958115183</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.91112246200996</v>
+        <v>8.80952380952381</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.488998357963876</v>
       </c>
     </row>
     <row r="4">
@@ -581,38 +596,43 @@
           <t>Netclan20241019</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666111111158</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07741935433922997</v>
+        <v>0.6842105083102499</v>
       </c>
       <c r="F4" t="n">
-        <v>11.92307692307692</v>
+        <v>0.04112554108103297</v>
       </c>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>23.1</v>
       </c>
       <c r="H4" t="n">
-        <v>155</v>
+        <v>586</v>
       </c>
       <c r="I4" t="n">
-        <v>2.490322580645161</v>
+        <v>924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.494588744588745</v>
       </c>
       <c r="K4" t="n">
-        <v>6.812903225806451</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.965359801488834</v>
+        <v>8.930735930735931</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.493679653679655</v>
       </c>
     </row>
     <row r="5">
@@ -621,38 +641,43 @@
           <t>Netclan20241020</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>23</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3529411660899657</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09139784921667245</v>
+        <v>0.5172413703923902</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>0.05502846294589329</v>
       </c>
       <c r="G5" t="n">
-        <v>242</v>
+        <v>22.91304347826087</v>
       </c>
       <c r="H5" t="n">
-        <v>372</v>
+        <v>723</v>
       </c>
       <c r="I5" t="n">
-        <v>2.938172043010753</v>
+        <v>1054</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.566413662239089</v>
       </c>
       <c r="K5" t="n">
-        <v>7.905913978494624</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.060215053763441</v>
+        <v>9.193548387096774</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.43960069301213</v>
       </c>
     </row>
     <row r="6">
@@ -661,38 +686,43 @@
           <t>Netclan20241021</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/development-of-ea-robot-for-automated-trading/</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99999950000025</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01709401694791439</v>
+        <v>0.6279069621416986</v>
       </c>
       <c r="F6" t="n">
-        <v>9.75</v>
+        <v>0.03220973780358821</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>12.96116504854369</v>
       </c>
       <c r="H6" t="n">
-        <v>117</v>
+        <v>752</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58974358974359</v>
+        <v>1335</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.210486891385768</v>
       </c>
       <c r="K6" t="n">
-        <v>6.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.070940170940172</v>
+        <v>8.28689138576779</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.409784371477401</v>
       </c>
     </row>
     <row r="7">
@@ -701,38 +731,43 @@
           <t>Netclan20241022</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99999980000004</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04237288099683999</v>
+        <v>0.7931034209274682</v>
       </c>
       <c r="F7" t="n">
-        <v>10.72727272727273</v>
+        <v>0.0357583230138615</v>
       </c>
       <c r="G7" t="n">
-        <v>64</v>
+        <v>27.96551724137931</v>
       </c>
       <c r="H7" t="n">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64406779661017</v>
+        <v>811</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.683107274969174</v>
       </c>
       <c r="K7" t="n">
-        <v>7.415254237288136</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.507858243451464</v>
+        <v>9.42170160295931</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.45451762404864</v>
       </c>
     </row>
     <row r="8">
@@ -741,38 +776,43 @@
           <t>Netclan20241023</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>12</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2631578808864273</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04973821976508319</v>
+        <v>0.5348837084910766</v>
       </c>
       <c r="F8" t="n">
-        <v>9.317073170731707</v>
+        <v>0.04095238091337868</v>
       </c>
       <c r="G8" t="n">
-        <v>176</v>
+        <v>18.10344827586207</v>
       </c>
       <c r="H8" t="n">
-        <v>382</v>
+        <v>650</v>
       </c>
       <c r="I8" t="n">
-        <v>2.544502617801047</v>
+        <v>1050</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.422857142857143</v>
       </c>
       <c r="K8" t="n">
-        <v>6.895287958115183</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.91112246200996</v>
+        <v>8.80952380952381</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.488998357963876</v>
       </c>
     </row>
     <row r="9">
@@ -781,38 +821,43 @@
           <t>Netclan20241024</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666111111158</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07741935433922997</v>
+        <v>0.6842105083102499</v>
       </c>
       <c r="F9" t="n">
-        <v>11.92307692307692</v>
+        <v>0.04112554108103297</v>
       </c>
       <c r="G9" t="n">
-        <v>76</v>
+        <v>23.1</v>
       </c>
       <c r="H9" t="n">
-        <v>155</v>
+        <v>586</v>
       </c>
       <c r="I9" t="n">
-        <v>2.490322580645161</v>
+        <v>924</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.494588744588745</v>
       </c>
       <c r="K9" t="n">
-        <v>6.812903225806451</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.965359801488834</v>
+        <v>8.930735930735931</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.493679653679655</v>
       </c>
     </row>
     <row r="10">
@@ -821,38 +866,43 @@
           <t>Netclan20241025</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3529411660899657</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09139784921667245</v>
+        <v>0.5172413703923902</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>0.05502846294589329</v>
       </c>
       <c r="G10" t="n">
-        <v>242</v>
+        <v>22.91304347826087</v>
       </c>
       <c r="H10" t="n">
-        <v>372</v>
+        <v>723</v>
       </c>
       <c r="I10" t="n">
-        <v>2.938172043010753</v>
+        <v>1054</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.566413662239089</v>
       </c>
       <c r="K10" t="n">
-        <v>7.905913978494624</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5.060215053763441</v>
+        <v>9.193548387096774</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.43960069301213</v>
       </c>
     </row>
     <row r="11">
@@ -861,38 +911,43 @@
           <t>Netclan20241026</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>56</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/transforming-and-managing-a-large-scale-sql-pedigree-database-to-neo4j-graph-db/</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4545454486422669</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06980961009083443</v>
+        <v>0.5247524700519558</v>
       </c>
       <c r="F11" t="n">
-        <v>10.02727272727273</v>
+        <v>0.05693348362066884</v>
       </c>
       <c r="G11" t="n">
-        <v>679</v>
+        <v>14.192</v>
       </c>
       <c r="H11" t="n">
-        <v>1103</v>
+        <v>1154</v>
       </c>
       <c r="I11" t="n">
-        <v>2.986400725294651</v>
+        <v>1774</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.337655016910936</v>
       </c>
       <c r="K11" t="n">
-        <v>7.582048957388939</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.257146624907278</v>
+        <v>8.455467869222097</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.937002931228862</v>
       </c>
     </row>
     <row r="12">
@@ -901,38 +956,43 @@
           <t>Netclan20241027</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>18</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-model-accuracy-from-58-to-over-90-strategies-for-improving-predictive-performance/</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4999999791666675</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08247422652070713</v>
+        <v>0.6249999869791669</v>
       </c>
       <c r="F12" t="n">
-        <v>10.39285714285714</v>
+        <v>0.04912998971429888</v>
       </c>
       <c r="G12" t="n">
-        <v>183</v>
+        <v>22.72093023255814</v>
       </c>
       <c r="H12" t="n">
-        <v>291</v>
+        <v>670</v>
       </c>
       <c r="I12" t="n">
-        <v>2.965635738831615</v>
+        <v>977</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.632548618219038</v>
       </c>
       <c r="K12" t="n">
-        <v>7.676975945017182</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.408689248895434</v>
+        <v>9.221084953940634</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.362681202542191</v>
       </c>
     </row>
     <row r="13">
@@ -941,38 +1001,43 @@
           <t>Netclan20241028</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>27</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/securing-sensitive-financial-data-with-privacy-preserving-machine-learning-for-predictive-analytics/</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8620689357907263</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0679156907074574</v>
+        <v>0.8113207394090427</v>
       </c>
       <c r="F13" t="n">
-        <v>13.34375</v>
+        <v>0.0474910393839686</v>
       </c>
       <c r="G13" t="n">
-        <v>262</v>
+        <v>23.74468085106383</v>
       </c>
       <c r="H13" t="n">
-        <v>427</v>
+        <v>750</v>
       </c>
       <c r="I13" t="n">
-        <v>2.934426229508197</v>
+        <v>1116</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.531362007168459</v>
       </c>
       <c r="K13" t="n">
-        <v>7.744730679156909</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>5.582933255269321</v>
+        <v>9.049283154121865</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.766689544726608</v>
       </c>
     </row>
     <row r="14">
@@ -981,38 +1046,43 @@
           <t>Netclan20241029</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>20</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-data-collection-for-research-institutions-addressing-survey-fatigue-and-incorporating-verbal-communication-for-richer-insights/</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D14" t="n">
-        <v>0.599999976000001</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09328358174147917</v>
+        <v>0.6470588108419841</v>
       </c>
       <c r="F14" t="n">
-        <v>9.925925925925926</v>
+        <v>0.05323590808639258</v>
       </c>
       <c r="G14" t="n">
-        <v>148</v>
+        <v>22.27906976744186</v>
       </c>
       <c r="H14" t="n">
-        <v>268</v>
+        <v>638</v>
       </c>
       <c r="I14" t="n">
-        <v>2.791044776119403</v>
+        <v>958</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.599164926931107</v>
       </c>
       <c r="K14" t="n">
-        <v>7.66044776119403</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4.19126589275843</v>
+        <v>9.267223382045929</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.178016215953781</v>
       </c>
     </row>
     <row r="15">
@@ -1021,38 +1091,43 @@
           <t>Netclan20241030</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-positive-emotions-and-pandemic-severity-on-mental-health-and-resilience-among-entrepreneurs-insights-and-predictive-modeling/</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4444444197530878</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07114624477807809</v>
+        <v>0.5813953353163875</v>
       </c>
       <c r="F15" t="n">
-        <v>11.5</v>
+        <v>0.04540654694254852</v>
       </c>
       <c r="G15" t="n">
-        <v>158</v>
+        <v>24.28205128205128</v>
       </c>
       <c r="H15" t="n">
-        <v>253</v>
+        <v>650</v>
       </c>
       <c r="I15" t="n">
-        <v>2.99604743083004</v>
+        <v>947</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.664202745512144</v>
       </c>
       <c r="K15" t="n">
-        <v>7.913043478260869</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4.849802371541502</v>
+        <v>9.327349524815206</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.987371727181653</v>
       </c>
     </row>
     <row r="16">
@@ -1061,38 +1136,43 @@
           <t>Netclan20241031</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>61</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/dynamic-brand-centric-dashboard-for-automotive-dealerships-pdf-to-financial-insights-with-flask-react-architecture-and-aws-cloud-hosting/</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5844155768257717</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09265944633855662</v>
+        <v>0.6237623700617587</v>
       </c>
       <c r="F16" t="n">
-        <v>11.54166666666667</v>
+        <v>0.06805929914551259</v>
       </c>
       <c r="G16" t="n">
-        <v>460</v>
+        <v>17.05747126436782</v>
       </c>
       <c r="H16" t="n">
-        <v>831</v>
+        <v>929</v>
       </c>
       <c r="I16" t="n">
-        <v>2.831528279181709</v>
+        <v>1484</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.331536388140162</v>
       </c>
       <c r="K16" t="n">
-        <v>7.610108303249097</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.838086642599278</v>
+        <v>8.661725067385445</v>
+      </c>
+      <c r="M16" t="n">
+        <v>7.073392818415591</v>
       </c>
     </row>
     <row r="17">
@@ -1101,38 +1181,43 @@
           <t>Netclan20241032</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/cloud-based-data-modeling-and-analysis-platform-with-drag-and-drop-interface-and-openai-api-integration-for-simulation-insights/</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5555554938271674</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04477611918021832</v>
+        <v>0.4705882283737026</v>
       </c>
       <c r="F17" t="n">
-        <v>9.136363636363637</v>
+        <v>0.04765241762603194</v>
       </c>
       <c r="G17" t="n">
-        <v>95</v>
+        <v>11.1484375</v>
       </c>
       <c r="H17" t="n">
-        <v>201</v>
+        <v>882</v>
       </c>
       <c r="I17" t="n">
-        <v>2.597014925373134</v>
+        <v>1427</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.292221443587947</v>
       </c>
       <c r="K17" t="n">
-        <v>6.99502487562189</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.843600180913614</v>
+        <v>8.393833216538193</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.706606955150666</v>
       </c>
     </row>
     <row r="18">
@@ -1141,38 +1226,43 @@
           <t>Netclan20241033</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>39</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/voter-profile-analysis-and-search-application-for-targeted-campaign-engagement-using-government-voter-data/</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6956521587901705</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09055118092411185</v>
+        <v>0.68965516646849</v>
       </c>
       <c r="F18" t="n">
-        <v>12.09523809523809</v>
+        <v>0.07138461534068638</v>
       </c>
       <c r="G18" t="n">
-        <v>317</v>
+        <v>19.11764705882353</v>
       </c>
       <c r="H18" t="n">
-        <v>508</v>
+        <v>1070</v>
       </c>
       <c r="I18" t="n">
-        <v>3.043307086614173</v>
+        <v>1625</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.433230769230769</v>
       </c>
       <c r="K18" t="n">
-        <v>7.93503937007874</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.087701537307836</v>
+        <v>8.764923076923077</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.910443438914027</v>
       </c>
     </row>
     <row r="19">
@@ -1181,38 +1271,43 @@
           <t>Netclan20241034</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>5</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/bert-based-classification-of-individuals-and-organizations-into-two-categories-using-natural-language-processing/</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2499999687500039</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05714285673469388</v>
+        <v>0.6363636170798904</v>
       </c>
       <c r="F19" t="n">
-        <v>7.368421052631579</v>
+        <v>0.03971119128795284</v>
       </c>
       <c r="G19" t="n">
-        <v>66</v>
+        <v>21.86842105263158</v>
       </c>
       <c r="H19" t="n">
-        <v>140</v>
+        <v>554</v>
       </c>
       <c r="I19" t="n">
-        <v>2.635714285714286</v>
+        <v>831</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.690734055354994</v>
       </c>
       <c r="K19" t="n">
-        <v>7.178571428571429</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.13593984962406</v>
+        <v>9.393501805054152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.014035087719298</v>
       </c>
     </row>
     <row r="20">
@@ -1221,38 +1316,43 @@
           <t>Netclan20241035</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>16</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/comprehensive-analysis-of-solana-and-ethereum-contributors-using-github-api-with-comparative-study-of-1000-random-github-profiles/</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3913043308128552</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0836363633322314</v>
+        <v>0.5434782549621929</v>
       </c>
       <c r="F20" t="n">
-        <v>13.09523809523809</v>
+        <v>0.06153846149729868</v>
       </c>
       <c r="G20" t="n">
-        <v>135</v>
+        <v>14.95</v>
       </c>
       <c r="H20" t="n">
-        <v>275</v>
+        <v>905</v>
       </c>
       <c r="I20" t="n">
-        <v>2.690909090909091</v>
+        <v>1495</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.357859531772575</v>
       </c>
       <c r="K20" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.434458874458874</v>
+        <v>8.549832775919732</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.222140468227425</v>
       </c>
     </row>
     <row r="21">
@@ -1261,38 +1361,43 @@
           <t>Netclan20241036</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>20</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/powerbi-rest-api-fetching-dataflow-and-refresh-schedules-with-semantic-models/</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4814814636488347</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1153846148915187</v>
+        <v>0.6111111026234569</v>
       </c>
       <c r="F21" t="n">
-        <v>9.359999999999999</v>
+        <v>0.06883365194184163</v>
       </c>
       <c r="G21" t="n">
-        <v>124</v>
+        <v>18.03448275862069</v>
       </c>
       <c r="H21" t="n">
-        <v>234</v>
+        <v>674</v>
       </c>
       <c r="I21" t="n">
-        <v>2.636752136752137</v>
+        <v>1046</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.509560229445507</v>
       </c>
       <c r="K21" t="n">
-        <v>7.042735042735043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.955965811965812</v>
+        <v>8.921606118546846</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.471536889299137</v>
       </c>
     </row>
     <row r="22">
@@ -1301,38 +1406,43 @@
           <t>Netclan20241037</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>11</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/automated-job-data-import-and-management-solution-for-enhanced-efficiency/</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8333332638888947</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06779660978645984</v>
+        <v>0.7777777561728402</v>
       </c>
       <c r="F22" t="n">
-        <v>6.807692307692307</v>
+        <v>0.04337349392364639</v>
       </c>
       <c r="G22" t="n">
-        <v>87</v>
+        <v>20.24390243902439</v>
       </c>
       <c r="H22" t="n">
-        <v>177</v>
+        <v>556</v>
       </c>
       <c r="I22" t="n">
-        <v>2.655367231638418</v>
+        <v>830</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.687951807228916</v>
       </c>
       <c r="K22" t="n">
-        <v>6.949152542372881</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.919687092568449</v>
+        <v>9.349397590361447</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.365512782838671</v>
       </c>
     </row>
     <row r="23">
@@ -1341,38 +1451,43 @@
           <t>Netclan20241038</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>10</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-analytics-and-optimization-solution-for-enhancing-renewable-energy-efficiency/</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8181817438016598</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05583756316833725</v>
+        <v>0.7714285493877557</v>
       </c>
       <c r="F23" t="n">
-        <v>7.576923076923077</v>
+        <v>0.04112808455801635</v>
       </c>
       <c r="G23" t="n">
-        <v>117</v>
+        <v>20.75609756097561</v>
       </c>
       <c r="H23" t="n">
-        <v>197</v>
+        <v>586</v>
       </c>
       <c r="I23" t="n">
-        <v>2.918781725888325</v>
+        <v>851</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.722679200940071</v>
       </c>
       <c r="K23" t="n">
-        <v>7.736040609137055</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3.268332682545881</v>
+        <v>9.471210340775558</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.577879682439599</v>
       </c>
     </row>
     <row r="24">
@@ -1381,38 +1496,43 @@
           <t>Netclan20241039</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>10</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/time-series-analysis-and-trend-forecasting-solution-for-predicting-news-trends/</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8181817438016598</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0582010578931161</v>
+        <v>0.7714285493877557</v>
       </c>
       <c r="F24" t="n">
-        <v>7.56</v>
+        <v>0.04156769591262744</v>
       </c>
       <c r="G24" t="n">
-        <v>98</v>
+        <v>21.05</v>
       </c>
       <c r="H24" t="n">
-        <v>189</v>
+        <v>567</v>
       </c>
       <c r="I24" t="n">
-        <v>2.666666666666667</v>
+        <v>842</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.675771971496437</v>
       </c>
       <c r="K24" t="n">
-        <v>7.312169312169313</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.231407407407407</v>
+        <v>9.396674584323041</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.68935866983373</v>
       </c>
     </row>
     <row r="25">
@@ -1421,38 +1541,43 @@
           <t>Netclan20241040</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>17</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-data-visualization-solutions-for-monitoring-key-business-metrics-with-integrated-interactive-dashboards/</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999411764739</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09042553143390675</v>
+        <v>0.8536585157644265</v>
       </c>
       <c r="F25" t="n">
-        <v>7.230769230769231</v>
+        <v>0.04875148626783414</v>
       </c>
       <c r="G25" t="n">
-        <v>122</v>
+        <v>20.51219512195122</v>
       </c>
       <c r="H25" t="n">
-        <v>188</v>
+        <v>591</v>
       </c>
       <c r="I25" t="n">
-        <v>3.053191489361702</v>
+        <v>841</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.763376932223543</v>
       </c>
       <c r="K25" t="n">
-        <v>7.808510638297872</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.151882160392799</v>
+        <v>9.510107015457788</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.485971984571213</v>
       </c>
     </row>
     <row r="26">
@@ -1461,38 +1586,43 @@
           <t>Netclan20241041</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>19</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-patient-data-analysis-solution-for-trend-identification-and-improved-healthcare-outcome/</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8999999550000022</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1030927829737485</v>
+        <v>0.8181817995867773</v>
       </c>
       <c r="F26" t="n">
-        <v>7.461538461538462</v>
+        <v>0.05188679239164293</v>
       </c>
       <c r="G26" t="n">
-        <v>120</v>
+        <v>20.68292682926829</v>
       </c>
       <c r="H26" t="n">
-        <v>194</v>
+        <v>590</v>
       </c>
       <c r="I26" t="n">
-        <v>2.907216494845361</v>
+        <v>848</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.725235849056604</v>
       </c>
       <c r="K26" t="n">
-        <v>7.65979381443299</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3.232038065027756</v>
+        <v>9.464622641509434</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.551472618499771</v>
       </c>
     </row>
     <row r="27">
@@ -1501,38 +1631,43 @@
           <t>Netclan20241042</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/anomaly-detection-and-analysis-for-enhanced-data-integrity-and-user-experience-on-bright-datas-website/</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>32</v>
+      </c>
+      <c r="D27" t="n">
         <v>11</v>
       </c>
-      <c r="C27" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1578947285318564</v>
-      </c>
       <c r="E27" t="n">
-        <v>0.09004739293816401</v>
+        <v>0.4883720816657656</v>
       </c>
       <c r="F27" t="n">
-        <v>7.275862068965517</v>
+        <v>0.04976851846091607</v>
       </c>
       <c r="G27" t="n">
-        <v>119</v>
+        <v>19.63636363636364</v>
       </c>
       <c r="H27" t="n">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="I27" t="n">
-        <v>2.734597156398104</v>
+        <v>864</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="K27" t="n">
-        <v>7.222748815165877</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3.135937244647819</v>
+        <v>9.32175925925926</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.126767676767678</v>
       </c>
     </row>
     <row r="28">
@@ -1541,38 +1676,43 @@
           <t>Netclan20241043</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>9</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-custom-tflite-models-and-benchmarking-on-voxl2-chips/</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999998888889013</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04761904736709499</v>
+        <v>0.714285697278912</v>
       </c>
       <c r="F28" t="n">
-        <v>9.449999999999999</v>
+        <v>0.03720106285456062</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>18.81666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="I28" t="n">
-        <v>2.634920634920635</v>
+        <v>1129</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.331266607617361</v>
       </c>
       <c r="K28" t="n">
-        <v>7.481481481481482</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.991640211640211</v>
+        <v>8.705048715677592</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.766524948331858</v>
       </c>
     </row>
     <row r="29">
@@ -1581,38 +1721,43 @@
           <t>Netclan20241044</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>17</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/sports-prediction-model-for-multiple-sports-leagues/</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999999411764739</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05882352920822308</v>
+        <v>0.8260869385633275</v>
       </c>
       <c r="F29" t="n">
-        <v>12.04166666666667</v>
+        <v>0.03989592364276155</v>
       </c>
       <c r="G29" t="n">
-        <v>149</v>
+        <v>20.58928571428572</v>
       </c>
       <c r="H29" t="n">
-        <v>289</v>
+        <v>723</v>
       </c>
       <c r="I29" t="n">
-        <v>2.640138408304498</v>
+        <v>1153</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.367736339982654</v>
       </c>
       <c r="K29" t="n">
-        <v>7.304498269896194</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.02289504036909</v>
+        <v>8.722463139635733</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.486538223268493</v>
       </c>
     </row>
     <row r="30">
@@ -1621,38 +1766,43 @@
           <t>Netclan20241045</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>13</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-coach-allocation-system-for-sports-coaching-organization/</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5294117335640156</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06273062707479474</v>
+        <v>0.6086956389413992</v>
       </c>
       <c r="F30" t="n">
-        <v>9.033333333333333</v>
+        <v>0.04031551267281725</v>
       </c>
       <c r="G30" t="n">
-        <v>122</v>
+        <v>17.55384615384616</v>
       </c>
       <c r="H30" t="n">
-        <v>271</v>
+        <v>722</v>
       </c>
       <c r="I30" t="n">
-        <v>2.553505535055351</v>
+        <v>1141</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.418054338299737</v>
       </c>
       <c r="K30" t="n">
-        <v>7.169741697416974</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3.793407134071341</v>
+        <v>8.860648553900088</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7.274649767410505</v>
       </c>
     </row>
     <row r="31">
@@ -1661,38 +1811,43 @@
           <t>Netclan20241046</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>21</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function-2/</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>0.679999972800001</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06887052322625201</v>
+        <v>0.7454545319008268</v>
       </c>
       <c r="F31" t="n">
-        <v>9.074999999999999</v>
+        <v>0.04811898508476029</v>
       </c>
       <c r="G31" t="n">
-        <v>212</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>363</v>
+        <v>755</v>
       </c>
       <c r="I31" t="n">
-        <v>2.815426997245179</v>
+        <v>1143</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.470691163604549</v>
       </c>
       <c r="K31" t="n">
-        <v>7.245179063360881</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3.863608815426997</v>
+        <v>8.797025371828521</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7.521359830021247</v>
       </c>
     </row>
     <row r="32">
@@ -1701,38 +1856,43 @@
           <t>Netclan20241047</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>8</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-driven-backend-for-audio-to-text-conversion-and-analytical-assessment-in-pharmaceutical-practice/</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>0.599999940000006</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04098360638941145</v>
+        <v>0.7142856997084551</v>
       </c>
       <c r="F32" t="n">
-        <v>8.133333333333333</v>
+        <v>0.04666666662222222</v>
       </c>
       <c r="G32" t="n">
-        <v>125</v>
+        <v>16.93548387096774</v>
       </c>
       <c r="H32" t="n">
-        <v>244</v>
+        <v>684</v>
       </c>
       <c r="I32" t="n">
-        <v>2.618852459016393</v>
+        <v>1050</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.495238095238095</v>
       </c>
       <c r="K32" t="n">
-        <v>7.135245901639344</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>3.458251366120219</v>
+        <v>8.98952380952381</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7.034764976958525</v>
       </c>
     </row>
     <row r="33">
@@ -1741,38 +1901,43 @@
           <t>Netclan20241048</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>47</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/cloud-based-web-application-for-financial-data-processing-and-visualization-of-sp-500-metrics/</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5409835976887934</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1268191265554696</v>
+        <v>0.6199999938</v>
       </c>
       <c r="F33" t="n">
-        <v>13</v>
+        <v>0.08136696494599921</v>
       </c>
       <c r="G33" t="n">
-        <v>273</v>
+        <v>22.34545454545454</v>
       </c>
       <c r="H33" t="n">
-        <v>481</v>
+        <v>789</v>
       </c>
       <c r="I33" t="n">
-        <v>2.975051975051975</v>
+        <v>1229</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.484947111472742</v>
       </c>
       <c r="K33" t="n">
-        <v>7.837837837837838</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>5.427027027027028</v>
+        <v>8.938161106590725</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.194975959760336</v>
       </c>
     </row>
     <row r="34">
@@ -1781,38 +1946,43 @@
           <t>Netclan20241049</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>15</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/department-wise-kpi-tracking-dashboard-with-technician-performance-analysis-for-atoz-dependable-service/</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7647058373702448</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0371991246450785</v>
+        <v>0.7368420955678672</v>
       </c>
       <c r="F34" t="n">
-        <v>9.140000000000001</v>
+        <v>0.05033112579448269</v>
       </c>
       <c r="G34" t="n">
-        <v>211</v>
+        <v>16.59340659340659</v>
       </c>
       <c r="H34" t="n">
-        <v>457</v>
+        <v>931</v>
       </c>
       <c r="I34" t="n">
-        <v>2.516411378555799</v>
+        <v>1510</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.312582781456954</v>
       </c>
       <c r="K34" t="n">
-        <v>6.733041575492341</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>3.840682713347921</v>
+        <v>8.479470198675497</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.88398515391893</v>
       </c>
     </row>
     <row r="35">
@@ -1821,38 +1991,43 @@
           <t>Netclan20241050</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>19</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/steps-to-convert-a-node-js-api-to-python-for-aws-lambda-deployment/</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5833333090277788</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1025641021257944</v>
+        <v>0.6734693740108292</v>
       </c>
       <c r="F35" t="n">
-        <v>9.75</v>
+        <v>0.04909819634358898</v>
       </c>
       <c r="G35" t="n">
-        <v>131</v>
+        <v>20.36734693877551</v>
       </c>
       <c r="H35" t="n">
-        <v>234</v>
+        <v>644</v>
       </c>
       <c r="I35" t="n">
-        <v>2.692307692307693</v>
+        <v>998</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.466933867735471</v>
       </c>
       <c r="K35" t="n">
-        <v>7.495726495726496</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>4.123931623931624</v>
+        <v>8.965931863727455</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.405055007975134</v>
       </c>
     </row>
     <row r="36">
@@ -1861,38 +2036,43 @@
           <t>Netclan20241051</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>30</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-an-analytics-dashboard-with-a-pdf-parsing-pipeline-for-data-extraction/</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09090908925619838</v>
+        <v>33</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05978260863067108</v>
+        <v>0.2903225775234132</v>
       </c>
       <c r="F36" t="n">
-        <v>7.022900763358779</v>
+        <v>0.05302166473601957</v>
       </c>
       <c r="G36" t="n">
-        <v>440</v>
+        <v>11.10126582278481</v>
       </c>
       <c r="H36" t="n">
-        <v>920</v>
+        <v>993</v>
       </c>
       <c r="I36" t="n">
-        <v>2.648913043478261</v>
+        <v>1754</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.129988597491448</v>
       </c>
       <c r="K36" t="n">
-        <v>7.221739130434782</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>3.000464653169599</v>
+        <v>8.254846066134549</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.666960148954289</v>
       </c>
     </row>
     <row r="37">
@@ -1901,38 +2081,43 @@
           <t>Netclan20241052</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>14</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-a-real-time-log-file-visualization-dashboard-in-kibana/</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1515151469237834</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06976744171296524</v>
+        <v>0.2054794492400076</v>
       </c>
       <c r="F37" t="n">
-        <v>7.507936507936508</v>
+        <v>0.05775316451127122</v>
       </c>
       <c r="G37" t="n">
-        <v>229</v>
+        <v>13.59139784946237</v>
       </c>
       <c r="H37" t="n">
-        <v>473</v>
+        <v>779</v>
       </c>
       <c r="I37" t="n">
-        <v>2.676532769556025</v>
+        <v>1264</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.380537974683544</v>
       </c>
       <c r="K37" t="n">
-        <v>7.078224101479916</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3.196832108460016</v>
+        <v>8.666139240506329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.683078127126719</v>
       </c>
     </row>
     <row r="38">
@@ -1941,38 +2126,43 @@
           <t>Netclan20241053</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>17</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-female-ceo-appointments-on-company-stock-prices/</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4782608487712674</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04703476472999026</v>
+        <v>0.5510203969179511</v>
       </c>
       <c r="F38" t="n">
-        <v>7.640625</v>
+        <v>0.04049586773512738</v>
       </c>
       <c r="G38" t="n">
-        <v>307</v>
+        <v>14.93827160493827</v>
       </c>
       <c r="H38" t="n">
-        <v>489</v>
+        <v>818</v>
       </c>
       <c r="I38" t="n">
-        <v>3.014314928425358</v>
+        <v>1210</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.533884297520661</v>
       </c>
       <c r="K38" t="n">
-        <v>7.81799591002045</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3.307374744376279</v>
+        <v>8.99504132231405</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.245721865115804</v>
       </c>
     </row>
     <row r="39">
@@ -1981,38 +2171,43 @@
           <t>Netclan20241054</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>12</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-chatbot-using-llm-langchain-llama/</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8461537810650938</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06074766326753429</v>
+        <v>0.7411764618685123</v>
       </c>
       <c r="F39" t="n">
-        <v>14.26666666666667</v>
+        <v>0.0623624357576211</v>
       </c>
       <c r="G39" t="n">
-        <v>109</v>
+        <v>18.67123287671233</v>
       </c>
       <c r="H39" t="n">
-        <v>214</v>
+        <v>875</v>
       </c>
       <c r="I39" t="n">
-        <v>2.696261682242991</v>
+        <v>1363</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.407923697725605</v>
       </c>
       <c r="K39" t="n">
-        <v>7.079439252336448</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.910404984423677</v>
+        <v>8.694057226705796</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7.725279651051769</v>
       </c>
     </row>
     <row r="40">
@@ -2021,38 +2216,43 @@
           <t>Netclan20241055</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>45</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/healthcare-ai-chatbot-using-llama-llm-langchain/</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8749999817708337</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1176470585351788</v>
+        <v>0.6964285652104593</v>
       </c>
       <c r="F40" t="n">
-        <v>6.375</v>
+        <v>0.07102092576346168</v>
       </c>
       <c r="G40" t="n">
-        <v>191</v>
+        <v>11.68148148148148</v>
       </c>
       <c r="H40" t="n">
-        <v>408</v>
+        <v>904</v>
       </c>
       <c r="I40" t="n">
-        <v>2.541666666666667</v>
+        <v>1577</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.159797083069118</v>
       </c>
       <c r="K40" t="n">
-        <v>6.639705882352941</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.737254901960784</v>
+        <v>8.098287888395689</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.901888724488598</v>
       </c>
     </row>
     <row r="41">
@@ -2061,38 +2261,43 @@
           <t>Netclan20241056</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-bot-audio-to-audio/</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.8064515868886585</v>
       </c>
       <c r="F41" t="n">
-        <v>37</v>
+        <v>0.02813067148082516</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>11.72340425531915</v>
       </c>
       <c r="H41" t="n">
-        <v>37</v>
+        <v>635</v>
       </c>
       <c r="I41" t="n">
-        <v>2.54054054054054</v>
+        <v>1102</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.323049001814882</v>
       </c>
       <c r="K41" t="n">
-        <v>6.216216216216216</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>14.96216216216216</v>
+        <v>8.526315789473685</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.91985172027648</v>
       </c>
     </row>
     <row r="42">
@@ -2101,38 +2306,43 @@
           <t>Netclan20241057</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>10</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8181817438016598</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0582010578931161</v>
+        <v>0.714285697278912</v>
       </c>
       <c r="F42" t="n">
-        <v>21</v>
+        <v>0.04229607246495864</v>
       </c>
       <c r="G42" t="n">
-        <v>90</v>
+        <v>28.37142857142857</v>
       </c>
       <c r="H42" t="n">
-        <v>189</v>
+        <v>635</v>
       </c>
       <c r="I42" t="n">
-        <v>2.64021164021164</v>
+        <v>993</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.531722054380665</v>
       </c>
       <c r="K42" t="n">
-        <v>7.137566137566138</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>8.59047619047619</v>
+        <v>9.021148036253777</v>
+      </c>
+      <c r="M42" t="n">
+        <v>11.60436196230758</v>
       </c>
     </row>
     <row r="43">
@@ -2141,38 +2351,43 @@
           <t>Netclan20241058</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>10</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>0.99999990000001</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08771929747614651</v>
+        <v>0.7894736634349037</v>
       </c>
       <c r="F43" t="n">
-        <v>10.36363636363636</v>
+        <v>0.04662576681395612</v>
       </c>
       <c r="G43" t="n">
-        <v>51</v>
+        <v>24.6969696969697</v>
       </c>
       <c r="H43" t="n">
-        <v>114</v>
+        <v>539</v>
       </c>
       <c r="I43" t="n">
-        <v>2.394736842105263</v>
+        <v>815</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.656441717791411</v>
       </c>
       <c r="K43" t="n">
-        <v>6.403508771929824</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>4.324401913875598</v>
+        <v>9.267484662576686</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10.14332775608849</v>
       </c>
     </row>
     <row r="44">
@@ -2181,38 +2396,43 @@
           <t>Netclan20241059</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>28</v>
+      </c>
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9999997500000625</v>
-      </c>
       <c r="E44" t="n">
-        <v>0.02366863891320332</v>
+        <v>0.7499999765625008</v>
       </c>
       <c r="F44" t="n">
-        <v>7.347826086956522</v>
+        <v>0.03712296979452092</v>
       </c>
       <c r="G44" t="n">
-        <v>87</v>
+        <v>19.15555555555556</v>
       </c>
       <c r="H44" t="n">
-        <v>169</v>
+        <v>575</v>
       </c>
       <c r="I44" t="n">
-        <v>2.485207100591716</v>
+        <v>862</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.610208816705336</v>
       </c>
       <c r="K44" t="n">
-        <v>6.633136094674557</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3.145047594545922</v>
+        <v>9.196055684454757</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7.929043567929878</v>
       </c>
     </row>
     <row r="45">
@@ -2221,38 +2441,43 @@
           <t>Netclan20241060</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>11</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5714285306122479</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08433734888953405</v>
+        <v>0.6842105083102499</v>
       </c>
       <c r="F45" t="n">
-        <v>6.64</v>
+        <v>0.04634146335812016</v>
       </c>
       <c r="G45" t="n">
-        <v>64</v>
+        <v>20.5</v>
       </c>
       <c r="H45" t="n">
-        <v>166</v>
+        <v>533</v>
       </c>
       <c r="I45" t="n">
-        <v>2.240963855421687</v>
+        <v>820</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.615853658536585</v>
       </c>
       <c r="K45" t="n">
-        <v>6.186746987951807</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.81021686746988</v>
+        <v>9.223170731707317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.459999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2261,38 +2486,43 @@
           <t>Netclan20241061</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>16</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4545454338842984</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.118918918276114</v>
+        <v>0.6086956389413992</v>
       </c>
       <c r="F46" t="n">
-        <v>4.512195121951219</v>
+        <v>0.05405405399053578</v>
       </c>
       <c r="G46" t="n">
-        <v>80</v>
+        <v>14.18333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>185</v>
+        <v>556</v>
       </c>
       <c r="I46" t="n">
-        <v>2.221621621621622</v>
+        <v>851</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.562867215041128</v>
       </c>
       <c r="K46" t="n">
-        <v>6.318918918918919</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.977851021753461</v>
+        <v>9.142185663924794</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.93467293380337</v>
       </c>
     </row>
     <row r="47">
@@ -2301,38 +2531,43 @@
           <t>Netclan20241062</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>4</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-management-for-a-political-saas-application/</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1428571224489825</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>0.034999999825</v>
+        <v>0.57142856122449</v>
       </c>
       <c r="F47" t="n">
-        <v>8.333333333333334</v>
+        <v>0.04616652922822215</v>
       </c>
       <c r="G47" t="n">
-        <v>101</v>
+        <v>15.55128205128205</v>
       </c>
       <c r="H47" t="n">
-        <v>200</v>
+        <v>733</v>
       </c>
       <c r="I47" t="n">
-        <v>2.615</v>
+        <v>1213</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>3.315746084089036</v>
       </c>
       <c r="K47" t="n">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>3.535333333333334</v>
+        <v>8.539983511953833</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6.46222757731414</v>
       </c>
     </row>
     <row r="48">
@@ -2341,38 +2576,43 @@
           <t>Netclan20241063</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>4</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999997500000625</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02739726008632014</v>
+        <v>0.578947353185596</v>
       </c>
       <c r="F48" t="n">
-        <v>16.22222222222222</v>
+        <v>0.04162102952724969</v>
       </c>
       <c r="G48" t="n">
-        <v>74</v>
+        <v>28.53125</v>
       </c>
       <c r="H48" t="n">
-        <v>146</v>
+        <v>606</v>
       </c>
       <c r="I48" t="n">
-        <v>2.465753424657534</v>
+        <v>913</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3.559693318729463</v>
       </c>
       <c r="K48" t="n">
-        <v>6.602739726027397</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>6.691628614916286</v>
+        <v>9.056955093099672</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11.67799835706462</v>
       </c>
     </row>
     <row r="49">
@@ -2381,38 +2621,43 @@
           <t>Netclan20241064</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>3</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999996666667778</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03947368369113574</v>
+        <v>0.6585365693039862</v>
       </c>
       <c r="F49" t="n">
-        <v>19</v>
+        <v>0.04495614030158318</v>
       </c>
       <c r="G49" t="n">
-        <v>36</v>
+        <v>35.07692307692308</v>
       </c>
       <c r="H49" t="n">
-        <v>76</v>
+        <v>600</v>
       </c>
       <c r="I49" t="n">
-        <v>2.342105263157895</v>
+        <v>912</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>3.554824561403509</v>
       </c>
       <c r="K49" t="n">
-        <v>6.644736842105263</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>7.789473684210527</v>
+        <v>9.083333333333334</v>
+      </c>
+      <c r="M49" t="n">
+        <v>14.29392712550607</v>
       </c>
     </row>
     <row r="50">
@@ -2421,38 +2666,43 @@
           <t>Netclan20241065</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>4</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>0.333333277777787</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08823529282006923</v>
+        <v>0.3478260793950853</v>
       </c>
       <c r="F50" t="n">
-        <v>7.555555555555555</v>
+        <v>0.05469678947122855</v>
       </c>
       <c r="G50" t="n">
-        <v>28</v>
+        <v>31.14814814814815</v>
       </c>
       <c r="H50" t="n">
-        <v>68</v>
+        <v>543</v>
       </c>
       <c r="I50" t="n">
-        <v>2.235294117647059</v>
+        <v>841</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>3.604042806183115</v>
       </c>
       <c r="K50" t="n">
-        <v>6.764705882352941</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>3.186928104575164</v>
+        <v>9.260404280618312</v>
+      </c>
+      <c r="M50" t="n">
+        <v>12.7175232307218</v>
       </c>
     </row>
     <row r="51">
@@ -2461,38 +2711,43 @@
           <t>Netclan20241066</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>4</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999997500000625</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05882352854671282</v>
+        <v>0.6969696758494038</v>
       </c>
       <c r="F51" t="n">
-        <v>9.714285714285714</v>
+        <v>0.03952095803650185</v>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>33.4</v>
       </c>
       <c r="H51" t="n">
-        <v>68</v>
+        <v>554</v>
       </c>
       <c r="I51" t="n">
-        <v>2.544117647058823</v>
+        <v>835</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>3.658682634730539</v>
       </c>
       <c r="K51" t="n">
-        <v>6.970588235294118</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>4.091596638655462</v>
+        <v>9.295808383233533</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13.62538922155689</v>
       </c>
     </row>
     <row r="52">
@@ -2501,38 +2756,43 @@
           <t>Netclan20241067</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>28</v>
+      </c>
+      <c r="D52" t="n">
         <v>6</v>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.7142856122449125</v>
-      </c>
       <c r="E52" t="n">
-        <v>0.05185185146776406</v>
+        <v>0.6470588044982705</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>0.033999999966</v>
       </c>
       <c r="G52" t="n">
-        <v>69</v>
+        <v>21.27659574468085</v>
       </c>
       <c r="H52" t="n">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="I52" t="n">
-        <v>2.459259259259259</v>
+        <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="K52" t="n">
-        <v>6.962962962962963</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>6.204444444444444</v>
+        <v>8.882999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8.76303829787234</v>
       </c>
     </row>
     <row r="53">
@@ -2541,38 +2801,43 @@
           <t>Netclan20241068</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>10</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>0.99999990000001</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06578947325138504</v>
+        <v>0.6410256245890866</v>
       </c>
       <c r="F53" t="n">
-        <v>10.85714285714286</v>
+        <v>0.04276315784784741</v>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H53" t="n">
-        <v>152</v>
+        <v>561</v>
       </c>
       <c r="I53" t="n">
-        <v>2.243421052631579</v>
+        <v>912</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3.490131578947369</v>
       </c>
       <c r="K53" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>4.487593984962406</v>
+        <v>8.949561403508772</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.846052631578949</v>
       </c>
     </row>
     <row r="54">
@@ -2581,38 +2846,43 @@
           <t>Netclan20241069</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>3</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4999998750000312</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05263157825484766</v>
+        <v>0.3684210429362884</v>
       </c>
       <c r="F54" t="n">
-        <v>12.66666666666667</v>
+        <v>0.04212860305750709</v>
       </c>
       <c r="G54" t="n">
-        <v>30</v>
+        <v>19.60869565217391</v>
       </c>
       <c r="H54" t="n">
-        <v>76</v>
+        <v>568</v>
       </c>
       <c r="I54" t="n">
-        <v>2.368421052631579</v>
+        <v>902</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>3.521064301552106</v>
       </c>
       <c r="K54" t="n">
-        <v>6.697368421052632</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>5.224561403508773</v>
+        <v>8.991130820399112</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.095362961534754</v>
       </c>
     </row>
     <row r="55">
@@ -2621,38 +2891,43 @@
           <t>Netclan20241070</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>3</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4999998750000312</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02366863891320332</v>
+        <v>0.7142856887755111</v>
       </c>
       <c r="F55" t="n">
-        <v>8.047619047619047</v>
+        <v>0.0327868852075095</v>
       </c>
       <c r="G55" t="n">
-        <v>90</v>
+        <v>19.40909090909091</v>
       </c>
       <c r="H55" t="n">
-        <v>169</v>
+        <v>571</v>
       </c>
       <c r="I55" t="n">
-        <v>2.615384615384615</v>
+        <v>854</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3.640515222482436</v>
       </c>
       <c r="K55" t="n">
-        <v>6.958579881656805</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>3.432065370526909</v>
+        <v>9.270491803278688</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.031083670427932</v>
       </c>
     </row>
     <row r="56">
@@ -2661,38 +2936,43 @@
           <t>Netclan20241071</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>29</v>
+      </c>
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="C56" t="n">
-        <v>5</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.2307692130177529</v>
-      </c>
       <c r="E56" t="n">
-        <v>0.06310679581016118</v>
+        <v>0.567567552227904</v>
       </c>
       <c r="F56" t="n">
-        <v>14.71428571428571</v>
+        <v>0.04292343382491481</v>
       </c>
       <c r="G56" t="n">
-        <v>84</v>
+        <v>29.72413793103448</v>
       </c>
       <c r="H56" t="n">
-        <v>206</v>
+        <v>555</v>
       </c>
       <c r="I56" t="n">
-        <v>2.412621359223301</v>
+        <v>862</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3.595127610208817</v>
       </c>
       <c r="K56" t="n">
-        <v>6.844660194174757</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>6.048821081830791</v>
+        <v>9.241299303944315</v>
+      </c>
+      <c r="M56" t="n">
+        <v>12.14719577566206</v>
       </c>
     </row>
     <row r="57">
@@ -2701,38 +2981,43 @@
           <t>Netclan20241072</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>10</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249999984375001</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1481481467764061</v>
+        <v>0.5499999862500004</v>
       </c>
       <c r="F57" t="n">
-        <v>15.42857142857143</v>
+        <v>0.05256241780215188</v>
       </c>
       <c r="G57" t="n">
-        <v>59</v>
+        <v>34.59090909090909</v>
       </c>
       <c r="H57" t="n">
-        <v>108</v>
+        <v>528</v>
       </c>
       <c r="I57" t="n">
-        <v>2.712962962962963</v>
+        <v>761</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3.789750328515112</v>
       </c>
       <c r="K57" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>6.38994708994709</v>
+        <v>9.609724047306177</v>
+      </c>
+      <c r="M57" t="n">
+        <v>14.11389320272369</v>
       </c>
     </row>
     <row r="58">
@@ -2741,38 +3026,43 @@
           <t>Netclan20241073</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>10</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5384614970414233</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0742857138612245</v>
+        <v>0.6585365693039862</v>
       </c>
       <c r="F58" t="n">
-        <v>11.66666666666667</v>
+        <v>0.0468036529146077</v>
       </c>
       <c r="G58" t="n">
-        <v>81</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>175</v>
+        <v>567</v>
       </c>
       <c r="I58" t="n">
-        <v>2.514285714285714</v>
+        <v>876</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3.59703196347032</v>
       </c>
       <c r="K58" t="n">
-        <v>6.754285714285714</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>4.851809523809524</v>
+        <v>9.164383561643836</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.992237442922374</v>
       </c>
     </row>
     <row r="59">
@@ -2781,38 +3071,43 @@
           <t>Netclan20241074</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>11</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5714285306122479</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06796116471863513</v>
+        <v>0.6842105083102499</v>
       </c>
       <c r="F59" t="n">
-        <v>9.363636363636363</v>
+        <v>0.04408352663099359</v>
       </c>
       <c r="G59" t="n">
-        <v>93</v>
+        <v>23.2972972972973</v>
       </c>
       <c r="H59" t="n">
-        <v>206</v>
+        <v>564</v>
       </c>
       <c r="I59" t="n">
-        <v>2.645631067961165</v>
+        <v>862</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>3.650812064965197</v>
       </c>
       <c r="K59" t="n">
-        <v>6.733009708737864</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>3.92603706972639</v>
+        <v>9.21461716937355</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.580635856273908</v>
       </c>
     </row>
     <row r="60">
@@ -2821,38 +3116,43 @@
           <t>Netclan20241075</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>5</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2499999687500039</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08163265222823825</v>
+        <v>0.6249999804687506</v>
       </c>
       <c r="F60" t="n">
-        <v>9.800000000000001</v>
+        <v>0.04193971160951545</v>
       </c>
       <c r="G60" t="n">
-        <v>53</v>
+        <v>30.52</v>
       </c>
       <c r="H60" t="n">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="I60" t="n">
-        <v>2.663265306122449</v>
+        <v>763</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>3.773263433813892</v>
       </c>
       <c r="K60" t="n">
-        <v>6.918367346938775</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>4.136326530612245</v>
+        <v>9.546526867627785</v>
+      </c>
+      <c r="M60" t="n">
+        <v>12.48375360419397</v>
       </c>
     </row>
     <row r="61">
@@ -2861,38 +3161,43 @@
           <t>Netclan20241076</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>4</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999997500000625</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07407407270233199</v>
+        <v>0.7857142576530622</v>
       </c>
       <c r="F61" t="n">
-        <v>10.8</v>
+        <v>0.03878116338118952</v>
       </c>
       <c r="G61" t="n">
-        <v>26</v>
+        <v>34.38095238095238</v>
       </c>
       <c r="H61" t="n">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="I61" t="n">
-        <v>2.462962962962963</v>
+        <v>722</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>3.833795013850415</v>
       </c>
       <c r="K61" t="n">
-        <v>6.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>4.512592592592592</v>
+        <v>9.720221606648199</v>
+      </c>
+      <c r="M61" t="n">
+        <v>14.03215934573275</v>
       </c>
     </row>
     <row r="62">
@@ -2901,38 +3206,43 @@
           <t>Netclan20241077</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>4</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1428571224489825</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1060606044536272</v>
+        <v>0.428571416326531</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>0.04672897190022834</v>
       </c>
       <c r="G62" t="n">
-        <v>32</v>
+        <v>29.96</v>
       </c>
       <c r="H62" t="n">
-        <v>66</v>
+        <v>515</v>
       </c>
       <c r="I62" t="n">
-        <v>2.560606060606061</v>
+        <v>749</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>3.795727636849132</v>
       </c>
       <c r="K62" t="n">
-        <v>7.121212121212121</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>4.593939393939394</v>
+        <v>9.647530040053404</v>
+      </c>
+      <c r="M62" t="n">
+        <v>12.25903337783712</v>
       </c>
     </row>
     <row r="63">
@@ -2941,38 +3251,43 @@
           <t>Netclan20241078</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>27</v>
+      </c>
+      <c r="D63" t="n">
         <v>6</v>
       </c>
-      <c r="C63" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.3333332962963004</v>
-      </c>
       <c r="E63" t="n">
-        <v>0.1267605615949217</v>
+        <v>0.6363636170798904</v>
       </c>
       <c r="F63" t="n">
-        <v>10.14285714285714</v>
+        <v>0.04359313072180564</v>
       </c>
       <c r="G63" t="n">
-        <v>37</v>
+        <v>32.91304347826087</v>
       </c>
       <c r="H63" t="n">
-        <v>71</v>
+        <v>519</v>
       </c>
       <c r="I63" t="n">
-        <v>2.647887323943662</v>
+        <v>757</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>3.784676354029062</v>
       </c>
       <c r="K63" t="n">
-        <v>7.380281690140845</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>4.265593561368209</v>
+        <v>9.620871862615587</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.43945781402562</v>
       </c>
     </row>
     <row r="64">
@@ -2981,38 +3296,43 @@
           <t>Netclan20241079</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>4</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999997500000625</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06249999902343752</v>
+        <v>0.7857142576530622</v>
       </c>
       <c r="F64" t="n">
-        <v>12.8</v>
+        <v>0.03846153840870668</v>
       </c>
       <c r="G64" t="n">
-        <v>36</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>64</v>
+        <v>513</v>
       </c>
       <c r="I64" t="n">
-        <v>2.703125</v>
+        <v>728</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>3.850274725274725</v>
       </c>
       <c r="K64" t="n">
-        <v>7.265625</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>5.345000000000001</v>
+        <v>9.743131868131869</v>
+      </c>
+      <c r="M64" t="n">
+        <v>14.1485347985348</v>
       </c>
     </row>
     <row r="65">
@@ -3021,38 +3341,43 @@
           <t>Netclan20241080</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>4</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2727272479338866</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1099999989</v>
+        <v>0.428571416326531</v>
       </c>
       <c r="F65" t="n">
-        <v>9.090909090909092</v>
+        <v>0.04545454539551358</v>
       </c>
       <c r="G65" t="n">
-        <v>58</v>
+        <v>27.5</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="I65" t="n">
-        <v>2.74</v>
+        <v>770</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>3.774025974025974</v>
       </c>
       <c r="K65" t="n">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>3.868363636363637</v>
+        <v>9.548051948051947</v>
+      </c>
+      <c r="M65" t="n">
+        <v>11.27688311688312</v>
       </c>
     </row>
     <row r="66">
@@ -3061,38 +3386,43 @@
           <t>Netclan20241081</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>9</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999998888889013</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05555555521262003</v>
+        <v>0.8181817933884306</v>
       </c>
       <c r="F66" t="n">
-        <v>8.1</v>
+        <v>0.04009720529757326</v>
       </c>
       <c r="G66" t="n">
-        <v>79</v>
+        <v>23.51428571428572</v>
       </c>
       <c r="H66" t="n">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="I66" t="n">
-        <v>2.481481481481481</v>
+        <v>823</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>3.663426488456865</v>
       </c>
       <c r="K66" t="n">
-        <v>6.746913580246914</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>3.435061728395062</v>
+        <v>9.334143377885784</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.674001041485855</v>
       </c>
     </row>
     <row r="67">
@@ -3101,38 +3431,43 @@
           <t>Netclan20241082</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>10</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5384614970414233</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06467661659364868</v>
+        <v>0.6756756574141715</v>
       </c>
       <c r="F67" t="n">
-        <v>9.136363636363637</v>
+        <v>0.04302325576392645</v>
       </c>
       <c r="G67" t="n">
-        <v>103</v>
+        <v>23.24324324324324</v>
       </c>
       <c r="H67" t="n">
-        <v>201</v>
+        <v>574</v>
       </c>
       <c r="I67" t="n">
-        <v>2.611940298507463</v>
+        <v>860</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>3.638372093023256</v>
       </c>
       <c r="K67" t="n">
-        <v>7.164179104477612</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>3.859520578923564</v>
+        <v>9.309302325581395</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9.564274041483344</v>
       </c>
     </row>
     <row r="68">
@@ -3141,38 +3476,43 @@
           <t>Netclan20241083</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>7</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
-        <v>0.399999960000004</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05025125602888816</v>
+        <v>0.6470588044982705</v>
       </c>
       <c r="F68" t="n">
-        <v>11.70588235294118</v>
+        <v>0.03953488367495944</v>
       </c>
       <c r="G68" t="n">
-        <v>101</v>
+        <v>26.875</v>
       </c>
       <c r="H68" t="n">
-        <v>199</v>
+        <v>574</v>
       </c>
       <c r="I68" t="n">
-        <v>2.552763819095477</v>
+        <v>860</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>3.626744186046511</v>
       </c>
       <c r="K68" t="n">
-        <v>6.597989949748744</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>4.885368016553355</v>
+        <v>9.182558139534883</v>
+      </c>
+      <c r="M68" t="n">
+        <v>11.01697674418605</v>
       </c>
     </row>
     <row r="69">
@@ -3181,38 +3521,43 @@
           <t>Netclan20241084</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>20</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-transformation/</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2499999921875003</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>0.127999999488</v>
+        <v>0.4642857059948981</v>
       </c>
       <c r="F69" t="n">
-        <v>9.25925925925926</v>
+        <v>0.06174200654714222</v>
       </c>
       <c r="G69" t="n">
-        <v>88</v>
+        <v>21.59523809523809</v>
       </c>
       <c r="H69" t="n">
-        <v>250</v>
+        <v>559</v>
       </c>
       <c r="I69" t="n">
-        <v>2.288</v>
+        <v>907</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3.498346196251378</v>
       </c>
       <c r="K69" t="n">
-        <v>6.416</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>3.844503703703704</v>
+        <v>8.997794928335171</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.884622250223133</v>
       </c>
     </row>
     <row r="70">
@@ -3221,38 +3566,43 @@
           <t>Netclan20241085</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>7</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7499999062500118</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0382775117785765</v>
+        <v>0.7499999765625008</v>
       </c>
       <c r="F70" t="n">
-        <v>10.45</v>
+        <v>0.03686635940453185</v>
       </c>
       <c r="G70" t="n">
-        <v>130</v>
+        <v>24.8</v>
       </c>
       <c r="H70" t="n">
-        <v>209</v>
+        <v>601</v>
       </c>
       <c r="I70" t="n">
-        <v>2.746411483253588</v>
+        <v>868</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>3.661290322580645</v>
       </c>
       <c r="K70" t="n">
-        <v>6.784688995215311</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>4.428803827751196</v>
+        <v>9.198156682027649</v>
+      </c>
+      <c r="M70" t="n">
+        <v>10.19695852534562</v>
       </c>
     </row>
     <row r="71">
@@ -3261,38 +3611,43 @@
           <t>Netclan20241086</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>11</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999999090909174</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>0.06748466216267078</v>
+        <v>0.8285714048979599</v>
       </c>
       <c r="F71" t="n">
-        <v>14.81818181818182</v>
+        <v>0.0427350426828632</v>
       </c>
       <c r="G71" t="n">
-        <v>88</v>
+        <v>31.5</v>
       </c>
       <c r="H71" t="n">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="I71" t="n">
-        <v>2.656441717791411</v>
+        <v>819</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3.705738705738706</v>
       </c>
       <c r="K71" t="n">
-        <v>7.067484662576687</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>6.143223647518127</v>
+        <v>9.411477411477412</v>
+      </c>
+      <c r="M71" t="n">
+        <v>12.87301587301587</v>
       </c>
     </row>
     <row r="72">
@@ -3301,38 +3656,43 @@
           <t>Netclan20241087</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>25</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7241379060642101</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06636155591221612</v>
+        <v>0.7037036906721539</v>
       </c>
       <c r="F72" t="n">
-        <v>12.48571428571429</v>
+        <v>0.04607508528491887</v>
       </c>
       <c r="G72" t="n">
-        <v>234</v>
+        <v>21.7037037037037</v>
       </c>
       <c r="H72" t="n">
-        <v>437</v>
+        <v>731</v>
       </c>
       <c r="I72" t="n">
-        <v>2.782608695652174</v>
+        <v>1172</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3.408703071672355</v>
       </c>
       <c r="K72" t="n">
-        <v>7.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>5.20847335730631</v>
+        <v>8.709044368600683</v>
+      </c>
+      <c r="M72" t="n">
+        <v>8.930969536088989</v>
       </c>
     </row>
     <row r="73">
@@ -3341,38 +3701,43 @@
           <t>Netclan20241088</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>4</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
-        <v>0.333333277777787</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04918032746573502</v>
+        <v>0.4871794746877058</v>
       </c>
       <c r="F73" t="n">
-        <v>24.4</v>
+        <v>0.04372197304515474</v>
       </c>
       <c r="G73" t="n">
-        <v>46</v>
+        <v>28.7741935483871</v>
       </c>
       <c r="H73" t="n">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="I73" t="n">
-        <v>2.385245901639344</v>
+        <v>892</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>3.513452914798206</v>
       </c>
       <c r="K73" t="n">
-        <v>6.655737704918033</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>9.910819672131147</v>
+        <v>9.050448430493274</v>
+      </c>
+      <c r="M73" t="n">
+        <v>11.75586576016201</v>
       </c>
     </row>
     <row r="74">
@@ -3381,38 +3746,43 @@
           <t>Netclan20241089</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>5</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
-        <v>0.99999980000004</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02717391289579395</v>
+        <v>0.7931034209274682</v>
       </c>
       <c r="F74" t="n">
-        <v>12.26666666666667</v>
+        <v>0.03403755864549583</v>
       </c>
       <c r="G74" t="n">
-        <v>81</v>
+        <v>26.625</v>
       </c>
       <c r="H74" t="n">
-        <v>184</v>
+        <v>560</v>
       </c>
       <c r="I74" t="n">
-        <v>2.576086956521739</v>
+        <v>852</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>3.647887323943662</v>
       </c>
       <c r="K74" t="n">
-        <v>7.152173913043478</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>5.082753623188406</v>
+        <v>9.342723004694836</v>
+      </c>
+      <c r="M74" t="n">
+        <v>10.91291079812207</v>
       </c>
     </row>
     <row r="75">
@@ -3421,38 +3791,43 @@
           <t>Netclan20241090</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>2</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3333332222222593</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06382978587596201</v>
+        <v>0.64285711989796</v>
       </c>
       <c r="F75" t="n">
-        <v>47</v>
+        <v>0.03631647206703441</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>32.125</v>
       </c>
       <c r="H75" t="n">
-        <v>47</v>
+        <v>494</v>
       </c>
       <c r="I75" t="n">
-        <v>2.25531914893617</v>
+        <v>771</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>3.675745784695201</v>
       </c>
       <c r="K75" t="n">
-        <v>6.297872340425532</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>18.90212765957447</v>
+        <v>9.354085603112841</v>
+      </c>
+      <c r="M75" t="n">
+        <v>13.10629053177691</v>
       </c>
     </row>
     <row r="76">
@@ -3461,38 +3836,43 @@
           <t>Netclan20241091</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>7</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5555554938271674</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05844155806206781</v>
+        <v>0.6969696758494038</v>
       </c>
       <c r="F76" t="n">
-        <v>9.625</v>
+        <v>0.03933253868971092</v>
       </c>
       <c r="G76" t="n">
-        <v>69</v>
+        <v>27.06451612903226</v>
       </c>
       <c r="H76" t="n">
-        <v>154</v>
+        <v>555</v>
       </c>
       <c r="I76" t="n">
-        <v>2.474025974025974</v>
+        <v>839</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3.64958283671037</v>
       </c>
       <c r="K76" t="n">
-        <v>6.967532467532467</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>4.029220779220779</v>
+        <v>9.34207389749702</v>
+      </c>
+      <c r="M76" t="n">
+        <v>11.09040716674997</v>
       </c>
     </row>
     <row r="77">
@@ -3501,38 +3881,43 @@
           <t>Netclan20241092</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>4</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/medical-classification/</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>0.333333277777787</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03947368395083103</v>
+        <v>0.5151514995408637</v>
       </c>
       <c r="F77" t="n">
-        <v>13.81818181818182</v>
+        <v>0.03801843313592346</v>
       </c>
       <c r="G77" t="n">
-        <v>76</v>
+        <v>27.125</v>
       </c>
       <c r="H77" t="n">
-        <v>152</v>
+        <v>567</v>
       </c>
       <c r="I77" t="n">
-        <v>2.460526315789474</v>
+        <v>868</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>3.579493087557604</v>
       </c>
       <c r="K77" t="n">
-        <v>6.736842105263158</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>5.727272727272728</v>
+        <v>9.139400921658986</v>
+      </c>
+      <c r="M77" t="n">
+        <v>11.11129032258065</v>
       </c>
     </row>
     <row r="78">
@@ -3541,38 +3926,43 @@
           <t>Netclan20241093</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>1</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999990000010001</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01408450684388019</v>
+        <v>0.6296296063100145</v>
       </c>
       <c r="F78" t="n">
-        <v>23.66666666666667</v>
+        <v>0.03284671528850765</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>30.44444444444444</v>
       </c>
       <c r="H78" t="n">
-        <v>71</v>
+        <v>547</v>
       </c>
       <c r="I78" t="n">
-        <v>2.887323943661972</v>
+        <v>822</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>3.665450121654501</v>
       </c>
       <c r="K78" t="n">
-        <v>7.366197183098592</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>9.692018779342725</v>
+        <v>9.318734793187348</v>
+      </c>
+      <c r="M78" t="n">
+        <v>12.44395782643958</v>
       </c>
     </row>
     <row r="79">
@@ -3581,38 +3971,43 @@
           <t>Netclan20241094</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>2</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5555554938271674</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08823529325259517</v>
+        <v>0.1739130396975426</v>
       </c>
       <c r="F79" t="n">
-        <v>12.75</v>
+        <v>0.05757196488414022</v>
       </c>
       <c r="G79" t="n">
-        <v>67</v>
+        <v>29.59259259259259</v>
       </c>
       <c r="H79" t="n">
-        <v>102</v>
+        <v>559</v>
       </c>
       <c r="I79" t="n">
-        <v>2.980392156862745</v>
+        <v>799</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>3.801001251564456</v>
       </c>
       <c r="K79" t="n">
-        <v>7.225490196078431</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>5.362745098039216</v>
+        <v>9.531914893617021</v>
+      </c>
+      <c r="M79" t="n">
+        <v>12.11688684930237</v>
       </c>
     </row>
     <row r="80">
@@ -3621,38 +4016,43 @@
           <t>Netclan20241095</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>7</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999998571428775</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05263157855164226</v>
+        <v>0.7142856938775517</v>
       </c>
       <c r="F80" t="n">
-        <v>11.08333333333333</v>
+        <v>0.04171632891332976</v>
       </c>
       <c r="G80" t="n">
-        <v>55</v>
+        <v>25.42424242424243</v>
       </c>
       <c r="H80" t="n">
-        <v>133</v>
+        <v>551</v>
       </c>
       <c r="I80" t="n">
-        <v>2.323308270676692</v>
+        <v>839</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>3.636471990464839</v>
       </c>
       <c r="K80" t="n">
-        <v>6.090225563909774</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>4.598746867167921</v>
+        <v>9.191895113230036</v>
+      </c>
+      <c r="M80" t="n">
+        <v>10.43239065265287</v>
       </c>
     </row>
     <row r="81">
@@ -3661,38 +4061,43 @@
           <t>Netclan20241096</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>2</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
-        <v>0.99999950000025</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01129943496440997</v>
+        <v>0.7142856887755111</v>
       </c>
       <c r="F81" t="n">
-        <v>11.8</v>
+        <v>0.03013993538198069</v>
       </c>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>26.54285714285714</v>
       </c>
       <c r="H81" t="n">
-        <v>177</v>
+        <v>586</v>
       </c>
       <c r="I81" t="n">
-        <v>2.242937853107345</v>
+        <v>929</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>3.470398277717976</v>
       </c>
       <c r="K81" t="n">
-        <v>6.542372881355933</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>4.889491525423729</v>
+        <v>9.011840688912809</v>
+      </c>
+      <c r="M81" t="n">
+        <v>10.86945717361218</v>
       </c>
     </row>
     <row r="82">
@@ -3701,38 +4106,43 @@
           <t>Netclan20241097</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>2</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
-        <v>0.99999950000025</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04255319058397467</v>
+        <v>0.5999999800000007</v>
       </c>
       <c r="F82" t="n">
-        <v>11.75</v>
+        <v>0.03508771925720735</v>
       </c>
       <c r="G82" t="n">
-        <v>19</v>
+        <v>25.14705882352941</v>
       </c>
       <c r="H82" t="n">
-        <v>47</v>
+        <v>568</v>
       </c>
       <c r="I82" t="n">
-        <v>2.319148936170213</v>
+        <v>855</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>3.632748538011696</v>
       </c>
       <c r="K82" t="n">
-        <v>6.574468085106383</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>4.861702127659575</v>
+        <v>9.266666666666667</v>
+      </c>
+      <c r="M82" t="n">
+        <v>10.32455452356381</v>
       </c>
     </row>
     <row r="83">
@@ -3741,38 +4151,43 @@
           <t>Netclan20241098</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>9</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7999999200000081</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09615384522928995</v>
+        <v>0.7647058598615925</v>
       </c>
       <c r="F83" t="n">
-        <v>20.8</v>
+        <v>0.04450261774279762</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
+        <v>38.2</v>
       </c>
       <c r="H83" t="n">
-        <v>104</v>
+        <v>511</v>
       </c>
       <c r="I83" t="n">
-        <v>2.403846153846154</v>
+        <v>764</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>3.735602094240838</v>
       </c>
       <c r="K83" t="n">
-        <v>6.798076923076923</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>8.473846153846154</v>
+        <v>9.518324607329843</v>
+      </c>
+      <c r="M83" t="n">
+        <v>15.54753926701571</v>
       </c>
     </row>
     <row r="84">
@@ -3781,38 +4196,43 @@
           <t>Netclan20241099</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>5</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0636942671102276</v>
+        <v>0.5294117491349486</v>
       </c>
       <c r="F84" t="n">
-        <v>8.722222222222221</v>
+        <v>0.04182041815274241</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>24.63636363636364</v>
       </c>
       <c r="H84" t="n">
-        <v>157</v>
+        <v>530</v>
       </c>
       <c r="I84" t="n">
-        <v>2.484076433121019</v>
+        <v>813</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>3.674046740467405</v>
       </c>
       <c r="K84" t="n">
-        <v>6.936305732484076</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>3.641755130927105</v>
+        <v>9.392373923739237</v>
+      </c>
+      <c r="M84" t="n">
+        <v>10.11530806217153</v>
       </c>
     </row>
     <row r="85">
@@ -3821,38 +4241,43 @@
           <t>Netclan20241100</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>10</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6666666111111158</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06703910577073126</v>
+        <v>0.7222222021604945</v>
       </c>
       <c r="F85" t="n">
-        <v>13.76923076923077</v>
+        <v>0.04316546757414213</v>
       </c>
       <c r="G85" t="n">
-        <v>71</v>
+        <v>29.78571428571428</v>
       </c>
       <c r="H85" t="n">
-        <v>179</v>
+        <v>542</v>
       </c>
       <c r="I85" t="n">
-        <v>2.502793296089385</v>
+        <v>834</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>3.65347721822542</v>
       </c>
       <c r="K85" t="n">
-        <v>6.793296089385475</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>5.666351525569404</v>
+        <v>9.311750599520384</v>
+      </c>
+      <c r="M85" t="n">
+        <v>12.17423775265502</v>
       </c>
     </row>
     <row r="86">
@@ -3861,38 +4286,43 @@
           <t>Netclan20241101</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>1</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>0.006993006944104847</v>
+        <v>0.7599999696000012</v>
       </c>
       <c r="F86" t="n">
-        <v>14.3</v>
+        <v>0.03140703513642332</v>
       </c>
       <c r="G86" t="n">
-        <v>57</v>
+        <v>31.84</v>
       </c>
       <c r="H86" t="n">
-        <v>143</v>
+        <v>526</v>
       </c>
       <c r="I86" t="n">
-        <v>2.51048951048951</v>
+        <v>796</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>3.706030150753769</v>
       </c>
       <c r="K86" t="n">
-        <v>6.559440559440559</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>5.87944055944056</v>
+        <v>9.381909547738694</v>
+      </c>
+      <c r="M86" t="n">
+        <v>13.0003216080402</v>
       </c>
     </row>
     <row r="87">
@@ -3901,38 +4331,43 @@
           <t>Netclan20241102</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>29</v>
+      </c>
+      <c r="D87" t="n">
         <v>3</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.9999996666667778</v>
-      </c>
       <c r="E87" t="n">
-        <v>0.05263157802400741</v>
+        <v>0.8124999746093758</v>
       </c>
       <c r="F87" t="n">
-        <v>57</v>
+        <v>0.04097311134318424</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>48.8125</v>
       </c>
       <c r="H87" t="n">
-        <v>57</v>
+        <v>520</v>
       </c>
       <c r="I87" t="n">
-        <v>2.333333333333333</v>
+        <v>781</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3.69270166453265</v>
       </c>
       <c r="K87" t="n">
-        <v>6.140350877192983</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>22.97543859649123</v>
+        <v>9.348271446862997</v>
+      </c>
+      <c r="M87" t="n">
+        <v>19.79132522407171</v>
       </c>
     </row>
     <row r="88">
@@ -3941,38 +4376,43 @@
           <t>Netclan20241103</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>2</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3333332222222593</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02999999970000001</v>
+        <v>0.5862068763376939</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>0.03549571599082531</v>
       </c>
       <c r="G88" t="n">
-        <v>55</v>
+        <v>25.53125</v>
       </c>
       <c r="H88" t="n">
-        <v>100</v>
+        <v>547</v>
       </c>
       <c r="I88" t="n">
-        <v>2.69</v>
+        <v>817</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>3.692778457772338</v>
       </c>
       <c r="K88" t="n">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>4.220000000000001</v>
+        <v>9.384332925336597</v>
+      </c>
+      <c r="M88" t="n">
+        <v>10.48030905752754</v>
       </c>
     </row>
     <row r="89">
@@ -3981,38 +4421,43 @@
           <t>Netclan20241104</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>3</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4999998750000312</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02836879412504401</v>
+        <v>0.7142856887755111</v>
       </c>
       <c r="F89" t="n">
-        <v>10.84615384615385</v>
+        <v>0.03196347028314672</v>
       </c>
       <c r="G89" t="n">
-        <v>66</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="H89" t="n">
-        <v>141</v>
+        <v>569</v>
       </c>
       <c r="I89" t="n">
-        <v>2.73758865248227</v>
+        <v>876</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3.638127853881278</v>
       </c>
       <c r="K89" t="n">
-        <v>7.212765957446808</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>4.52569558101473</v>
+        <v>9.242009132420092</v>
+      </c>
+      <c r="M89" t="n">
+        <v>8.223453715234539</v>
       </c>
     </row>
     <row r="90">
@@ -4021,38 +4466,43 @@
           <t>Netclan20241105</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>1</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/web-data-connector/</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>0.009345794305179492</v>
+        <v>0.7599999696000012</v>
       </c>
       <c r="F90" t="n">
-        <v>9.727272727272727</v>
+        <v>0.02850627134719923</v>
       </c>
       <c r="G90" t="n">
-        <v>42</v>
+        <v>19.06521739130435</v>
       </c>
       <c r="H90" t="n">
-        <v>107</v>
+        <v>554</v>
       </c>
       <c r="I90" t="n">
-        <v>2.401869158878505</v>
+        <v>877</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>3.565564424173318</v>
       </c>
       <c r="K90" t="n">
-        <v>6.429906542056075</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>4.047918436703483</v>
+        <v>9.076396807297606</v>
+      </c>
+      <c r="M90" t="n">
+        <v>7.878766546031432</v>
       </c>
     </row>
     <row r="91">
@@ -4061,38 +4511,43 @@
           <t>Netclan20241106</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>7</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7499999062500118</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>0.09876543087943913</v>
+        <v>0.7575757346189171</v>
       </c>
       <c r="F91" t="n">
-        <v>81</v>
+        <v>0.04064039403862021</v>
       </c>
       <c r="G91" t="n">
-        <v>41</v>
+        <v>47.76470588235294</v>
       </c>
       <c r="H91" t="n">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="I91" t="n">
-        <v>2.432098765432099</v>
+        <v>812</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>3.661330049261084</v>
       </c>
       <c r="K91" t="n">
-        <v>6.123456790123456</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>32.60246913580247</v>
+        <v>9.198275862068966</v>
+      </c>
+      <c r="M91" t="n">
+        <v>19.37484787018256</v>
       </c>
     </row>
     <row r="92">
@@ -4101,38 +4556,43 @@
           <t>Netclan20241107</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>1</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.6666665555555741</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>0.05309734466285536</v>
+        <v>0.5151514995408637</v>
       </c>
       <c r="F92" t="n">
-        <v>22.6</v>
+        <v>0.04019488423849588</v>
       </c>
       <c r="G92" t="n">
-        <v>48</v>
+        <v>41.05</v>
       </c>
       <c r="H92" t="n">
-        <v>113</v>
+        <v>537</v>
       </c>
       <c r="I92" t="n">
-        <v>2.274336283185841</v>
+        <v>821</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>3.617539585870889</v>
       </c>
       <c r="K92" t="n">
-        <v>6.345132743362832</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>9.209911504424779</v>
+        <v>9.261875761266747</v>
+      </c>
+      <c r="M92" t="n">
+        <v>16.68163215590743</v>
       </c>
     </row>
     <row r="93">
@@ -4141,38 +4601,43 @@
           <t>Netclan20241108</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>15</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7647058373702448</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04271356773187546</v>
+        <v>0.7826086786389418</v>
       </c>
       <c r="F93" t="n">
-        <v>12.4375</v>
+        <v>0.03849372381716006</v>
       </c>
       <c r="G93" t="n">
-        <v>224</v>
+        <v>17.83582089552239</v>
       </c>
       <c r="H93" t="n">
-        <v>398</v>
+        <v>777</v>
       </c>
       <c r="I93" t="n">
-        <v>2.618090452261307</v>
+        <v>1195</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>3.34560669456067</v>
       </c>
       <c r="K93" t="n">
-        <v>6.904522613065327</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>5.200125628140704</v>
+        <v>8.600836820083682</v>
+      </c>
+      <c r="M93" t="n">
+        <v>7.394412040217325</v>
       </c>
     </row>
     <row r="94">
@@ -4181,38 +4646,43 @@
           <t>Netclan20241109</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>15</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8749999453125034</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>0.03791469185328272</v>
+        <v>0.8297872163875061</v>
       </c>
       <c r="F94" t="n">
-        <v>11.72222222222222</v>
+        <v>0.03874690845940073</v>
       </c>
       <c r="G94" t="n">
-        <v>225</v>
+        <v>19.25396825396825</v>
       </c>
       <c r="H94" t="n">
-        <v>422</v>
+        <v>771</v>
       </c>
       <c r="I94" t="n">
-        <v>2.616113744075829</v>
+        <v>1213</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>3.348722176422094</v>
       </c>
       <c r="K94" t="n">
-        <v>6.81042654028436</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>4.902159031068983</v>
+        <v>8.550700741962077</v>
+      </c>
+      <c r="M94" t="n">
+        <v>7.955832973475182</v>
       </c>
     </row>
     <row r="95">
@@ -4221,38 +4691,43 @@
           <t>Netclan20241110</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>1</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9999990000010001</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0238095232426304</v>
+        <v>0.5333333155555561</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>0.03807106594153418</v>
       </c>
       <c r="G95" t="n">
-        <v>22</v>
+        <v>28.14285714285714</v>
       </c>
       <c r="H95" t="n">
-        <v>42</v>
+        <v>537</v>
       </c>
       <c r="I95" t="n">
-        <v>2.642857142857143</v>
+        <v>788</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>3.739847715736041</v>
       </c>
       <c r="K95" t="n">
-        <v>6.976190476190476</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>8.609523809523811</v>
+        <v>9.447969543147208</v>
+      </c>
+      <c r="M95" t="n">
+        <v>11.52973168963017</v>
       </c>
     </row>
     <row r="96">
@@ -4261,38 +4736,43 @@
           <t>Netclan20241111</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>4</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>0.333333277777787</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04651162754642149</v>
+        <v>0.6874999785156257</v>
       </c>
       <c r="F96" t="n">
-        <v>8.6</v>
+        <v>0.03869407492298177</v>
       </c>
       <c r="G96" t="n">
-        <v>57</v>
+        <v>23.62857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>129</v>
+        <v>546</v>
       </c>
       <c r="I96" t="n">
-        <v>2.434108527131783</v>
+        <v>827</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>3.638452237001209</v>
       </c>
       <c r="K96" t="n">
-        <v>6.364341085271318</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3.616744186046512</v>
+        <v>9.222490931076178</v>
+      </c>
+      <c r="M96" t="n">
+        <v>9.715515633097255</v>
       </c>
     </row>
     <row r="97">
@@ -4301,38 +4781,43 @@
           <t>Netclan20241112</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>4</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1428571224489825</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>0.08235294020761247</v>
+        <v>0.5882352768166096</v>
       </c>
       <c r="F97" t="n">
-        <v>12.14285714285714</v>
+        <v>0.0439276485220573</v>
       </c>
       <c r="G97" t="n">
-        <v>38</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>85</v>
+        <v>521</v>
       </c>
       <c r="I97" t="n">
-        <v>2.552941176470588</v>
+        <v>774</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3.739018087855297</v>
       </c>
       <c r="K97" t="n">
-        <v>6.823529411764706</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>5.035966386554622</v>
+        <v>9.488372093023257</v>
+      </c>
+      <c r="M97" t="n">
+        <v>11.7359173126615</v>
       </c>
     </row>
     <row r="98">
@@ -4341,38 +4826,43 @@
           <t>Netclan20241113</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>3</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1428571224489825</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04999999964285715</v>
+        <v>0.5757575583103771</v>
       </c>
       <c r="F98" t="n">
-        <v>9.333333333333334</v>
+        <v>0.03971119128795284</v>
       </c>
       <c r="G98" t="n">
-        <v>52</v>
+        <v>24.44117647058824</v>
       </c>
       <c r="H98" t="n">
-        <v>140</v>
+        <v>535</v>
       </c>
       <c r="I98" t="n">
-        <v>2.421428571428571</v>
+        <v>831</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3.641395908543923</v>
       </c>
       <c r="K98" t="n">
-        <v>6.442857142857143</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>3.881904761904762</v>
+        <v>9.247894103489772</v>
+      </c>
+      <c r="M98" t="n">
+        <v>10.0339916472004</v>
       </c>
     </row>
     <row r="99">
@@ -4381,38 +4871,43 @@
           <t>Netclan20241114</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>1</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01851851834705076</v>
+        <v>0.7037036776406045</v>
       </c>
       <c r="F99" t="n">
-        <v>12</v>
+        <v>0.0347938143881523</v>
       </c>
       <c r="G99" t="n">
-        <v>65</v>
+        <v>29.84615384615385</v>
       </c>
       <c r="H99" t="n">
-        <v>108</v>
+        <v>544</v>
       </c>
       <c r="I99" t="n">
-        <v>2.787037037037037</v>
+        <v>776</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>3.791237113402062</v>
       </c>
       <c r="K99" t="n">
-        <v>7.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>5.040740740740741</v>
+        <v>9.610824742268042</v>
+      </c>
+      <c r="M99" t="n">
+        <v>12.21887390959556</v>
       </c>
     </row>
     <row r="100">
@@ -4421,38 +4916,43 @@
           <t>Netclan20241115</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>6</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7142856122449125</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04046242751177788</v>
+        <v>0.7575757346189171</v>
       </c>
       <c r="F100" t="n">
-        <v>13.30769230769231</v>
+        <v>0.03666666662592592</v>
       </c>
       <c r="G100" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="H100" t="n">
-        <v>173</v>
+        <v>603</v>
       </c>
       <c r="I100" t="n">
-        <v>2.855491329479769</v>
+        <v>900</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>3.661111111111111</v>
       </c>
       <c r="K100" t="n">
-        <v>7.687861271676301</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>5.542730102267676</v>
+        <v>9.384444444444444</v>
+      </c>
+      <c r="M100" t="n">
+        <v>12.268</v>
       </c>
     </row>
     <row r="101">
@@ -4461,38 +4961,43 @@
           <t>Netclan20241116</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>1</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>0.008928571348852042</v>
+        <v>0.7599999696000012</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>0.03234152647821277</v>
       </c>
       <c r="G101" t="n">
-        <v>55</v>
+        <v>24.93548387096774</v>
       </c>
       <c r="H101" t="n">
-        <v>112</v>
+        <v>526</v>
       </c>
       <c r="I101" t="n">
-        <v>2.6875</v>
+        <v>773</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>3.763260025873221</v>
       </c>
       <c r="K101" t="n">
-        <v>6.723214285714286</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>3.396428571428572</v>
+        <v>9.479948253557568</v>
+      </c>
+      <c r="M101" t="n">
+        <v>10.24637983557985</v>
       </c>
     </row>
     <row r="102">
@@ -4501,38 +5006,43 @@
           <t>Netclan20241117</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>4</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1428571224489825</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.04635761558703566</v>
+        <v>0.6129032060353804</v>
       </c>
       <c r="F102" t="n">
-        <v>10.06666666666667</v>
+        <v>0.03794369640398568</v>
       </c>
       <c r="G102" t="n">
-        <v>59</v>
+        <v>24.75757575757576</v>
       </c>
       <c r="H102" t="n">
-        <v>151</v>
+        <v>535</v>
       </c>
       <c r="I102" t="n">
-        <v>2.364238410596026</v>
+        <v>817</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>3.649938800489596</v>
       </c>
       <c r="K102" t="n">
-        <v>6.291390728476821</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>4.182958057395143</v>
+        <v>9.260709914320685</v>
+      </c>
+      <c r="M102" t="n">
+        <v>10.16496420755907</v>
       </c>
     </row>
     <row r="103">
@@ -4541,38 +5051,43 @@
           <t>Netclan20241118</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>1</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>0.03333333277777779</v>
+        <v>0.6296296063100145</v>
       </c>
       <c r="F103" t="n">
-        <v>15</v>
+        <v>0.03400503774054781</v>
       </c>
       <c r="G103" t="n">
-        <v>36</v>
+        <v>30.53846153846154</v>
       </c>
       <c r="H103" t="n">
-        <v>60</v>
+        <v>537</v>
       </c>
       <c r="I103" t="n">
-        <v>2.7</v>
+        <v>794</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>3.702770780856423</v>
       </c>
       <c r="K103" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>6.24</v>
+        <v>9.416876574307304</v>
+      </c>
+      <c r="M103" t="n">
+        <v>12.48591358263903</v>
       </c>
     </row>
     <row r="104">
@@ -4581,38 +5096,43 @@
           <t>Netclan20241119</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>3</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D104" t="n">
-        <v>0.199999960000008</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03378378355551498</v>
+        <v>0.4545454407713503</v>
       </c>
       <c r="F104" t="n">
-        <v>13.45454545454546</v>
+        <v>0.03695408730464268</v>
       </c>
       <c r="G104" t="n">
-        <v>67</v>
+        <v>26.26470588235294</v>
       </c>
       <c r="H104" t="n">
-        <v>148</v>
+        <v>578</v>
       </c>
       <c r="I104" t="n">
-        <v>2.574324324324324</v>
+        <v>893</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>3.601343784994401</v>
       </c>
       <c r="K104" t="n">
-        <v>6.70945945945946</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>5.562899262899264</v>
+        <v>9.132138857782754</v>
+      </c>
+      <c r="M104" t="n">
+        <v>10.76478492852908</v>
       </c>
     </row>
     <row r="105">
@@ -4621,38 +5141,43 @@
           <t>Netclan20241120</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>1</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>0.05555555246913597</v>
+        <v>0.7857142576530622</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>0.03650586696674594</v>
       </c>
       <c r="G105" t="n">
-        <v>8</v>
+        <v>31.95833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>18</v>
+        <v>509</v>
       </c>
       <c r="I105" t="n">
-        <v>2.388888888888889</v>
+        <v>767</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>3.722294654498044</v>
       </c>
       <c r="K105" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1777777777777778</v>
+        <v>9.455019556714472</v>
+      </c>
+      <c r="M105" t="n">
+        <v>13.04878313776619</v>
       </c>
     </row>
     <row r="106">
@@ -4661,38 +5186,43 @@
           <t>Netclan20241121</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>17</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7894736426592819</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06209150306506045</v>
+        <v>0.7647058711072666</v>
       </c>
       <c r="F106" t="n">
-        <v>8.742857142857142</v>
+        <v>0.05991189422034194</v>
       </c>
       <c r="G106" t="n">
-        <v>146</v>
+        <v>16.44927536231884</v>
       </c>
       <c r="H106" t="n">
-        <v>306</v>
+        <v>700</v>
       </c>
       <c r="I106" t="n">
-        <v>2.581699346405229</v>
+        <v>1135</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>3.390308370044053</v>
       </c>
       <c r="K106" t="n">
-        <v>6.568627450980392</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>3.687992530345471</v>
+        <v>8.591189427312775</v>
+      </c>
+      <c r="M106" t="n">
+        <v>6.826406180169826</v>
       </c>
     </row>
     <row r="107">
@@ -4701,38 +5231,43 @@
           <t>Netclan20241122</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>6</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9999998333333611</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03703703680841335</v>
+        <v>0.8235293875432533</v>
       </c>
       <c r="F107" t="n">
-        <v>11.57142857142857</v>
+        <v>0.03605514312189274</v>
       </c>
       <c r="G107" t="n">
-        <v>59</v>
+        <v>20.5</v>
       </c>
       <c r="H107" t="n">
-        <v>162</v>
+        <v>575</v>
       </c>
       <c r="I107" t="n">
-        <v>2.179012345679012</v>
+        <v>943</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>3.423117709437964</v>
       </c>
       <c r="K107" t="n">
-        <v>5.901234567901234</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>4.774250440917108</v>
+        <v>8.744432661717921</v>
+      </c>
+      <c r="M107" t="n">
+        <v>8.44390243902439</v>
       </c>
     </row>
     <row r="108">
@@ -4741,38 +5276,43 @@
           <t>Netclan20241123</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>1</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>0.005747126403752147</v>
+        <v>0.7599999696000012</v>
       </c>
       <c r="F108" t="n">
-        <v>11.6</v>
+        <v>0.03015681540391216</v>
       </c>
       <c r="G108" t="n">
-        <v>76</v>
+        <v>27.63333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>174</v>
+        <v>547</v>
       </c>
       <c r="I108" t="n">
-        <v>2.241379310344827</v>
+        <v>829</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>3.605548854041013</v>
       </c>
       <c r="K108" t="n">
-        <v>6.201149425287356</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>4.814712643678161</v>
+        <v>9.202653799758746</v>
+      </c>
+      <c r="M108" t="n">
+        <v>11.31726578206675</v>
       </c>
     </row>
     <row r="109">
@@ -4781,38 +5321,43 @@
           <t>Netclan20241124</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>5</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D109" t="n">
-        <v>0.99999980000004</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>0.06493506409175241</v>
+        <v>0.7999999733333342</v>
       </c>
       <c r="F109" t="n">
-        <v>15.4</v>
+        <v>0.03787878783096112</v>
       </c>
       <c r="G109" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="H109" t="n">
-        <v>77</v>
+        <v>543</v>
       </c>
       <c r="I109" t="n">
-        <v>2.571428571428572</v>
+        <v>792</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>3.70959595959596</v>
       </c>
       <c r="K109" t="n">
-        <v>6.636363636363637</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>6.367792207792208</v>
+        <v>9.382575757575758</v>
+      </c>
+      <c r="M109" t="n">
+        <v>16.11424242424243</v>
       </c>
     </row>
     <row r="110">
@@ -4821,38 +5366,43 @@
           <t>Netclan20241125</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>28</v>
+      </c>
+      <c r="D110" t="n">
         <v>7</v>
       </c>
-      <c r="C110" t="n">
-        <v>4</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.2727272479338866</v>
-      </c>
       <c r="E110" t="n">
-        <v>0.07534246523738038</v>
+        <v>0.5999999828571434</v>
       </c>
       <c r="F110" t="n">
-        <v>7.684210526315789</v>
+        <v>0.04369538071948142</v>
       </c>
       <c r="G110" t="n">
-        <v>62</v>
+        <v>23.55882352941176</v>
       </c>
       <c r="H110" t="n">
-        <v>146</v>
+        <v>533</v>
       </c>
       <c r="I110" t="n">
-        <v>2.465753424657534</v>
+        <v>801</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>3.694132334581773</v>
       </c>
       <c r="K110" t="n">
-        <v>6.239726027397261</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>3.243547224224946</v>
+        <v>9.309612983770288</v>
+      </c>
+      <c r="M110" t="n">
+        <v>9.689696702651098</v>
       </c>
     </row>
     <row r="111">
@@ -4861,38 +5411,43 @@
           <t>Netclan20241126</t>
         </is>
       </c>
-      <c r="B111" t="n">
-        <v>6</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3333332962963004</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>0.05696202495593655</v>
+        <v>0.611111094135803</v>
       </c>
       <c r="F111" t="n">
-        <v>12.15384615384615</v>
+        <v>0.03829787229968312</v>
       </c>
       <c r="G111" t="n">
-        <v>59</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>158</v>
+        <v>566</v>
       </c>
       <c r="I111" t="n">
-        <v>2.348101265822785</v>
+        <v>940</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K111" t="n">
-        <v>6.291139240506329</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>5.010905550146056</v>
+        <v>8.853191489361702</v>
+      </c>
+      <c r="M111" t="n">
+        <v>12.77418439716312</v>
       </c>
     </row>
     <row r="112">
@@ -4901,38 +5456,43 @@
           <t>Netclan20241127</t>
         </is>
       </c>
-      <c r="B112" t="n">
-        <v>6</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9999998333333611</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0236220471510943</v>
+        <v>0.7999999733333342</v>
       </c>
       <c r="F112" t="n">
-        <v>13.36842105263158</v>
+        <v>0.03246753243239445</v>
       </c>
       <c r="G112" t="n">
-        <v>107</v>
+        <v>27.17647058823529</v>
       </c>
       <c r="H112" t="n">
-        <v>254</v>
+        <v>585</v>
       </c>
       <c r="I112" t="n">
-        <v>2.389763779527559</v>
+        <v>924</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>3.511904761904762</v>
       </c>
       <c r="K112" t="n">
-        <v>6.397637795275591</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>5.515872358060506</v>
+        <v>8.944805194805195</v>
+      </c>
+      <c r="M112" t="n">
+        <v>11.12383498854087</v>
       </c>
     </row>
     <row r="113">
@@ -4941,38 +5501,43 @@
           <t>Netclan20241128</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>6</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7142856122449125</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05343511409591516</v>
+        <v>0.7419354599375658</v>
       </c>
       <c r="F113" t="n">
-        <v>9.357142857142858</v>
+        <v>0.03762135917764398</v>
       </c>
       <c r="G113" t="n">
-        <v>48</v>
+        <v>27.46666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="I113" t="n">
-        <v>2.358778625954198</v>
+        <v>824</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>3.628640776699029</v>
       </c>
       <c r="K113" t="n">
-        <v>6.236641221374046</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>3.889422028353327</v>
+        <v>9.20752427184466</v>
+      </c>
+      <c r="M113" t="n">
+        <v>11.24637540453075</v>
       </c>
     </row>
     <row r="114">
@@ -4981,38 +5546,43 @@
           <t>Netclan20241129</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>15</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9999999333333378</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09554140066534139</v>
+        <v>0.7391304187145562</v>
       </c>
       <c r="F114" t="n">
-        <v>11.21428571428571</v>
+        <v>0.04989154007603955</v>
       </c>
       <c r="G114" t="n">
-        <v>60</v>
+        <v>24.91891891891892</v>
       </c>
       <c r="H114" t="n">
-        <v>157</v>
+        <v>567</v>
       </c>
       <c r="I114" t="n">
-        <v>2.471337579617834</v>
+        <v>922</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>3.523861171366594</v>
       </c>
       <c r="K114" t="n">
-        <v>6.585987261146497</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>4.638580527752502</v>
+        <v>8.962039045553146</v>
+      </c>
+      <c r="M114" t="n">
+        <v>10.21355455238319</v>
       </c>
     </row>
     <row r="115">
@@ -5021,38 +5591,43 @@
           <t>Netclan20241130</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>1</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9999990000010001</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>0.02127659529198734</v>
+        <v>0.5862068763376939</v>
       </c>
       <c r="F115" t="n">
-        <v>6.714285714285714</v>
+        <v>0.03805774273220769</v>
       </c>
       <c r="G115" t="n">
-        <v>24</v>
+        <v>26.27586206896552</v>
       </c>
       <c r="H115" t="n">
-        <v>47</v>
+        <v>518</v>
       </c>
       <c r="I115" t="n">
-        <v>2.425531914893617</v>
+        <v>762</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>3.733595800524935</v>
       </c>
       <c r="K115" t="n">
-        <v>6.340425531914893</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>2.889969604863222</v>
+        <v>9.450131233595801</v>
+      </c>
+      <c r="M115" t="n">
+        <v>10.78226083808489</v>
       </c>
     </row>
     <row r="116">
@@ -5061,38 +5636,43 @@
           <t>Netclan20241131</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>6</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4999999375000079</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0799999992</v>
+        <v>0.7297297100073051</v>
       </c>
       <c r="F116" t="n">
-        <v>8.333333333333334</v>
+        <v>0.04277456642453807</v>
       </c>
       <c r="G116" t="n">
-        <v>57</v>
+        <v>30.89285714285714</v>
       </c>
       <c r="H116" t="n">
-        <v>100</v>
+        <v>597</v>
       </c>
       <c r="I116" t="n">
-        <v>3.06</v>
+        <v>865</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>3.730635838150289</v>
       </c>
       <c r="K116" t="n">
-        <v>7.96</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>3.561333333333334</v>
+        <v>9.448554913294798</v>
+      </c>
+      <c r="M116" t="n">
+        <v>12.63321222130471</v>
       </c>
     </row>
     <row r="117">
@@ -5101,38 +5681,43 @@
           <t>Netclan20241132</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>1</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9999990000010001</v>
+        <v>11</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01333333315555556</v>
+        <v>0.3714285608163269</v>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>0.0318181817892562</v>
       </c>
       <c r="G117" t="n">
-        <v>36</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="H117" t="n">
-        <v>75</v>
+        <v>624</v>
       </c>
       <c r="I117" t="n">
-        <v>2.226666666666667</v>
+        <v>1100</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>3.211818181818182</v>
       </c>
       <c r="K117" t="n">
-        <v>6.133333333333334</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>10.192</v>
+        <v>8.299090909090909</v>
+      </c>
+      <c r="M117" t="n">
+        <v>8.688447552447553</v>
       </c>
     </row>
     <row r="118">
@@ -5141,38 +5726,43 @@
           <t>Netclan20241133</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>8</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9999998750000157</v>
+        <v>22</v>
       </c>
       <c r="E118" t="n">
-        <v>0.04210526293628809</v>
+        <v>0.380281684784765</v>
       </c>
       <c r="F118" t="n">
-        <v>13.57142857142857</v>
+        <v>0.04771505373137429</v>
       </c>
       <c r="G118" t="n">
-        <v>100</v>
+        <v>20.95774647887324</v>
       </c>
       <c r="H118" t="n">
-        <v>190</v>
+        <v>833</v>
       </c>
       <c r="I118" t="n">
-        <v>2.652631578947368</v>
+        <v>1488</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>3.11760752688172</v>
       </c>
       <c r="K118" t="n">
-        <v>6.905263157894737</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>5.639097744360903</v>
+        <v>7.913306451612903</v>
+      </c>
+      <c r="M118" t="n">
+        <v>8.607023322732092</v>
       </c>
     </row>
     <row r="119">
@@ -5181,38 +5771,43 @@
           <t>Netclan20241134</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>1</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9999990000010001</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006944444396219137</v>
+        <v>0.714285697278912</v>
       </c>
       <c r="F119" t="n">
+        <v>0.03743315504685102</v>
+      </c>
+      <c r="G119" t="n">
+        <v>27.36585365853659</v>
+      </c>
+      <c r="H119" t="n">
+        <v>654</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1122</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.322638146167558</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>8.470588235294118</v>
       </c>
-      <c r="G119" t="n">
-        <v>67</v>
-      </c>
-      <c r="H119" t="n">
-        <v>144</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.479166666666667</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>6.631944444444445</v>
-      </c>
-      <c r="L119" t="n">
-        <v>3.574346405228759</v>
+      <c r="M119" t="n">
+        <v>11.17949654362854</v>
       </c>
     </row>
     <row r="120">
@@ -5221,38 +5816,43 @@
           <t>Netclan20241135</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>0</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.7499999687500013</v>
       </c>
       <c r="F120" t="n">
-        <v>3.142857142857143</v>
+        <v>0.03238866392390194</v>
       </c>
       <c r="G120" t="n">
-        <v>31</v>
+        <v>17.23255813953488</v>
       </c>
       <c r="H120" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="I120" t="n">
-        <v>1.795454545454545</v>
+        <v>741</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>3.709851551956815</v>
       </c>
       <c r="K120" t="n">
-        <v>5.125</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1.398051948051948</v>
+        <v>9.421052631578947</v>
+      </c>
+      <c r="M120" t="n">
+        <v>7.162928788877382</v>
       </c>
     </row>
     <row r="121">
@@ -5261,38 +5861,43 @@
           <t>Netclan20241136</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>3</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9999996666667778</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04918032706261759</v>
+        <v>0.5483870790842877</v>
       </c>
       <c r="F121" t="n">
-        <v>8.714285714285714</v>
+        <v>0.04194857910426444</v>
       </c>
       <c r="G121" t="n">
-        <v>37</v>
+        <v>32.1304347826087</v>
       </c>
       <c r="H121" t="n">
-        <v>61</v>
+        <v>523</v>
       </c>
       <c r="I121" t="n">
-        <v>2.688524590163934</v>
+        <v>739</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>3.822733423545332</v>
       </c>
       <c r="K121" t="n">
-        <v>6.950819672131147</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>3.728337236533958</v>
+        <v>9.645466847090663</v>
+      </c>
+      <c r="M121" t="n">
+        <v>13.13525916338177</v>
       </c>
     </row>
     <row r="122">
@@ -5301,38 +5906,43 @@
           <t>Netclan20241137</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>6</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9999998333333611</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>0.09090908953168046</v>
+        <v>0.7999999733333342</v>
       </c>
       <c r="F122" t="n">
-        <v>8.25</v>
+        <v>0.0417246174663079</v>
       </c>
       <c r="G122" t="n">
-        <v>28</v>
+        <v>31.26086956521739</v>
       </c>
       <c r="H122" t="n">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="I122" t="n">
-        <v>2.5</v>
+        <v>719</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>3.833101529902643</v>
       </c>
       <c r="K122" t="n">
-        <v>6.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>3.46969696969697</v>
+        <v>9.709318497913769</v>
+      </c>
+      <c r="M122" t="n">
+        <v>12.78084295821491</v>
       </c>
     </row>
     <row r="123">
@@ -5341,38 +5951,43 @@
           <t>Netclan20241138</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>3</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D123" t="n">
-        <v>0.199999960000008</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1086956498109641</v>
+        <v>0.5294117491349486</v>
       </c>
       <c r="F123" t="n">
-        <v>15.33333333333333</v>
+        <v>0.04588394055886108</v>
       </c>
       <c r="G123" t="n">
-        <v>17</v>
+        <v>37.05</v>
       </c>
       <c r="H123" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="I123" t="n">
-        <v>2.434782608695652</v>
+        <v>741</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>3.777327935222672</v>
       </c>
       <c r="K123" t="n">
-        <v>6.717391304347826</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>6.281159420289856</v>
+        <v>9.587044534412955</v>
+      </c>
+      <c r="M123" t="n">
+        <v>15.08990553306343</v>
       </c>
     </row>
     <row r="124">
@@ -5381,38 +5996,43 @@
           <t>Netclan20241139</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>4</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1428571224489825</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>0.129629627229081</v>
+        <v>0.6129032060353804</v>
       </c>
       <c r="F124" t="n">
-        <v>6.75</v>
+        <v>0.04341736688597007</v>
       </c>
       <c r="G124" t="n">
-        <v>32</v>
+        <v>31.04347826086957</v>
       </c>
       <c r="H124" t="n">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="I124" t="n">
-        <v>2.592592592592593</v>
+        <v>714</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>3.854341736694678</v>
       </c>
       <c r="K124" t="n">
-        <v>6.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>2.937037037037037</v>
+        <v>9.733893557422968</v>
+      </c>
+      <c r="M124" t="n">
+        <v>12.70086469370357</v>
       </c>
     </row>
     <row r="125">
@@ -5421,38 +6041,43 @@
           <t>Netclan20241140</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>3</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4999998750000312</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08333333159722227</v>
+        <v>0.7142856887755111</v>
       </c>
       <c r="F125" t="n">
-        <v>6.857142857142857</v>
+        <v>0.03894297630188737</v>
       </c>
       <c r="G125" t="n">
-        <v>28</v>
+        <v>32.68181818181818</v>
       </c>
       <c r="H125" t="n">
-        <v>48</v>
+        <v>509</v>
       </c>
       <c r="I125" t="n">
-        <v>2.520833333333333</v>
+        <v>719</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>3.835883171070932</v>
       </c>
       <c r="K125" t="n">
-        <v>6.729166666666667</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>2.976190476190476</v>
+        <v>9.695410292072323</v>
+      </c>
+      <c r="M125" t="n">
+        <v>13.35589834365912</v>
       </c>
     </row>
     <row r="126">
@@ -5461,38 +6086,43 @@
           <t>Netclan20241141</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>9</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9999998888889013</v>
+        <v>13</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06474820097303452</v>
+        <v>0.490196068819685</v>
       </c>
       <c r="F126" t="n">
-        <v>9.928571428571429</v>
+        <v>0.0504950494549554</v>
       </c>
       <c r="G126" t="n">
-        <v>62</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>139</v>
+        <v>628</v>
       </c>
       <c r="I126" t="n">
-        <v>2.575539568345324</v>
+        <v>1010</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>3.443564356435644</v>
       </c>
       <c r="K126" t="n">
-        <v>6.985611510791367</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>4.149845837615622</v>
+        <v>8.846534653465346</v>
+      </c>
+      <c r="M126" t="n">
+        <v>8.665379537953795</v>
       </c>
     </row>
     <row r="127">
@@ -5501,38 +6131,43 @@
           <t>Netclan20241142</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>1</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9999990000010001</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>0.009803921472510574</v>
+        <v>0.7599999696000012</v>
       </c>
       <c r="F127" t="n">
-        <v>7.846153846153846</v>
+        <v>0.03306878302504129</v>
       </c>
       <c r="G127" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H127" t="n">
-        <v>102</v>
+        <v>519</v>
       </c>
       <c r="I127" t="n">
-        <v>2.470588235294118</v>
+        <v>756</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>3.767195767195767</v>
       </c>
       <c r="K127" t="n">
-        <v>6.264705882352941</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>3.330618401206636</v>
+        <v>9.5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>11.07460317460318</v>
       </c>
     </row>
     <row r="128">
@@ -5541,38 +6176,43 @@
           <t>Netclan20241143</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>3</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4545454132231443</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05164319224580661</v>
+        <v>0.3888888780864201</v>
       </c>
       <c r="F128" t="n">
-        <v>15.21428571428571</v>
+        <v>0.03887688980682841</v>
       </c>
       <c r="G128" t="n">
-        <v>109</v>
+        <v>28.9375</v>
       </c>
       <c r="H128" t="n">
-        <v>213</v>
+        <v>612</v>
       </c>
       <c r="I128" t="n">
-        <v>2.690140845070423</v>
+        <v>926</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>3.598272138228942</v>
       </c>
       <c r="K128" t="n">
-        <v>6.755868544600939</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>6.290409121395037</v>
+        <v>9.056155507559396</v>
+      </c>
+      <c r="M128" t="n">
+        <v>11.83936285097192</v>
       </c>
     </row>
     <row r="129">
@@ -5581,38 +6221,43 @@
           <t>Netclan20241144</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>9</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4999999583333368</v>
+        <v>6</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1132075461018156</v>
+        <v>0.6666666481481487</v>
       </c>
       <c r="F129" t="n">
-        <v>11.77777777777778</v>
+        <v>0.04645161284328824</v>
       </c>
       <c r="G129" t="n">
-        <v>45</v>
+        <v>32.29166666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>106</v>
+        <v>521</v>
       </c>
       <c r="I129" t="n">
-        <v>2.60377358490566</v>
+        <v>775</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>3.756129032258065</v>
       </c>
       <c r="K129" t="n">
-        <v>6.981132075471698</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>4.880922431865828</v>
+        <v>9.530322580645162</v>
+      </c>
+      <c r="M129" t="n">
+        <v>13.18556989247312</v>
       </c>
     </row>
     <row r="130">
@@ -5621,38 +6266,43 @@
           <t>Netclan20241145</t>
         </is>
       </c>
-      <c r="B130" t="n">
-        <v>12</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7142856632653098</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.07865168495139503</v>
+        <v>0.7368420858725767</v>
       </c>
       <c r="F130" t="n">
-        <v>9.888888888888889</v>
+        <v>0.04481132070187344</v>
       </c>
       <c r="G130" t="n">
-        <v>99</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="H130" t="n">
-        <v>178</v>
+        <v>581</v>
       </c>
       <c r="I130" t="n">
-        <v>2.865168539325843</v>
+        <v>848</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>3.726415094339623</v>
       </c>
       <c r="K130" t="n">
-        <v>7.320224719101123</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>4.178027465667916</v>
+        <v>9.40683962264151</v>
+      </c>
+      <c r="M130" t="n">
+        <v>9.696278825995808</v>
       </c>
     </row>
     <row r="131">
@@ -5661,38 +6311,43 @@
           <t>Netclan20241146</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>9</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D131" t="n">
-        <v>0.636363578512402</v>
+        <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>0.08088235234645329</v>
+        <v>0.6315789307479229</v>
       </c>
       <c r="F131" t="n">
-        <v>10.46153846153846</v>
+        <v>0.04387990757057748</v>
       </c>
       <c r="G131" t="n">
-        <v>56</v>
+        <v>24.74285714285714</v>
       </c>
       <c r="H131" t="n">
-        <v>136</v>
+        <v>549</v>
       </c>
       <c r="I131" t="n">
-        <v>2.477941176470588</v>
+        <v>866</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>3.584295612009238</v>
       </c>
       <c r="K131" t="n">
-        <v>6.977941176470588</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>4.349321266968326</v>
+        <v>9.197459584295611</v>
+      </c>
+      <c r="M131" t="n">
+        <v>10.15072253381722</v>
       </c>
     </row>
     <row r="132">
@@ -5701,38 +6356,43 @@
           <t>Netclan20241147</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>4</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9999997500000625</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>0.02547770684409104</v>
+        <v>0.7931034209274682</v>
       </c>
       <c r="F132" t="n">
-        <v>8.263157894736842</v>
+        <v>0.03436018953274859</v>
       </c>
       <c r="G132" t="n">
-        <v>68</v>
+        <v>24.11428571428571</v>
       </c>
       <c r="H132" t="n">
-        <v>157</v>
+        <v>551</v>
       </c>
       <c r="I132" t="n">
-        <v>2.452229299363057</v>
+        <v>844</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>3.626777251184834</v>
       </c>
       <c r="K132" t="n">
-        <v>6.707006369426751</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>3.478511565538049</v>
+        <v>9.266587677725118</v>
+      </c>
+      <c r="M132" t="n">
+        <v>9.906851726472581</v>
       </c>
     </row>
     <row r="133">
@@ -5741,38 +6401,43 @@
           <t>Netclan20241148</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>25</v>
+      </c>
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.599999880000024</v>
-      </c>
       <c r="E133" t="n">
-        <v>0.03225806430801249</v>
+        <v>0.7241379060642101</v>
       </c>
       <c r="F133" t="n">
-        <v>9.6875</v>
+        <v>0.03580246909160189</v>
       </c>
       <c r="G133" t="n">
-        <v>71</v>
+        <v>26.12903225806452</v>
       </c>
       <c r="H133" t="n">
-        <v>155</v>
+        <v>542</v>
       </c>
       <c r="I133" t="n">
-        <v>2.490322580645161</v>
+        <v>810</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>3.68395061728395</v>
       </c>
       <c r="K133" t="n">
-        <v>6.819354838709677</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>4.058225806451613</v>
+        <v>9.388888888888889</v>
+      </c>
+      <c r="M133" t="n">
+        <v>10.71926722421346</v>
       </c>
     </row>
     <row r="134">
@@ -5781,38 +6446,43 @@
           <t>Netclan20241149</t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>2</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D134" t="n">
-        <v>0.99999950000025</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02298850548289074</v>
+        <v>0.7777777489711944</v>
       </c>
       <c r="F134" t="n">
-        <v>12.42857142857143</v>
+        <v>0.03400503774054781</v>
       </c>
       <c r="G134" t="n">
-        <v>42</v>
+        <v>31.76</v>
       </c>
       <c r="H134" t="n">
-        <v>87</v>
+        <v>540</v>
       </c>
       <c r="I134" t="n">
-        <v>2.494252873563219</v>
+        <v>794</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>3.739294710327456</v>
       </c>
       <c r="K134" t="n">
-        <v>6.229885057471265</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>5.164532019704434</v>
+        <v>9.385390428211586</v>
+      </c>
+      <c r="M134" t="n">
+        <v>12.976040302267</v>
       </c>
     </row>
     <row r="135">
@@ -5821,38 +6491,43 @@
           <t>Netclan20241150</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>2</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>0.04705882297577856</v>
+        <v>0.4999999843750005</v>
       </c>
       <c r="F135" t="n">
-        <v>28.33333333333333</v>
+        <v>0.04010025057631548</v>
       </c>
       <c r="G135" t="n">
-        <v>37</v>
+        <v>29.55555555555556</v>
       </c>
       <c r="H135" t="n">
-        <v>85</v>
+        <v>535</v>
       </c>
       <c r="I135" t="n">
-        <v>2.435294117647059</v>
+        <v>798</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>3.725563909774436</v>
       </c>
       <c r="K135" t="n">
-        <v>6.305882352941176</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>11.50745098039216</v>
+        <v>9.414786967418546</v>
+      </c>
+      <c r="M135" t="n">
+        <v>12.09039264828739</v>
       </c>
     </row>
     <row r="136">
@@ -5861,38 +6536,43 @@
           <t>Netclan20241151</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>4</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9999997500000625</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0512820506245891</v>
+        <v>0.7999999733333342</v>
       </c>
       <c r="F136" t="n">
-        <v>13</v>
+        <v>0.0387596898724035</v>
       </c>
       <c r="G136" t="n">
-        <v>41</v>
+        <v>32.25</v>
       </c>
       <c r="H136" t="n">
-        <v>78</v>
+        <v>529</v>
       </c>
       <c r="I136" t="n">
-        <v>2.641025641025641</v>
+        <v>774</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>3.760981912144703</v>
       </c>
       <c r="K136" t="n">
-        <v>6.653846153846154</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>5.410256410256411</v>
+        <v>9.490956072351421</v>
+      </c>
+      <c r="M136" t="n">
+        <v>13.1733850129199</v>
       </c>
     </row>
     <row r="137">
@@ -5901,38 +6581,43 @@
           <t>Netclan20241152</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>4</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9999997500000625</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05333333262222224</v>
+        <v>0.7999999733333342</v>
       </c>
       <c r="F137" t="n">
-        <v>15</v>
+        <v>0.03906249994913737</v>
       </c>
       <c r="G137" t="n">
-        <v>40</v>
+        <v>34.90909090909091</v>
       </c>
       <c r="H137" t="n">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="I137" t="n">
-        <v>2.666666666666667</v>
+        <v>768</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>3.774739583333333</v>
       </c>
       <c r="K137" t="n">
-        <v>6.733333333333333</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>6.213333333333334</v>
+        <v>9.5234375</v>
+      </c>
+      <c r="M137" t="n">
+        <v>14.2375946969697</v>
       </c>
     </row>
     <row r="138">
@@ -5941,38 +6626,43 @@
           <t>Netclan20241153</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>27</v>
+      </c>
+      <c r="D138" t="n">
         <v>4</v>
       </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.9999997500000625</v>
-      </c>
       <c r="E138" t="n">
-        <v>0.04999999937500001</v>
+        <v>0.7419354599375658</v>
       </c>
       <c r="F138" t="n">
-        <v>11.42857142857143</v>
+        <v>0.03944020351216259</v>
       </c>
       <c r="G138" t="n">
-        <v>40</v>
+        <v>23.81818181818182</v>
       </c>
       <c r="H138" t="n">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="I138" t="n">
-        <v>2.625</v>
+        <v>786</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>3.723918575063613</v>
       </c>
       <c r="K138" t="n">
-        <v>6.675</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>4.771428571428571</v>
+        <v>9.421119592875318</v>
+      </c>
+      <c r="M138" t="n">
+        <v>9.796992829053899</v>
       </c>
     </row>
     <row r="139">
@@ -5981,38 +6671,43 @@
           <t>Netclan20241154</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99999950000025</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
-        <v>0.03030302984389349</v>
+        <v>0.6666666481481487</v>
       </c>
       <c r="F139" t="n">
-        <v>22</v>
+        <v>0.04539722566784713</v>
       </c>
       <c r="G139" t="n">
-        <v>26</v>
+        <v>33.04166666666666</v>
       </c>
       <c r="H139" t="n">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="I139" t="n">
-        <v>2.378787878787879</v>
+        <v>793</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>3.697351828499369</v>
       </c>
       <c r="K139" t="n">
-        <v>6.348484848484849</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>8.957575757575759</v>
+        <v>9.336696090794451</v>
+      </c>
+      <c r="M139" t="n">
+        <v>13.48198823034888</v>
       </c>
     </row>
     <row r="140">
@@ -6021,38 +6716,43 @@
           <t>Netclan20241155</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>4</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9999997500000625</v>
+        <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05797101365259401</v>
+        <v>0.6923076745562136</v>
       </c>
       <c r="F140" t="n">
-        <v>17.25</v>
+        <v>0.04868913851599359</v>
       </c>
       <c r="G140" t="n">
-        <v>32</v>
+        <v>30.80769230769231</v>
       </c>
       <c r="H140" t="n">
-        <v>69</v>
+        <v>538</v>
       </c>
       <c r="I140" t="n">
-        <v>2.492753623188406</v>
+        <v>801</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>3.701622971285893</v>
       </c>
       <c r="K140" t="n">
-        <v>6.260869565217392</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>7.085507246376811</v>
+        <v>9.3083645443196</v>
+      </c>
+      <c r="M140" t="n">
+        <v>12.59174109286469</v>
       </c>
     </row>
     <row r="141">
@@ -6061,38 +6761,43 @@
           <t>Netclan20241156</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3333332222222593</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03896103845505145</v>
+        <v>0.7777777604938276</v>
       </c>
       <c r="F141" t="n">
-        <v>7.7</v>
+        <v>0.05220417627354504</v>
       </c>
       <c r="G141" t="n">
-        <v>33</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="H141" t="n">
-        <v>77</v>
+        <v>553</v>
       </c>
       <c r="I141" t="n">
-        <v>2.428571428571428</v>
+        <v>862</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>3.603248259860789</v>
       </c>
       <c r="K141" t="n">
-        <v>6.441558441558442</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>3.251428571428571</v>
+        <v>9.209976798143851</v>
+      </c>
+      <c r="M141" t="n">
+        <v>9.834390306780099</v>
       </c>
     </row>
     <row r="142">
@@ -6101,38 +6806,43 @@
           <t>Netclan20241157</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>11</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D142" t="n">
-        <v>0.09999999500000024</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03960396031761592</v>
+        <v>0.4545454442148763</v>
       </c>
       <c r="F142" t="n">
-        <v>9.528301886792454</v>
+        <v>0.03754266208400796</v>
       </c>
       <c r="G142" t="n">
-        <v>183</v>
+        <v>16.98550724637681</v>
       </c>
       <c r="H142" t="n">
-        <v>505</v>
+        <v>657</v>
       </c>
       <c r="I142" t="n">
-        <v>2.435643564356436</v>
+        <v>1172</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>3.28839590443686</v>
       </c>
       <c r="K142" t="n">
-        <v>6.669306930693069</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>3.956271249766486</v>
+        <v>8.529863481228668</v>
+      </c>
+      <c r="M142" t="n">
+        <v>7.018434980461987</v>
       </c>
     </row>
     <row r="143">
@@ -6141,38 +6851,43 @@
           <t>Netclan20241158</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>9</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2857142653061239</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05426356568114897</v>
+        <v>0.5121951094586559</v>
       </c>
       <c r="F143" t="n">
-        <v>11.21739130434783</v>
+        <v>0.04179408762304374</v>
       </c>
       <c r="G143" t="n">
-        <v>154</v>
+        <v>23.35714285714286</v>
       </c>
       <c r="H143" t="n">
-        <v>258</v>
+        <v>662</v>
       </c>
       <c r="I143" t="n">
-        <v>2.806201550387597</v>
+        <v>981</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>3.577981651376147</v>
       </c>
       <c r="K143" t="n">
-        <v>7.445736434108527</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>4.725716211661611</v>
+        <v>9.132517838939858</v>
+      </c>
+      <c r="M143" t="n">
+        <v>9.612785787097714</v>
       </c>
     </row>
     <row r="144">
@@ -6181,38 +6896,43 @@
           <t>Netclan20241159</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>12</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1428571360544221</v>
+        <v>13</v>
       </c>
       <c r="E144" t="n">
-        <v>0.04449152532946711</v>
+        <v>0.4347825992438565</v>
       </c>
       <c r="F144" t="n">
-        <v>12.42105263157895</v>
+        <v>0.03962101633107578</v>
       </c>
       <c r="G144" t="n">
-        <v>216</v>
+        <v>21.10909090909091</v>
       </c>
       <c r="H144" t="n">
-        <v>472</v>
+        <v>708</v>
       </c>
       <c r="I144" t="n">
-        <v>2.580508474576271</v>
+        <v>1161</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>3.383290267011197</v>
       </c>
       <c r="K144" t="n">
-        <v>6.813559322033898</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>5.151471900089206</v>
+        <v>8.648578811369509</v>
+      </c>
+      <c r="M144" t="n">
+        <v>8.687564012215175</v>
       </c>
     </row>
     <row r="145">
@@ -6221,38 +6941,43 @@
           <t>Netclan20241160</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>41</v>
+      </c>
+      <c r="D145" t="n">
         <v>20</v>
       </c>
-      <c r="C145" t="n">
-        <v>17</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.08108107888970058</v>
-      </c>
       <c r="E145" t="n">
-        <v>0.04805194798954292</v>
+        <v>0.3442622894383232</v>
       </c>
       <c r="F145" t="n">
-        <v>11.66666666666667</v>
+        <v>0.04239054896289746</v>
       </c>
       <c r="G145" t="n">
-        <v>386</v>
+        <v>17.54878048780488</v>
       </c>
       <c r="H145" t="n">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="I145" t="n">
-        <v>2.674025974025974</v>
+        <v>1439</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>3.264767199444059</v>
       </c>
       <c r="K145" t="n">
-        <v>6.738961038961039</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>4.867186147186147</v>
+        <v>8.229325920778319</v>
+      </c>
+      <c r="M145" t="n">
+        <v>7.260234919235919</v>
       </c>
     </row>
     <row r="146">
@@ -6261,38 +6986,43 @@
           <t>Netclan20241161</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>6</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1132075461018156</v>
+        <v>0.3809523718820864</v>
       </c>
       <c r="F146" t="n">
-        <v>7.571428571428571</v>
+        <v>0.04952830182838644</v>
       </c>
       <c r="G146" t="n">
-        <v>47</v>
+        <v>21.74358974358974</v>
       </c>
       <c r="H146" t="n">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="I146" t="n">
-        <v>2.358490566037736</v>
+        <v>848</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>3.613207547169811</v>
       </c>
       <c r="K146" t="n">
-        <v>6.349056603773585</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>3.205929919137466</v>
+        <v>9.163915094339623</v>
+      </c>
+      <c r="M146" t="n">
+        <v>8.957341557813256</v>
       </c>
     </row>
     <row r="147">
@@ -6301,38 +7031,43 @@
           <t>Netclan20241162</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>0</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>0.7499999687500013</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>0.03301237959695684</v>
       </c>
       <c r="G147" t="n">
-        <v>7</v>
+        <v>48.46666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>727</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>3.81292984869326</v>
       </c>
       <c r="K147" t="n">
-        <v>10.58333333333333</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2333333333333334</v>
+        <v>9.675378266850069</v>
+      </c>
+      <c r="M147" t="n">
+        <v>19.65956900504356</v>
       </c>
     </row>
     <row r="148">
@@ -6341,38 +7076,43 @@
           <t>Netclan20241163</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>0.99999950000025</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>0.03278688470841173</v>
+        <v>0.7692307396449716</v>
       </c>
       <c r="F148" t="n">
-        <v>10.16666666666667</v>
+        <v>0.03631284911129491</v>
       </c>
       <c r="G148" t="n">
-        <v>24</v>
+        <v>34.09523809523809</v>
       </c>
       <c r="H148" t="n">
-        <v>61</v>
+        <v>495</v>
       </c>
       <c r="I148" t="n">
-        <v>2.426229508196721</v>
+        <v>716</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>3.835195530726257</v>
       </c>
       <c r="K148" t="n">
-        <v>6.442622950819672</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>4.224043715846995</v>
+        <v>9.69413407821229</v>
+      </c>
+      <c r="M148" t="n">
+        <v>13.9146315509444</v>
       </c>
     </row>
   </sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>URL_ID</t>
+          <t>URL ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,57 +446,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>POSITIVE_SCORE</t>
+          <t>POSITIVE SCORE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NEGATIVE_SCORE</t>
+          <t>NEGATIVE SCORE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>POLARITY_SCORE</t>
+          <t>POLARITY SCORE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SUBJECTIVITY_SCORE</t>
+          <t>SUBJECTIVITY SCORE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AVG_SENTENCE_LENGTH</t>
+          <t>AVG SENTENCE LENGTH</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>COMPLEX_WORD_COUNT</t>
+          <t>PERCENTAGE OF COMPLEX WORDS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>WORD_COUNT</t>
+          <t>FOG INDEX</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SYLLABLE_PER_WORD</t>
+          <t>AVG NUMBER OF WORDS PER SENTENCE</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PERSONAL_PRONOUNS</t>
+          <t>COMPLEX WORD COUNT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AVG_WORD_LENGTH</t>
+          <t>WORD COUNT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FOG_INDEX</t>
+          <t>SYLLABLE PER WORD</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PERSONAL PRONOUNS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AVG WORD LENGTH</t>
         </is>
       </c>
     </row>
@@ -527,22 +537,28 @@
         <v>27.96551724137931</v>
       </c>
       <c r="H2" t="n">
+        <v>67.07768187422934</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.45451762404864</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.96551724137931</v>
+      </c>
+      <c r="K2" t="n">
         <v>544</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>811</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>3.683107274969174</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>9.42170160295931</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11.45451762404864</v>
       </c>
     </row>
     <row r="3">
@@ -572,22 +588,28 @@
         <v>18.10344827586207</v>
       </c>
       <c r="H3" t="n">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.488998357963876</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18.10344827586207</v>
+      </c>
+      <c r="K3" t="n">
         <v>650</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>1050</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>3.422857142857143</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>8.80952380952381</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.488998357963876</v>
       </c>
     </row>
     <row r="4">
@@ -617,22 +639,28 @@
         <v>23.1</v>
       </c>
       <c r="H4" t="n">
+        <v>63.41991341991342</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.493679653679655</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>586</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>924</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>3.494588744588745</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>8.930735930735931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.493679653679655</v>
       </c>
     </row>
     <row r="5">
@@ -662,22 +690,28 @@
         <v>22.91304347826087</v>
       </c>
       <c r="H5" t="n">
+        <v>68.59582542694497</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.43960069301213</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22.91304347826087</v>
+      </c>
+      <c r="K5" t="n">
         <v>723</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>1054</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>3.566413662239089</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>9.193548387096774</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9.43960069301213</v>
       </c>
     </row>
     <row r="6">
@@ -707,22 +741,28 @@
         <v>12.96116504854369</v>
       </c>
       <c r="H6" t="n">
+        <v>56.32958801498127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.409784371477401</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.96116504854369</v>
+      </c>
+      <c r="K6" t="n">
         <v>752</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>1335</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>3.210486891385768</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>8.28689138576779</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.409784371477401</v>
       </c>
     </row>
     <row r="7">
@@ -752,22 +792,28 @@
         <v>27.96551724137931</v>
       </c>
       <c r="H7" t="n">
+        <v>67.07768187422934</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.45451762404864</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27.96551724137931</v>
+      </c>
+      <c r="K7" t="n">
         <v>544</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>811</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>3.683107274969174</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>9.42170160295931</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.45451762404864</v>
       </c>
     </row>
     <row r="8">
@@ -797,22 +843,28 @@
         <v>18.10344827586207</v>
       </c>
       <c r="H8" t="n">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.488998357963876</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.10344827586207</v>
+      </c>
+      <c r="K8" t="n">
         <v>650</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>1050</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>3.422857142857143</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>8.80952380952381</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.488998357963876</v>
       </c>
     </row>
     <row r="9">
@@ -842,22 +894,28 @@
         <v>23.1</v>
       </c>
       <c r="H9" t="n">
+        <v>63.41991341991342</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.493679653679655</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>586</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>924</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>3.494588744588745</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>8.930735930735931</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9.493679653679655</v>
       </c>
     </row>
     <row r="10">
@@ -887,22 +945,28 @@
         <v>22.91304347826087</v>
       </c>
       <c r="H10" t="n">
+        <v>68.59582542694497</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.43960069301213</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22.91304347826087</v>
+      </c>
+      <c r="K10" t="n">
         <v>723</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>1054</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>3.566413662239089</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>9.193548387096774</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.43960069301213</v>
       </c>
     </row>
     <row r="11">
@@ -932,22 +996,28 @@
         <v>14.192</v>
       </c>
       <c r="H11" t="n">
+        <v>65.05073280721533</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.937002931228862</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.192</v>
+      </c>
+      <c r="K11" t="n">
         <v>1154</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>1774</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>3.337655016910936</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>8.455467869222097</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.937002931228862</v>
       </c>
     </row>
     <row r="12">
@@ -977,22 +1047,28 @@
         <v>22.72093023255814</v>
       </c>
       <c r="H12" t="n">
+        <v>68.57727737973389</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.362681202542191</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22.72093023255814</v>
+      </c>
+      <c r="K12" t="n">
         <v>670</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>977</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>3.632548618219038</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>9.221084953940634</v>
-      </c>
-      <c r="M12" t="n">
-        <v>9.362681202542191</v>
       </c>
     </row>
     <row r="13">
@@ -1022,22 +1098,28 @@
         <v>23.74468085106383</v>
       </c>
       <c r="H13" t="n">
+        <v>67.20430107526882</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.766689544726608</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23.74468085106383</v>
+      </c>
+      <c r="K13" t="n">
         <v>750</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>1116</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>3.531362007168459</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>9.049283154121865</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9.766689544726608</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1149,28 @@
         <v>22.27906976744186</v>
       </c>
       <c r="H14" t="n">
+        <v>66.59707724425887</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.178016215953781</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22.27906976744186</v>
+      </c>
+      <c r="K14" t="n">
         <v>638</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>958</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>3.599164926931107</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>9.267223382045929</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9.178016215953781</v>
       </c>
     </row>
     <row r="15">
@@ -1112,22 +1200,28 @@
         <v>24.28205128205128</v>
       </c>
       <c r="H15" t="n">
+        <v>68.6378035902851</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.987371727181653</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.28205128205128</v>
+      </c>
+      <c r="K15" t="n">
         <v>650</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>947</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>3.664202745512144</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>9.327349524815206</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9.987371727181653</v>
       </c>
     </row>
     <row r="16">
@@ -1157,22 +1251,28 @@
         <v>17.05747126436782</v>
       </c>
       <c r="H16" t="n">
+        <v>62.6010781671159</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.073392818415591</v>
+      </c>
+      <c r="J16" t="n">
+        <v>17.05747126436782</v>
+      </c>
+      <c r="K16" t="n">
         <v>929</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>1484</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>3.331536388140162</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>8.661725067385445</v>
-      </c>
-      <c r="M16" t="n">
-        <v>7.073392818415591</v>
       </c>
     </row>
     <row r="17">
@@ -1202,22 +1302,28 @@
         <v>11.1484375</v>
       </c>
       <c r="H17" t="n">
+        <v>61.80798878766643</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.706606955150666</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.1484375</v>
+      </c>
+      <c r="K17" t="n">
         <v>882</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>1427</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>3.292221443587947</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>8.393833216538193</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.706606955150666</v>
       </c>
     </row>
     <row r="18">
@@ -1247,22 +1353,28 @@
         <v>19.11764705882353</v>
       </c>
       <c r="H18" t="n">
+        <v>65.84615384615384</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.910443438914027</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19.11764705882353</v>
+      </c>
+      <c r="K18" t="n">
         <v>1070</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>1625</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>3.433230769230769</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>8.764923076923077</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7.910443438914027</v>
       </c>
     </row>
     <row r="19">
@@ -1292,22 +1404,28 @@
         <v>21.86842105263158</v>
       </c>
       <c r="H19" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.014035087719298</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21.86842105263158</v>
+      </c>
+      <c r="K19" t="n">
         <v>554</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>831</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>3.690734055354994</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>9.393501805054152</v>
-      </c>
-      <c r="M19" t="n">
-        <v>9.014035087719298</v>
       </c>
     </row>
     <row r="20">
@@ -1337,22 +1455,28 @@
         <v>14.95</v>
       </c>
       <c r="H20" t="n">
+        <v>60.53511705685619</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.222140468227425</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K20" t="n">
         <v>905</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>1495</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>3.357859531772575</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>8.549832775919732</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6.222140468227425</v>
       </c>
     </row>
     <row r="21">
@@ -1382,22 +1506,28 @@
         <v>18.03448275862069</v>
       </c>
       <c r="H21" t="n">
+        <v>64.43594646271511</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.471536889299137</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.03448275862069</v>
+      </c>
+      <c r="K21" t="n">
         <v>674</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>1046</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>3.509560229445507</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>8.921606118546846</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7.471536889299137</v>
       </c>
     </row>
     <row r="22">
@@ -1427,22 +1557,28 @@
         <v>20.24390243902439</v>
       </c>
       <c r="H22" t="n">
+        <v>66.98795180722892</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.365512782838671</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20.24390243902439</v>
+      </c>
+      <c r="K22" t="n">
         <v>556</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>830</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>3.687951807228916</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>9.349397590361447</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.365512782838671</v>
       </c>
     </row>
     <row r="23">
@@ -1472,22 +1608,28 @@
         <v>20.75609756097561</v>
       </c>
       <c r="H23" t="n">
+        <v>68.86016451233843</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.577879682439599</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.75609756097561</v>
+      </c>
+      <c r="K23" t="n">
         <v>586</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>851</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>3.722679200940071</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>9.471210340775558</v>
-      </c>
-      <c r="M23" t="n">
-        <v>8.577879682439599</v>
       </c>
     </row>
     <row r="24">
@@ -1517,22 +1659,28 @@
         <v>21.05</v>
       </c>
       <c r="H24" t="n">
+        <v>67.3396674584323</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.68935866983373</v>
+      </c>
+      <c r="J24" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="K24" t="n">
         <v>567</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>842</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>3.675771971496437</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>9.396674584323041</v>
-      </c>
-      <c r="M24" t="n">
-        <v>8.68935866983373</v>
       </c>
     </row>
     <row r="25">
@@ -1562,22 +1710,28 @@
         <v>20.51219512195122</v>
       </c>
       <c r="H25" t="n">
+        <v>70.27348394768134</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.485971984571213</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.51219512195122</v>
+      </c>
+      <c r="K25" t="n">
         <v>591</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>841</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>3.763376932223543</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>9.510107015457788</v>
-      </c>
-      <c r="M25" t="n">
-        <v>8.485971984571213</v>
       </c>
     </row>
     <row r="26">
@@ -1607,22 +1761,28 @@
         <v>20.68292682926829</v>
       </c>
       <c r="H26" t="n">
+        <v>69.5754716981132</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.551472618499771</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.68292682926829</v>
+      </c>
+      <c r="K26" t="n">
         <v>590</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>848</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>3.725235849056604</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>9.464622641509434</v>
-      </c>
-      <c r="M26" t="n">
-        <v>8.551472618499771</v>
       </c>
     </row>
     <row r="27">
@@ -1652,22 +1812,28 @@
         <v>19.63636363636364</v>
       </c>
       <c r="H27" t="n">
+        <v>68.05555555555556</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.126767676767678</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19.63636363636364</v>
+      </c>
+      <c r="K27" t="n">
         <v>588</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>864</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>9.32175925925926</v>
-      </c>
-      <c r="M27" t="n">
-        <v>8.126767676767678</v>
       </c>
     </row>
     <row r="28">
@@ -1697,22 +1863,28 @@
         <v>18.81666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>59.96457041629761</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.766524948331858</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18.81666666666667</v>
+      </c>
+      <c r="K28" t="n">
         <v>677</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
         <v>1129</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>3.331266607617361</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>8.705048715677592</v>
-      </c>
-      <c r="M28" t="n">
-        <v>7.766524948331858</v>
       </c>
     </row>
     <row r="29">
@@ -1742,22 +1914,28 @@
         <v>20.58928571428572</v>
       </c>
       <c r="H29" t="n">
+        <v>62.70598438855161</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.486538223268493</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20.58928571428572</v>
+      </c>
+      <c r="K29" t="n">
         <v>723</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>1153</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>3.367736339982654</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>8.722463139635733</v>
-      </c>
-      <c r="M29" t="n">
-        <v>8.486538223268493</v>
       </c>
     </row>
     <row r="30">
@@ -1787,22 +1965,28 @@
         <v>17.55384615384616</v>
       </c>
       <c r="H30" t="n">
+        <v>63.27782646801051</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.274649767410505</v>
+      </c>
+      <c r="J30" t="n">
+        <v>17.55384615384616</v>
+      </c>
+      <c r="K30" t="n">
         <v>722</v>
       </c>
-      <c r="I30" t="n">
+      <c r="L30" t="n">
         <v>1141</v>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
         <v>3.418054338299737</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>8.860648553900088</v>
-      </c>
-      <c r="M30" t="n">
-        <v>7.274649767410505</v>
       </c>
     </row>
     <row r="31">
@@ -1832,22 +2016,28 @@
         <v>18.14285714285714</v>
       </c>
       <c r="H31" t="n">
+        <v>66.05424321959755</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.521359830021247</v>
+      </c>
+      <c r="J31" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="K31" t="n">
         <v>755</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
         <v>1143</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>3.470691163604549</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>8.797025371828521</v>
-      </c>
-      <c r="M31" t="n">
-        <v>7.521359830021247</v>
       </c>
     </row>
     <row r="32">
@@ -1877,22 +2067,28 @@
         <v>16.93548387096774</v>
       </c>
       <c r="H32" t="n">
+        <v>65.14285714285715</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.034764976958525</v>
+      </c>
+      <c r="J32" t="n">
+        <v>16.93548387096774</v>
+      </c>
+      <c r="K32" t="n">
         <v>684</v>
       </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
         <v>1050</v>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>3.495238095238095</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>8.98952380952381</v>
-      </c>
-      <c r="M32" t="n">
-        <v>7.034764976958525</v>
       </c>
     </row>
     <row r="33">
@@ -1922,22 +2118,28 @@
         <v>22.34545454545454</v>
       </c>
       <c r="H33" t="n">
+        <v>64.19853539462979</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.194975959760336</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22.34545454545454</v>
+      </c>
+      <c r="K33" t="n">
         <v>789</v>
       </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
         <v>1229</v>
       </c>
-      <c r="J33" t="n">
+      <c r="M33" t="n">
         <v>3.484947111472742</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>8.938161106590725</v>
-      </c>
-      <c r="M33" t="n">
-        <v>9.194975959760336</v>
       </c>
     </row>
     <row r="34">
@@ -1967,22 +2169,28 @@
         <v>16.59340659340659</v>
       </c>
       <c r="H34" t="n">
+        <v>61.65562913907284</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.88398515391893</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16.59340659340659</v>
+      </c>
+      <c r="K34" t="n">
         <v>931</v>
       </c>
-      <c r="I34" t="n">
+      <c r="L34" t="n">
         <v>1510</v>
       </c>
-      <c r="J34" t="n">
+      <c r="M34" t="n">
         <v>3.312582781456954</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>8.479470198675497</v>
-      </c>
-      <c r="M34" t="n">
-        <v>6.88398515391893</v>
       </c>
     </row>
     <row r="35">
@@ -2012,22 +2220,28 @@
         <v>20.36734693877551</v>
       </c>
       <c r="H35" t="n">
+        <v>64.52905811623246</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.405055007975134</v>
+      </c>
+      <c r="J35" t="n">
+        <v>20.36734693877551</v>
+      </c>
+      <c r="K35" t="n">
         <v>644</v>
       </c>
-      <c r="I35" t="n">
+      <c r="L35" t="n">
         <v>998</v>
       </c>
-      <c r="J35" t="n">
+      <c r="M35" t="n">
         <v>3.466933867735471</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>8.965931863727455</v>
-      </c>
-      <c r="M35" t="n">
-        <v>8.405055007975134</v>
       </c>
     </row>
     <row r="36">
@@ -2057,22 +2271,28 @@
         <v>11.10126582278481</v>
       </c>
       <c r="H36" t="n">
+        <v>56.61345496009123</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.666960148954289</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.10126582278481</v>
+      </c>
+      <c r="K36" t="n">
         <v>993</v>
       </c>
-      <c r="I36" t="n">
+      <c r="L36" t="n">
         <v>1754</v>
       </c>
-      <c r="J36" t="n">
+      <c r="M36" t="n">
         <v>3.129988597491448</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>8.254846066134549</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.666960148954289</v>
       </c>
     </row>
     <row r="37">
@@ -2102,22 +2322,28 @@
         <v>13.59139784946237</v>
       </c>
       <c r="H37" t="n">
+        <v>61.62974683544304</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.683078127126719</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.59139784946237</v>
+      </c>
+      <c r="K37" t="n">
         <v>779</v>
       </c>
-      <c r="I37" t="n">
+      <c r="L37" t="n">
         <v>1264</v>
       </c>
-      <c r="J37" t="n">
+      <c r="M37" t="n">
         <v>3.380537974683544</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>8.666139240506329</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.683078127126719</v>
       </c>
     </row>
     <row r="38">
@@ -2147,22 +2373,28 @@
         <v>14.93827160493827</v>
       </c>
       <c r="H38" t="n">
+        <v>67.60330578512396</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.245721865115804</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14.93827160493827</v>
+      </c>
+      <c r="K38" t="n">
         <v>818</v>
       </c>
-      <c r="I38" t="n">
+      <c r="L38" t="n">
         <v>1210</v>
       </c>
-      <c r="J38" t="n">
+      <c r="M38" t="n">
         <v>3.533884297520661</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>8.99504132231405</v>
-      </c>
-      <c r="M38" t="n">
-        <v>6.245721865115804</v>
       </c>
     </row>
     <row r="39">
@@ -2192,22 +2424,28 @@
         <v>18.67123287671233</v>
       </c>
       <c r="H39" t="n">
+        <v>64.19662509170946</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.725279651051769</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18.67123287671233</v>
+      </c>
+      <c r="K39" t="n">
         <v>875</v>
       </c>
-      <c r="I39" t="n">
+      <c r="L39" t="n">
         <v>1363</v>
       </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
         <v>3.407923697725605</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>8.694057226705796</v>
-      </c>
-      <c r="M39" t="n">
-        <v>7.725279651051769</v>
       </c>
     </row>
     <row r="40">
@@ -2237,22 +2475,28 @@
         <v>11.68148148148148</v>
       </c>
       <c r="H40" t="n">
+        <v>57.32403297400127</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.901888724488598</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.68148148148148</v>
+      </c>
+      <c r="K40" t="n">
         <v>904</v>
       </c>
-      <c r="I40" t="n">
+      <c r="L40" t="n">
         <v>1577</v>
       </c>
-      <c r="J40" t="n">
+      <c r="M40" t="n">
         <v>3.159797083069118</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>8.098287888395689</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.901888724488598</v>
       </c>
     </row>
     <row r="41">
@@ -2282,22 +2526,28 @@
         <v>11.72340425531915</v>
       </c>
       <c r="H41" t="n">
+        <v>57.62250453720507</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.91985172027648</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.72340425531915</v>
+      </c>
+      <c r="K41" t="n">
         <v>635</v>
       </c>
-      <c r="I41" t="n">
+      <c r="L41" t="n">
         <v>1102</v>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
         <v>3.323049001814882</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>8.526315789473685</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4.91985172027648</v>
       </c>
     </row>
     <row r="42">
@@ -2327,22 +2577,28 @@
         <v>28.37142857142857</v>
       </c>
       <c r="H42" t="n">
+        <v>63.94763343403827</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.60436196230758</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28.37142857142857</v>
+      </c>
+      <c r="K42" t="n">
         <v>635</v>
       </c>
-      <c r="I42" t="n">
+      <c r="L42" t="n">
         <v>993</v>
       </c>
-      <c r="J42" t="n">
+      <c r="M42" t="n">
         <v>3.531722054380665</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>9.021148036253777</v>
-      </c>
-      <c r="M42" t="n">
-        <v>11.60436196230758</v>
       </c>
     </row>
     <row r="43">
@@ -2372,22 +2628,28 @@
         <v>24.6969696969697</v>
       </c>
       <c r="H43" t="n">
+        <v>66.13496932515336</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10.14332775608849</v>
+      </c>
+      <c r="J43" t="n">
+        <v>24.6969696969697</v>
+      </c>
+      <c r="K43" t="n">
         <v>539</v>
       </c>
-      <c r="I43" t="n">
+      <c r="L43" t="n">
         <v>815</v>
       </c>
-      <c r="J43" t="n">
+      <c r="M43" t="n">
         <v>3.656441717791411</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>9.267484662576686</v>
-      </c>
-      <c r="M43" t="n">
-        <v>10.14332775608849</v>
       </c>
     </row>
     <row r="44">
@@ -2417,22 +2679,28 @@
         <v>19.15555555555556</v>
       </c>
       <c r="H44" t="n">
+        <v>66.70533642691416</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.929043567929878</v>
+      </c>
+      <c r="J44" t="n">
+        <v>19.15555555555556</v>
+      </c>
+      <c r="K44" t="n">
         <v>575</v>
       </c>
-      <c r="I44" t="n">
+      <c r="L44" t="n">
         <v>862</v>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
         <v>3.610208816705336</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>9.196055684454757</v>
-      </c>
-      <c r="M44" t="n">
-        <v>7.929043567929878</v>
       </c>
     </row>
     <row r="45">
@@ -2462,22 +2730,28 @@
         <v>20.5</v>
       </c>
       <c r="H45" t="n">
+        <v>65</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8.459999999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K45" t="n">
         <v>533</v>
       </c>
-      <c r="I45" t="n">
+      <c r="L45" t="n">
         <v>820</v>
       </c>
-      <c r="J45" t="n">
+      <c r="M45" t="n">
         <v>3.615853658536585</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>9.223170731707317</v>
-      </c>
-      <c r="M45" t="n">
-        <v>8.459999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2507,22 +2781,28 @@
         <v>14.18333333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>65.33490011750881</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.93467293380337</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14.18333333333333</v>
+      </c>
+      <c r="K46" t="n">
         <v>556</v>
       </c>
-      <c r="I46" t="n">
+      <c r="L46" t="n">
         <v>851</v>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>3.562867215041128</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>9.142185663924794</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5.93467293380337</v>
       </c>
     </row>
     <row r="47">
@@ -2552,22 +2832,28 @@
         <v>15.55128205128205</v>
       </c>
       <c r="H47" t="n">
+        <v>60.42868920032976</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.46222757731414</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.55128205128205</v>
+      </c>
+      <c r="K47" t="n">
         <v>733</v>
       </c>
-      <c r="I47" t="n">
+      <c r="L47" t="n">
         <v>1213</v>
       </c>
-      <c r="J47" t="n">
+      <c r="M47" t="n">
         <v>3.315746084089036</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>8.539983511953833</v>
-      </c>
-      <c r="M47" t="n">
-        <v>6.46222757731414</v>
       </c>
     </row>
     <row r="48">
@@ -2597,22 +2883,28 @@
         <v>28.53125</v>
       </c>
       <c r="H48" t="n">
+        <v>66.37458926615552</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.67799835706462</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28.53125</v>
+      </c>
+      <c r="K48" t="n">
         <v>606</v>
       </c>
-      <c r="I48" t="n">
+      <c r="L48" t="n">
         <v>913</v>
       </c>
-      <c r="J48" t="n">
+      <c r="M48" t="n">
         <v>3.559693318729463</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>9.056955093099672</v>
-      </c>
-      <c r="M48" t="n">
-        <v>11.67799835706462</v>
       </c>
     </row>
     <row r="49">
@@ -2642,22 +2934,28 @@
         <v>35.07692307692308</v>
       </c>
       <c r="H49" t="n">
+        <v>65.78947368421053</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14.29392712550607</v>
+      </c>
+      <c r="J49" t="n">
+        <v>35.07692307692308</v>
+      </c>
+      <c r="K49" t="n">
         <v>600</v>
       </c>
-      <c r="I49" t="n">
+      <c r="L49" t="n">
         <v>912</v>
       </c>
-      <c r="J49" t="n">
+      <c r="M49" t="n">
         <v>3.554824561403509</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>9.083333333333334</v>
-      </c>
-      <c r="M49" t="n">
-        <v>14.29392712550607</v>
       </c>
     </row>
     <row r="50">
@@ -2687,22 +2985,28 @@
         <v>31.14814814814815</v>
       </c>
       <c r="H50" t="n">
+        <v>64.56599286563615</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.7175232307218</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31.14814814814815</v>
+      </c>
+      <c r="K50" t="n">
         <v>543</v>
       </c>
-      <c r="I50" t="n">
+      <c r="L50" t="n">
         <v>841</v>
       </c>
-      <c r="J50" t="n">
+      <c r="M50" t="n">
         <v>3.604042806183115</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>9.260404280618312</v>
-      </c>
-      <c r="M50" t="n">
-        <v>12.7175232307218</v>
       </c>
     </row>
     <row r="51">
@@ -2732,22 +3036,28 @@
         <v>33.4</v>
       </c>
       <c r="H51" t="n">
+        <v>66.34730538922156</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.62538922155689</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K51" t="n">
         <v>554</v>
       </c>
-      <c r="I51" t="n">
+      <c r="L51" t="n">
         <v>835</v>
       </c>
-      <c r="J51" t="n">
+      <c r="M51" t="n">
         <v>3.658682634730539</v>
       </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>9.295808383233533</v>
-      </c>
-      <c r="M51" t="n">
-        <v>13.62538922155689</v>
       </c>
     </row>
     <row r="52">
@@ -2777,22 +3087,28 @@
         <v>21.27659574468085</v>
       </c>
       <c r="H52" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8.76303829787234</v>
+      </c>
+      <c r="J52" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="K52" t="n">
         <v>631</v>
       </c>
-      <c r="I52" t="n">
+      <c r="L52" t="n">
         <v>1000</v>
       </c>
-      <c r="J52" t="n">
+      <c r="M52" t="n">
         <v>3.44</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>8.882999999999999</v>
-      </c>
-      <c r="M52" t="n">
-        <v>8.76303829787234</v>
       </c>
     </row>
     <row r="53">
@@ -2822,22 +3138,28 @@
         <v>24</v>
       </c>
       <c r="H53" t="n">
+        <v>61.51315789473685</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9.846052631578949</v>
+      </c>
+      <c r="J53" t="n">
+        <v>24</v>
+      </c>
+      <c r="K53" t="n">
         <v>561</v>
       </c>
-      <c r="I53" t="n">
+      <c r="L53" t="n">
         <v>912</v>
       </c>
-      <c r="J53" t="n">
+      <c r="M53" t="n">
         <v>3.490131578947369</v>
       </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>8.949561403508772</v>
-      </c>
-      <c r="M53" t="n">
-        <v>9.846052631578949</v>
       </c>
     </row>
     <row r="54">
@@ -2867,22 +3189,28 @@
         <v>19.60869565217391</v>
       </c>
       <c r="H54" t="n">
+        <v>62.97117516629712</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8.095362961534754</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19.60869565217391</v>
+      </c>
+      <c r="K54" t="n">
         <v>568</v>
       </c>
-      <c r="I54" t="n">
+      <c r="L54" t="n">
         <v>902</v>
       </c>
-      <c r="J54" t="n">
+      <c r="M54" t="n">
         <v>3.521064301552106</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
         <v>8.991130820399112</v>
-      </c>
-      <c r="M54" t="n">
-        <v>8.095362961534754</v>
       </c>
     </row>
     <row r="55">
@@ -2912,22 +3240,28 @@
         <v>19.40909090909091</v>
       </c>
       <c r="H55" t="n">
+        <v>66.86182669789227</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8.031083670427932</v>
+      </c>
+      <c r="J55" t="n">
+        <v>19.40909090909091</v>
+      </c>
+      <c r="K55" t="n">
         <v>571</v>
       </c>
-      <c r="I55" t="n">
+      <c r="L55" t="n">
         <v>854</v>
       </c>
-      <c r="J55" t="n">
+      <c r="M55" t="n">
         <v>3.640515222482436</v>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>9.270491803278688</v>
-      </c>
-      <c r="M55" t="n">
-        <v>8.031083670427932</v>
       </c>
     </row>
     <row r="56">
@@ -2957,22 +3291,28 @@
         <v>29.72413793103448</v>
       </c>
       <c r="H56" t="n">
+        <v>64.38515081206496</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12.14719577566206</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.72413793103448</v>
+      </c>
+      <c r="K56" t="n">
         <v>555</v>
       </c>
-      <c r="I56" t="n">
+      <c r="L56" t="n">
         <v>862</v>
       </c>
-      <c r="J56" t="n">
+      <c r="M56" t="n">
         <v>3.595127610208817</v>
       </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>9.241299303944315</v>
-      </c>
-      <c r="M56" t="n">
-        <v>12.14719577566206</v>
       </c>
     </row>
     <row r="57">
@@ -3002,22 +3342,28 @@
         <v>34.59090909090909</v>
       </c>
       <c r="H57" t="n">
+        <v>69.38239159001314</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.11389320272369</v>
+      </c>
+      <c r="J57" t="n">
+        <v>34.59090909090909</v>
+      </c>
+      <c r="K57" t="n">
         <v>528</v>
       </c>
-      <c r="I57" t="n">
+      <c r="L57" t="n">
         <v>761</v>
       </c>
-      <c r="J57" t="n">
+      <c r="M57" t="n">
         <v>3.789750328515112</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>9.609724047306177</v>
-      </c>
-      <c r="M57" t="n">
-        <v>14.11389320272369</v>
       </c>
     </row>
     <row r="58">
@@ -3047,22 +3393,28 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>64.72602739726028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.992237442922374</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="K58" t="n">
         <v>567</v>
       </c>
-      <c r="I58" t="n">
+      <c r="L58" t="n">
         <v>876</v>
       </c>
-      <c r="J58" t="n">
+      <c r="M58" t="n">
         <v>3.59703196347032</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>9.164383561643836</v>
-      </c>
-      <c r="M58" t="n">
-        <v>9.992237442922374</v>
       </c>
     </row>
     <row r="59">
@@ -3092,22 +3444,28 @@
         <v>23.2972972972973</v>
       </c>
       <c r="H59" t="n">
+        <v>65.42923433874709</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9.580635856273908</v>
+      </c>
+      <c r="J59" t="n">
+        <v>23.2972972972973</v>
+      </c>
+      <c r="K59" t="n">
         <v>564</v>
       </c>
-      <c r="I59" t="n">
+      <c r="L59" t="n">
         <v>862</v>
       </c>
-      <c r="J59" t="n">
+      <c r="M59" t="n">
         <v>3.650812064965197</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>9.21461716937355</v>
-      </c>
-      <c r="M59" t="n">
-        <v>9.580635856273908</v>
       </c>
     </row>
     <row r="60">
@@ -3137,22 +3495,28 @@
         <v>30.52</v>
       </c>
       <c r="H60" t="n">
+        <v>68.93840104849279</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12.48375360419397</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="K60" t="n">
         <v>526</v>
       </c>
-      <c r="I60" t="n">
+      <c r="L60" t="n">
         <v>763</v>
       </c>
-      <c r="J60" t="n">
+      <c r="M60" t="n">
         <v>3.773263433813892</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>9.546526867627785</v>
-      </c>
-      <c r="M60" t="n">
-        <v>12.48375360419397</v>
       </c>
     </row>
     <row r="61">
@@ -3182,22 +3546,28 @@
         <v>34.38095238095238</v>
       </c>
       <c r="H61" t="n">
+        <v>69.94459833795014</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14.03215934573275</v>
+      </c>
+      <c r="J61" t="n">
+        <v>34.38095238095238</v>
+      </c>
+      <c r="K61" t="n">
         <v>505</v>
       </c>
-      <c r="I61" t="n">
+      <c r="L61" t="n">
         <v>722</v>
       </c>
-      <c r="J61" t="n">
+      <c r="M61" t="n">
         <v>3.833795013850415</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
         <v>9.720221606648199</v>
-      </c>
-      <c r="M61" t="n">
-        <v>14.03215934573275</v>
       </c>
     </row>
     <row r="62">
@@ -3227,22 +3597,28 @@
         <v>29.96</v>
       </c>
       <c r="H62" t="n">
+        <v>68.75834445927904</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.25903337783712</v>
+      </c>
+      <c r="J62" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="K62" t="n">
         <v>515</v>
       </c>
-      <c r="I62" t="n">
+      <c r="L62" t="n">
         <v>749</v>
       </c>
-      <c r="J62" t="n">
+      <c r="M62" t="n">
         <v>3.795727636849132</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>9.647530040053404</v>
-      </c>
-      <c r="M62" t="n">
-        <v>12.25903337783712</v>
       </c>
     </row>
     <row r="63">
@@ -3272,22 +3648,28 @@
         <v>32.91304347826087</v>
       </c>
       <c r="H63" t="n">
+        <v>68.56010568031704</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.43945781402562</v>
+      </c>
+      <c r="J63" t="n">
+        <v>32.91304347826087</v>
+      </c>
+      <c r="K63" t="n">
         <v>519</v>
       </c>
-      <c r="I63" t="n">
+      <c r="L63" t="n">
         <v>757</v>
       </c>
-      <c r="J63" t="n">
+      <c r="M63" t="n">
         <v>3.784676354029062</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>9.620871862615587</v>
-      </c>
-      <c r="M63" t="n">
-        <v>13.43945781402562</v>
       </c>
     </row>
     <row r="64">
@@ -3317,22 +3699,28 @@
         <v>34.66666666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>70.46703296703298</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14.1485347985348</v>
+      </c>
+      <c r="J64" t="n">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="K64" t="n">
         <v>513</v>
       </c>
-      <c r="I64" t="n">
+      <c r="L64" t="n">
         <v>728</v>
       </c>
-      <c r="J64" t="n">
+      <c r="M64" t="n">
         <v>3.850274725274725</v>
       </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>9.743131868131869</v>
-      </c>
-      <c r="M64" t="n">
-        <v>14.1485347985348</v>
       </c>
     </row>
     <row r="65">
@@ -3362,22 +3750,28 @@
         <v>27.5</v>
       </c>
       <c r="H65" t="n">
+        <v>69.22077922077922</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.27688311688312</v>
+      </c>
+      <c r="J65" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K65" t="n">
         <v>533</v>
       </c>
-      <c r="I65" t="n">
+      <c r="L65" t="n">
         <v>770</v>
       </c>
-      <c r="J65" t="n">
+      <c r="M65" t="n">
         <v>3.774025974025974</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>9.548051948051947</v>
-      </c>
-      <c r="M65" t="n">
-        <v>11.27688311688312</v>
       </c>
     </row>
     <row r="66">
@@ -3407,22 +3801,28 @@
         <v>23.51428571428572</v>
       </c>
       <c r="H66" t="n">
+        <v>67.07168894289185</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.674001041485855</v>
+      </c>
+      <c r="J66" t="n">
+        <v>23.51428571428572</v>
+      </c>
+      <c r="K66" t="n">
         <v>552</v>
       </c>
-      <c r="I66" t="n">
+      <c r="L66" t="n">
         <v>823</v>
       </c>
-      <c r="J66" t="n">
+      <c r="M66" t="n">
         <v>3.663426488456865</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>9.334143377885784</v>
-      </c>
-      <c r="M66" t="n">
-        <v>9.674001041485855</v>
       </c>
     </row>
     <row r="67">
@@ -3452,22 +3852,28 @@
         <v>23.24324324324324</v>
       </c>
       <c r="H67" t="n">
+        <v>66.74418604651163</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.564274041483344</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23.24324324324324</v>
+      </c>
+      <c r="K67" t="n">
         <v>574</v>
       </c>
-      <c r="I67" t="n">
+      <c r="L67" t="n">
         <v>860</v>
       </c>
-      <c r="J67" t="n">
+      <c r="M67" t="n">
         <v>3.638372093023256</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>9.309302325581395</v>
-      </c>
-      <c r="M67" t="n">
-        <v>9.564274041483344</v>
       </c>
     </row>
     <row r="68">
@@ -3497,22 +3903,28 @@
         <v>26.875</v>
       </c>
       <c r="H68" t="n">
+        <v>66.74418604651163</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.01697674418605</v>
+      </c>
+      <c r="J68" t="n">
+        <v>26.875</v>
+      </c>
+      <c r="K68" t="n">
         <v>574</v>
       </c>
-      <c r="I68" t="n">
+      <c r="L68" t="n">
         <v>860</v>
       </c>
-      <c r="J68" t="n">
+      <c r="M68" t="n">
         <v>3.626744186046511</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>9.182558139534883</v>
-      </c>
-      <c r="M68" t="n">
-        <v>11.01697674418605</v>
       </c>
     </row>
     <row r="69">
@@ -3542,22 +3954,28 @@
         <v>21.59523809523809</v>
       </c>
       <c r="H69" t="n">
+        <v>61.63175303197354</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.884622250223133</v>
+      </c>
+      <c r="J69" t="n">
+        <v>21.59523809523809</v>
+      </c>
+      <c r="K69" t="n">
         <v>559</v>
       </c>
-      <c r="I69" t="n">
+      <c r="L69" t="n">
         <v>907</v>
       </c>
-      <c r="J69" t="n">
+      <c r="M69" t="n">
         <v>3.498346196251378</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>8.997794928335171</v>
-      </c>
-      <c r="M69" t="n">
-        <v>8.884622250223133</v>
       </c>
     </row>
     <row r="70">
@@ -3587,22 +4005,28 @@
         <v>24.8</v>
       </c>
       <c r="H70" t="n">
+        <v>69.23963133640552</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.19695852534562</v>
+      </c>
+      <c r="J70" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K70" t="n">
         <v>601</v>
       </c>
-      <c r="I70" t="n">
+      <c r="L70" t="n">
         <v>868</v>
       </c>
-      <c r="J70" t="n">
+      <c r="M70" t="n">
         <v>3.661290322580645</v>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>9.198156682027649</v>
-      </c>
-      <c r="M70" t="n">
-        <v>10.19695852534562</v>
       </c>
     </row>
     <row r="71">
@@ -3632,22 +4056,28 @@
         <v>31.5</v>
       </c>
       <c r="H71" t="n">
+        <v>68.25396825396825</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12.87301587301587</v>
+      </c>
+      <c r="J71" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K71" t="n">
         <v>559</v>
       </c>
-      <c r="I71" t="n">
+      <c r="L71" t="n">
         <v>819</v>
       </c>
-      <c r="J71" t="n">
+      <c r="M71" t="n">
         <v>3.705738705738706</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>9.411477411477412</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12.87301587301587</v>
       </c>
     </row>
     <row r="72">
@@ -3677,22 +4107,28 @@
         <v>21.7037037037037</v>
       </c>
       <c r="H72" t="n">
+        <v>62.37201365187713</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.930969536088989</v>
+      </c>
+      <c r="J72" t="n">
+        <v>21.7037037037037</v>
+      </c>
+      <c r="K72" t="n">
         <v>731</v>
       </c>
-      <c r="I72" t="n">
+      <c r="L72" t="n">
         <v>1172</v>
       </c>
-      <c r="J72" t="n">
+      <c r="M72" t="n">
         <v>3.408703071672355</v>
       </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>8.709044368600683</v>
-      </c>
-      <c r="M72" t="n">
-        <v>8.930969536088989</v>
       </c>
     </row>
     <row r="73">
@@ -3722,22 +4158,28 @@
         <v>28.7741935483871</v>
       </c>
       <c r="H73" t="n">
+        <v>61.54708520179371</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11.75586576016201</v>
+      </c>
+      <c r="J73" t="n">
+        <v>28.7741935483871</v>
+      </c>
+      <c r="K73" t="n">
         <v>549</v>
       </c>
-      <c r="I73" t="n">
+      <c r="L73" t="n">
         <v>892</v>
       </c>
-      <c r="J73" t="n">
+      <c r="M73" t="n">
         <v>3.513452914798206</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>9.050448430493274</v>
-      </c>
-      <c r="M73" t="n">
-        <v>11.75586576016201</v>
       </c>
     </row>
     <row r="74">
@@ -3767,22 +4209,28 @@
         <v>26.625</v>
       </c>
       <c r="H74" t="n">
+        <v>65.72769953051643</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10.91291079812207</v>
+      </c>
+      <c r="J74" t="n">
+        <v>26.625</v>
+      </c>
+      <c r="K74" t="n">
         <v>560</v>
       </c>
-      <c r="I74" t="n">
+      <c r="L74" t="n">
         <v>852</v>
       </c>
-      <c r="J74" t="n">
+      <c r="M74" t="n">
         <v>3.647887323943662</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>9.342723004694836</v>
-      </c>
-      <c r="M74" t="n">
-        <v>10.91291079812207</v>
       </c>
     </row>
     <row r="75">
@@ -3812,22 +4260,28 @@
         <v>32.125</v>
       </c>
       <c r="H75" t="n">
+        <v>64.07263294422827</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.10629053177691</v>
+      </c>
+      <c r="J75" t="n">
+        <v>32.125</v>
+      </c>
+      <c r="K75" t="n">
         <v>494</v>
       </c>
-      <c r="I75" t="n">
+      <c r="L75" t="n">
         <v>771</v>
       </c>
-      <c r="J75" t="n">
+      <c r="M75" t="n">
         <v>3.675745784695201</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
         <v>9.354085603112841</v>
-      </c>
-      <c r="M75" t="n">
-        <v>13.10629053177691</v>
       </c>
     </row>
     <row r="76">
@@ -3857,22 +4311,28 @@
         <v>27.06451612903226</v>
       </c>
       <c r="H76" t="n">
+        <v>66.15017878426698</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11.09040716674997</v>
+      </c>
+      <c r="J76" t="n">
+        <v>27.06451612903226</v>
+      </c>
+      <c r="K76" t="n">
         <v>555</v>
       </c>
-      <c r="I76" t="n">
+      <c r="L76" t="n">
         <v>839</v>
       </c>
-      <c r="J76" t="n">
+      <c r="M76" t="n">
         <v>3.64958283671037</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>9.34207389749702</v>
-      </c>
-      <c r="M76" t="n">
-        <v>11.09040716674997</v>
       </c>
     </row>
     <row r="77">
@@ -3902,22 +4362,28 @@
         <v>27.125</v>
       </c>
       <c r="H77" t="n">
+        <v>65.32258064516128</v>
+      </c>
+      <c r="I77" t="n">
+        <v>11.11129032258065</v>
+      </c>
+      <c r="J77" t="n">
+        <v>27.125</v>
+      </c>
+      <c r="K77" t="n">
         <v>567</v>
       </c>
-      <c r="I77" t="n">
+      <c r="L77" t="n">
         <v>868</v>
       </c>
-      <c r="J77" t="n">
+      <c r="M77" t="n">
         <v>3.579493087557604</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>9.139400921658986</v>
-      </c>
-      <c r="M77" t="n">
-        <v>11.11129032258065</v>
       </c>
     </row>
     <row r="78">
@@ -3947,22 +4413,28 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H78" t="n">
+        <v>66.54501216545012</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12.44395782643958</v>
+      </c>
+      <c r="J78" t="n">
+        <v>30.44444444444444</v>
+      </c>
+      <c r="K78" t="n">
         <v>547</v>
       </c>
-      <c r="I78" t="n">
+      <c r="L78" t="n">
         <v>822</v>
       </c>
-      <c r="J78" t="n">
+      <c r="M78" t="n">
         <v>3.665450121654501</v>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>9.318734793187348</v>
-      </c>
-      <c r="M78" t="n">
-        <v>12.44395782643958</v>
       </c>
     </row>
     <row r="79">
@@ -3992,22 +4464,28 @@
         <v>29.59259259259259</v>
       </c>
       <c r="H79" t="n">
+        <v>69.96245306633291</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12.11688684930237</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.59259259259259</v>
+      </c>
+      <c r="K79" t="n">
         <v>559</v>
       </c>
-      <c r="I79" t="n">
+      <c r="L79" t="n">
         <v>799</v>
       </c>
-      <c r="J79" t="n">
+      <c r="M79" t="n">
         <v>3.801001251564456</v>
       </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>9.531914893617021</v>
-      </c>
-      <c r="M79" t="n">
-        <v>12.11688684930237</v>
       </c>
     </row>
     <row r="80">
@@ -4037,22 +4515,28 @@
         <v>25.42424242424243</v>
       </c>
       <c r="H80" t="n">
+        <v>65.67342073897497</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10.43239065265287</v>
+      </c>
+      <c r="J80" t="n">
+        <v>25.42424242424243</v>
+      </c>
+      <c r="K80" t="n">
         <v>551</v>
       </c>
-      <c r="I80" t="n">
+      <c r="L80" t="n">
         <v>839</v>
       </c>
-      <c r="J80" t="n">
+      <c r="M80" t="n">
         <v>3.636471990464839</v>
       </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>9.191895113230036</v>
-      </c>
-      <c r="M80" t="n">
-        <v>10.43239065265287</v>
       </c>
     </row>
     <row r="81">
@@ -4082,22 +4566,28 @@
         <v>26.54285714285714</v>
       </c>
       <c r="H81" t="n">
+        <v>63.07857911733046</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10.86945717361218</v>
+      </c>
+      <c r="J81" t="n">
+        <v>26.54285714285714</v>
+      </c>
+      <c r="K81" t="n">
         <v>586</v>
       </c>
-      <c r="I81" t="n">
+      <c r="L81" t="n">
         <v>929</v>
       </c>
-      <c r="J81" t="n">
+      <c r="M81" t="n">
         <v>3.470398277717976</v>
       </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>9.011840688912809</v>
-      </c>
-      <c r="M81" t="n">
-        <v>10.86945717361218</v>
       </c>
     </row>
     <row r="82">
@@ -4127,22 +4617,28 @@
         <v>25.14705882352941</v>
       </c>
       <c r="H82" t="n">
+        <v>66.43274853801169</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10.32455452356381</v>
+      </c>
+      <c r="J82" t="n">
+        <v>25.14705882352941</v>
+      </c>
+      <c r="K82" t="n">
         <v>568</v>
       </c>
-      <c r="I82" t="n">
+      <c r="L82" t="n">
         <v>855</v>
       </c>
-      <c r="J82" t="n">
+      <c r="M82" t="n">
         <v>3.632748538011696</v>
       </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>9.266666666666667</v>
-      </c>
-      <c r="M82" t="n">
-        <v>10.32455452356381</v>
       </c>
     </row>
     <row r="83">
@@ -4172,22 +4668,28 @@
         <v>38.2</v>
       </c>
       <c r="H83" t="n">
+        <v>66.8848167539267</v>
+      </c>
+      <c r="I83" t="n">
+        <v>15.54753926701571</v>
+      </c>
+      <c r="J83" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="K83" t="n">
         <v>511</v>
       </c>
-      <c r="I83" t="n">
+      <c r="L83" t="n">
         <v>764</v>
       </c>
-      <c r="J83" t="n">
+      <c r="M83" t="n">
         <v>3.735602094240838</v>
       </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>9.518324607329843</v>
-      </c>
-      <c r="M83" t="n">
-        <v>15.54753926701571</v>
       </c>
     </row>
     <row r="84">
@@ -4217,22 +4719,28 @@
         <v>24.63636363636364</v>
       </c>
       <c r="H84" t="n">
+        <v>65.19065190651907</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10.11530806217153</v>
+      </c>
+      <c r="J84" t="n">
+        <v>24.63636363636364</v>
+      </c>
+      <c r="K84" t="n">
         <v>530</v>
       </c>
-      <c r="I84" t="n">
+      <c r="L84" t="n">
         <v>813</v>
       </c>
-      <c r="J84" t="n">
+      <c r="M84" t="n">
         <v>3.674046740467405</v>
       </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>9.392373923739237</v>
-      </c>
-      <c r="M84" t="n">
-        <v>10.11530806217153</v>
       </c>
     </row>
     <row r="85">
@@ -4262,22 +4770,28 @@
         <v>29.78571428571428</v>
       </c>
       <c r="H85" t="n">
+        <v>64.98800959232614</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12.17423775265502</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.78571428571428</v>
+      </c>
+      <c r="K85" t="n">
         <v>542</v>
       </c>
-      <c r="I85" t="n">
+      <c r="L85" t="n">
         <v>834</v>
       </c>
-      <c r="J85" t="n">
+      <c r="M85" t="n">
         <v>3.65347721822542</v>
       </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
         <v>9.311750599520384</v>
-      </c>
-      <c r="M85" t="n">
-        <v>12.17423775265502</v>
       </c>
     </row>
     <row r="86">
@@ -4307,22 +4821,28 @@
         <v>31.84</v>
       </c>
       <c r="H86" t="n">
+        <v>66.08040201005025</v>
+      </c>
+      <c r="I86" t="n">
+        <v>13.0003216080402</v>
+      </c>
+      <c r="J86" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="K86" t="n">
         <v>526</v>
       </c>
-      <c r="I86" t="n">
+      <c r="L86" t="n">
         <v>796</v>
       </c>
-      <c r="J86" t="n">
+      <c r="M86" t="n">
         <v>3.706030150753769</v>
       </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
         <v>9.381909547738694</v>
-      </c>
-      <c r="M86" t="n">
-        <v>13.0003216080402</v>
       </c>
     </row>
     <row r="87">
@@ -4352,22 +4872,28 @@
         <v>48.8125</v>
       </c>
       <c r="H87" t="n">
+        <v>66.58130601792574</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19.79132522407171</v>
+      </c>
+      <c r="J87" t="n">
+        <v>48.8125</v>
+      </c>
+      <c r="K87" t="n">
         <v>520</v>
       </c>
-      <c r="I87" t="n">
+      <c r="L87" t="n">
         <v>781</v>
       </c>
-      <c r="J87" t="n">
+      <c r="M87" t="n">
         <v>3.69270166453265</v>
       </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
         <v>9.348271446862997</v>
-      </c>
-      <c r="M87" t="n">
-        <v>19.79132522407171</v>
       </c>
     </row>
     <row r="88">
@@ -4397,22 +4923,28 @@
         <v>25.53125</v>
       </c>
       <c r="H88" t="n">
+        <v>66.95226438188494</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10.48030905752754</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25.53125</v>
+      </c>
+      <c r="K88" t="n">
         <v>547</v>
       </c>
-      <c r="I88" t="n">
+      <c r="L88" t="n">
         <v>817</v>
       </c>
-      <c r="J88" t="n">
+      <c r="M88" t="n">
         <v>3.692778457772338</v>
       </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
         <v>9.384332925336597</v>
-      </c>
-      <c r="M88" t="n">
-        <v>10.48030905752754</v>
       </c>
     </row>
     <row r="89">
@@ -4442,22 +4974,28 @@
         <v>19.90909090909091</v>
       </c>
       <c r="H89" t="n">
+        <v>64.95433789954338</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8.223453715234539</v>
+      </c>
+      <c r="J89" t="n">
+        <v>19.90909090909091</v>
+      </c>
+      <c r="K89" t="n">
         <v>569</v>
       </c>
-      <c r="I89" t="n">
+      <c r="L89" t="n">
         <v>876</v>
       </c>
-      <c r="J89" t="n">
+      <c r="M89" t="n">
         <v>3.638127853881278</v>
       </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>9.242009132420092</v>
-      </c>
-      <c r="M89" t="n">
-        <v>8.223453715234539</v>
       </c>
     </row>
     <row r="90">
@@ -4487,22 +5025,28 @@
         <v>19.06521739130435</v>
       </c>
       <c r="H90" t="n">
+        <v>63.16989737742303</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7.878766546031432</v>
+      </c>
+      <c r="J90" t="n">
+        <v>19.06521739130435</v>
+      </c>
+      <c r="K90" t="n">
         <v>554</v>
       </c>
-      <c r="I90" t="n">
+      <c r="L90" t="n">
         <v>877</v>
       </c>
-      <c r="J90" t="n">
+      <c r="M90" t="n">
         <v>3.565564424173318</v>
       </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
         <v>9.076396807297606</v>
-      </c>
-      <c r="M90" t="n">
-        <v>7.878766546031432</v>
       </c>
     </row>
     <row r="91">
@@ -4532,22 +5076,28 @@
         <v>47.76470588235294</v>
       </c>
       <c r="H91" t="n">
+        <v>67.24137931034483</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19.37484787018256</v>
+      </c>
+      <c r="J91" t="n">
+        <v>47.76470588235294</v>
+      </c>
+      <c r="K91" t="n">
         <v>546</v>
       </c>
-      <c r="I91" t="n">
+      <c r="L91" t="n">
         <v>812</v>
       </c>
-      <c r="J91" t="n">
+      <c r="M91" t="n">
         <v>3.661330049261084</v>
       </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>9.198275862068966</v>
-      </c>
-      <c r="M91" t="n">
-        <v>19.37484787018256</v>
       </c>
     </row>
     <row r="92">
@@ -4577,22 +5127,28 @@
         <v>41.05</v>
       </c>
       <c r="H92" t="n">
+        <v>65.40803897685748</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.68163215590743</v>
+      </c>
+      <c r="J92" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="K92" t="n">
         <v>537</v>
       </c>
-      <c r="I92" t="n">
+      <c r="L92" t="n">
         <v>821</v>
       </c>
-      <c r="J92" t="n">
+      <c r="M92" t="n">
         <v>3.617539585870889</v>
       </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>9.261875761266747</v>
-      </c>
-      <c r="M92" t="n">
-        <v>16.68163215590743</v>
       </c>
     </row>
     <row r="93">
@@ -4622,22 +5178,28 @@
         <v>17.83582089552239</v>
       </c>
       <c r="H93" t="n">
+        <v>65.02092050209205</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7.394412040217325</v>
+      </c>
+      <c r="J93" t="n">
+        <v>17.83582089552239</v>
+      </c>
+      <c r="K93" t="n">
         <v>777</v>
       </c>
-      <c r="I93" t="n">
+      <c r="L93" t="n">
         <v>1195</v>
       </c>
-      <c r="J93" t="n">
+      <c r="M93" t="n">
         <v>3.34560669456067</v>
       </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
         <v>8.600836820083682</v>
-      </c>
-      <c r="M93" t="n">
-        <v>7.394412040217325</v>
       </c>
     </row>
     <row r="94">
@@ -4667,22 +5229,28 @@
         <v>19.25396825396825</v>
       </c>
       <c r="H94" t="n">
+        <v>63.56141797197032</v>
+      </c>
+      <c r="I94" t="n">
+        <v>7.955832973475182</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19.25396825396825</v>
+      </c>
+      <c r="K94" t="n">
         <v>771</v>
       </c>
-      <c r="I94" t="n">
+      <c r="L94" t="n">
         <v>1213</v>
       </c>
-      <c r="J94" t="n">
+      <c r="M94" t="n">
         <v>3.348722176422094</v>
       </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
         <v>8.550700741962077</v>
-      </c>
-      <c r="M94" t="n">
-        <v>7.955832973475182</v>
       </c>
     </row>
     <row r="95">
@@ -4712,22 +5280,28 @@
         <v>28.14285714285714</v>
       </c>
       <c r="H95" t="n">
+        <v>68.1472081218274</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.52973168963017</v>
+      </c>
+      <c r="J95" t="n">
+        <v>28.14285714285714</v>
+      </c>
+      <c r="K95" t="n">
         <v>537</v>
       </c>
-      <c r="I95" t="n">
+      <c r="L95" t="n">
         <v>788</v>
       </c>
-      <c r="J95" t="n">
+      <c r="M95" t="n">
         <v>3.739847715736041</v>
       </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
         <v>9.447969543147208</v>
-      </c>
-      <c r="M95" t="n">
-        <v>11.52973168963017</v>
       </c>
     </row>
     <row r="96">
@@ -4757,22 +5331,28 @@
         <v>23.62857142857143</v>
       </c>
       <c r="H96" t="n">
+        <v>66.0217654171705</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.715515633097255</v>
+      </c>
+      <c r="J96" t="n">
+        <v>23.62857142857143</v>
+      </c>
+      <c r="K96" t="n">
         <v>546</v>
       </c>
-      <c r="I96" t="n">
+      <c r="L96" t="n">
         <v>827</v>
       </c>
-      <c r="J96" t="n">
+      <c r="M96" t="n">
         <v>3.638452237001209</v>
       </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
         <v>9.222490931076178</v>
-      </c>
-      <c r="M96" t="n">
-        <v>9.715515633097255</v>
       </c>
     </row>
     <row r="97">
@@ -4802,22 +5382,28 @@
         <v>28.66666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>67.31266149870801</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11.7359173126615</v>
+      </c>
+      <c r="J97" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="K97" t="n">
         <v>521</v>
       </c>
-      <c r="I97" t="n">
+      <c r="L97" t="n">
         <v>774</v>
       </c>
-      <c r="J97" t="n">
+      <c r="M97" t="n">
         <v>3.739018087855297</v>
       </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
         <v>9.488372093023257</v>
-      </c>
-      <c r="M97" t="n">
-        <v>11.7359173126615</v>
       </c>
     </row>
     <row r="98">
@@ -4847,22 +5433,28 @@
         <v>24.44117647058824</v>
       </c>
       <c r="H98" t="n">
+        <v>64.38026474127557</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10.0339916472004</v>
+      </c>
+      <c r="J98" t="n">
+        <v>24.44117647058824</v>
+      </c>
+      <c r="K98" t="n">
         <v>535</v>
       </c>
-      <c r="I98" t="n">
+      <c r="L98" t="n">
         <v>831</v>
       </c>
-      <c r="J98" t="n">
+      <c r="M98" t="n">
         <v>3.641395908543923</v>
       </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>9.247894103489772</v>
-      </c>
-      <c r="M98" t="n">
-        <v>10.0339916472004</v>
       </c>
     </row>
     <row r="99">
@@ -4892,22 +5484,28 @@
         <v>29.84615384615385</v>
       </c>
       <c r="H99" t="n">
+        <v>70.10309278350515</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.21887390959556</v>
+      </c>
+      <c r="J99" t="n">
+        <v>29.84615384615385</v>
+      </c>
+      <c r="K99" t="n">
         <v>544</v>
       </c>
-      <c r="I99" t="n">
+      <c r="L99" t="n">
         <v>776</v>
       </c>
-      <c r="J99" t="n">
+      <c r="M99" t="n">
         <v>3.791237113402062</v>
       </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>9.610824742268042</v>
-      </c>
-      <c r="M99" t="n">
-        <v>12.21887390959556</v>
       </c>
     </row>
     <row r="100">
@@ -4937,22 +5535,28 @@
         <v>30</v>
       </c>
       <c r="H100" t="n">
+        <v>67</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12.268</v>
+      </c>
+      <c r="J100" t="n">
+        <v>30</v>
+      </c>
+      <c r="K100" t="n">
         <v>603</v>
       </c>
-      <c r="I100" t="n">
+      <c r="L100" t="n">
         <v>900</v>
       </c>
-      <c r="J100" t="n">
+      <c r="M100" t="n">
         <v>3.661111111111111</v>
       </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
         <v>9.384444444444444</v>
-      </c>
-      <c r="M100" t="n">
-        <v>12.268</v>
       </c>
     </row>
     <row r="101">
@@ -4982,22 +5586,28 @@
         <v>24.93548387096774</v>
       </c>
       <c r="H101" t="n">
+        <v>68.04657179818886</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10.24637983557985</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24.93548387096774</v>
+      </c>
+      <c r="K101" t="n">
         <v>526</v>
       </c>
-      <c r="I101" t="n">
+      <c r="L101" t="n">
         <v>773</v>
       </c>
-      <c r="J101" t="n">
+      <c r="M101" t="n">
         <v>3.763260025873221</v>
       </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>9.479948253557568</v>
-      </c>
-      <c r="M101" t="n">
-        <v>10.24637983557985</v>
       </c>
     </row>
     <row r="102">
@@ -5027,22 +5637,28 @@
         <v>24.75757575757576</v>
       </c>
       <c r="H102" t="n">
+        <v>65.48347613219094</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10.16496420755907</v>
+      </c>
+      <c r="J102" t="n">
+        <v>24.75757575757576</v>
+      </c>
+      <c r="K102" t="n">
         <v>535</v>
       </c>
-      <c r="I102" t="n">
+      <c r="L102" t="n">
         <v>817</v>
       </c>
-      <c r="J102" t="n">
+      <c r="M102" t="n">
         <v>3.649938800489596</v>
       </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
         <v>9.260709914320685</v>
-      </c>
-      <c r="M102" t="n">
-        <v>10.16496420755907</v>
       </c>
     </row>
     <row r="103">
@@ -5072,22 +5688,28 @@
         <v>30.53846153846154</v>
       </c>
       <c r="H103" t="n">
+        <v>67.63224181360201</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12.48591358263903</v>
+      </c>
+      <c r="J103" t="n">
+        <v>30.53846153846154</v>
+      </c>
+      <c r="K103" t="n">
         <v>537</v>
       </c>
-      <c r="I103" t="n">
+      <c r="L103" t="n">
         <v>794</v>
       </c>
-      <c r="J103" t="n">
+      <c r="M103" t="n">
         <v>3.702770780856423</v>
       </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
         <v>9.416876574307304</v>
-      </c>
-      <c r="M103" t="n">
-        <v>12.48591358263903</v>
       </c>
     </row>
     <row r="104">
@@ -5117,22 +5739,28 @@
         <v>26.26470588235294</v>
       </c>
       <c r="H104" t="n">
+        <v>64.72564389697648</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.76478492852908</v>
+      </c>
+      <c r="J104" t="n">
+        <v>26.26470588235294</v>
+      </c>
+      <c r="K104" t="n">
         <v>578</v>
       </c>
-      <c r="I104" t="n">
+      <c r="L104" t="n">
         <v>893</v>
       </c>
-      <c r="J104" t="n">
+      <c r="M104" t="n">
         <v>3.601343784994401</v>
       </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>9.132138857782754</v>
-      </c>
-      <c r="M104" t="n">
-        <v>10.76478492852908</v>
       </c>
     </row>
     <row r="105">
@@ -5162,22 +5790,28 @@
         <v>31.95833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>66.36245110821382</v>
+      </c>
+      <c r="I105" t="n">
+        <v>13.04878313776619</v>
+      </c>
+      <c r="J105" t="n">
+        <v>31.95833333333333</v>
+      </c>
+      <c r="K105" t="n">
         <v>509</v>
       </c>
-      <c r="I105" t="n">
+      <c r="L105" t="n">
         <v>767</v>
       </c>
-      <c r="J105" t="n">
+      <c r="M105" t="n">
         <v>3.722294654498044</v>
       </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
         <v>9.455019556714472</v>
-      </c>
-      <c r="M105" t="n">
-        <v>13.04878313776619</v>
       </c>
     </row>
     <row r="106">
@@ -5207,22 +5841,28 @@
         <v>16.44927536231884</v>
       </c>
       <c r="H106" t="n">
+        <v>61.67400881057269</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.826406180169826</v>
+      </c>
+      <c r="J106" t="n">
+        <v>16.44927536231884</v>
+      </c>
+      <c r="K106" t="n">
         <v>700</v>
       </c>
-      <c r="I106" t="n">
+      <c r="L106" t="n">
         <v>1135</v>
       </c>
-      <c r="J106" t="n">
+      <c r="M106" t="n">
         <v>3.390308370044053</v>
       </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
         <v>8.591189427312775</v>
-      </c>
-      <c r="M106" t="n">
-        <v>6.826406180169826</v>
       </c>
     </row>
     <row r="107">
@@ -5252,22 +5892,28 @@
         <v>20.5</v>
       </c>
       <c r="H107" t="n">
+        <v>60.97560975609756</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8.44390243902439</v>
+      </c>
+      <c r="J107" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K107" t="n">
         <v>575</v>
       </c>
-      <c r="I107" t="n">
+      <c r="L107" t="n">
         <v>943</v>
       </c>
-      <c r="J107" t="n">
+      <c r="M107" t="n">
         <v>3.423117709437964</v>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
         <v>8.744432661717921</v>
-      </c>
-      <c r="M107" t="n">
-        <v>8.44390243902439</v>
       </c>
     </row>
     <row r="108">
@@ -5297,22 +5943,28 @@
         <v>27.63333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>65.98311218335344</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.31726578206675</v>
+      </c>
+      <c r="J108" t="n">
+        <v>27.63333333333333</v>
+      </c>
+      <c r="K108" t="n">
         <v>547</v>
       </c>
-      <c r="I108" t="n">
+      <c r="L108" t="n">
         <v>829</v>
       </c>
-      <c r="J108" t="n">
+      <c r="M108" t="n">
         <v>3.605548854041013</v>
       </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
         <v>9.202653799758746</v>
-      </c>
-      <c r="M108" t="n">
-        <v>11.31726578206675</v>
       </c>
     </row>
     <row r="109">
@@ -5342,22 +5994,28 @@
         <v>39.6</v>
       </c>
       <c r="H109" t="n">
+        <v>68.56060606060606</v>
+      </c>
+      <c r="I109" t="n">
+        <v>16.11424242424243</v>
+      </c>
+      <c r="J109" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="K109" t="n">
         <v>543</v>
       </c>
-      <c r="I109" t="n">
+      <c r="L109" t="n">
         <v>792</v>
       </c>
-      <c r="J109" t="n">
+      <c r="M109" t="n">
         <v>3.70959595959596</v>
       </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
         <v>9.382575757575758</v>
-      </c>
-      <c r="M109" t="n">
-        <v>16.11424242424243</v>
       </c>
     </row>
     <row r="110">
@@ -5387,22 +6045,28 @@
         <v>23.55882352941176</v>
       </c>
       <c r="H110" t="n">
+        <v>66.541822721598</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9.689696702651098</v>
+      </c>
+      <c r="J110" t="n">
+        <v>23.55882352941176</v>
+      </c>
+      <c r="K110" t="n">
         <v>533</v>
       </c>
-      <c r="I110" t="n">
+      <c r="L110" t="n">
         <v>801</v>
       </c>
-      <c r="J110" t="n">
+      <c r="M110" t="n">
         <v>3.694132334581773</v>
       </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
         <v>9.309612983770288</v>
-      </c>
-      <c r="M110" t="n">
-        <v>9.689696702651098</v>
       </c>
     </row>
     <row r="111">
@@ -5432,22 +6096,28 @@
         <v>31.33333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>60.21276595744681</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12.77418439716312</v>
+      </c>
+      <c r="J111" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="K111" t="n">
         <v>566</v>
       </c>
-      <c r="I111" t="n">
+      <c r="L111" t="n">
         <v>940</v>
       </c>
-      <c r="J111" t="n">
+      <c r="M111" t="n">
         <v>3.45</v>
       </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
         <v>8.853191489361702</v>
-      </c>
-      <c r="M111" t="n">
-        <v>12.77418439716312</v>
       </c>
     </row>
     <row r="112">
@@ -5477,22 +6147,28 @@
         <v>27.17647058823529</v>
       </c>
       <c r="H112" t="n">
+        <v>63.31168831168831</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11.12383498854087</v>
+      </c>
+      <c r="J112" t="n">
+        <v>27.17647058823529</v>
+      </c>
+      <c r="K112" t="n">
         <v>585</v>
       </c>
-      <c r="I112" t="n">
+      <c r="L112" t="n">
         <v>924</v>
       </c>
-      <c r="J112" t="n">
+      <c r="M112" t="n">
         <v>3.511904761904762</v>
       </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
         <v>8.944805194805195</v>
-      </c>
-      <c r="M112" t="n">
-        <v>11.12383498854087</v>
       </c>
     </row>
     <row r="113">
@@ -5522,22 +6198,28 @@
         <v>27.46666666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>64.92718446601941</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.24637540453075</v>
+      </c>
+      <c r="J113" t="n">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="K113" t="n">
         <v>535</v>
       </c>
-      <c r="I113" t="n">
+      <c r="L113" t="n">
         <v>824</v>
       </c>
-      <c r="J113" t="n">
+      <c r="M113" t="n">
         <v>3.628640776699029</v>
       </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
         <v>9.20752427184466</v>
-      </c>
-      <c r="M113" t="n">
-        <v>11.24637540453075</v>
       </c>
     </row>
     <row r="114">
@@ -5567,22 +6249,28 @@
         <v>24.91891891891892</v>
       </c>
       <c r="H114" t="n">
+        <v>61.49674620390455</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10.21355455238319</v>
+      </c>
+      <c r="J114" t="n">
+        <v>24.91891891891892</v>
+      </c>
+      <c r="K114" t="n">
         <v>567</v>
       </c>
-      <c r="I114" t="n">
+      <c r="L114" t="n">
         <v>922</v>
       </c>
-      <c r="J114" t="n">
+      <c r="M114" t="n">
         <v>3.523861171366594</v>
       </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
         <v>8.962039045553146</v>
-      </c>
-      <c r="M114" t="n">
-        <v>10.21355455238319</v>
       </c>
     </row>
     <row r="115">
@@ -5612,22 +6300,28 @@
         <v>26.27586206896552</v>
       </c>
       <c r="H115" t="n">
+        <v>67.97900262467192</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10.78226083808489</v>
+      </c>
+      <c r="J115" t="n">
+        <v>26.27586206896552</v>
+      </c>
+      <c r="K115" t="n">
         <v>518</v>
       </c>
-      <c r="I115" t="n">
+      <c r="L115" t="n">
         <v>762</v>
       </c>
-      <c r="J115" t="n">
+      <c r="M115" t="n">
         <v>3.733595800524935</v>
       </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
         <v>9.450131233595801</v>
-      </c>
-      <c r="M115" t="n">
-        <v>10.78226083808489</v>
       </c>
     </row>
     <row r="116">
@@ -5657,22 +6351,28 @@
         <v>30.89285714285714</v>
       </c>
       <c r="H116" t="n">
+        <v>69.01734104046243</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12.63321222130471</v>
+      </c>
+      <c r="J116" t="n">
+        <v>30.89285714285714</v>
+      </c>
+      <c r="K116" t="n">
         <v>597</v>
       </c>
-      <c r="I116" t="n">
+      <c r="L116" t="n">
         <v>865</v>
       </c>
-      <c r="J116" t="n">
+      <c r="M116" t="n">
         <v>3.730635838150289</v>
       </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
         <v>9.448554913294798</v>
-      </c>
-      <c r="M116" t="n">
-        <v>12.63321222130471</v>
       </c>
     </row>
     <row r="117">
@@ -5702,22 +6402,28 @@
         <v>21.15384615384615</v>
       </c>
       <c r="H117" t="n">
+        <v>56.72727272727273</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8.688447552447553</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21.15384615384615</v>
+      </c>
+      <c r="K117" t="n">
         <v>624</v>
       </c>
-      <c r="I117" t="n">
+      <c r="L117" t="n">
         <v>1100</v>
       </c>
-      <c r="J117" t="n">
+      <c r="M117" t="n">
         <v>3.211818181818182</v>
       </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
         <v>8.299090909090909</v>
-      </c>
-      <c r="M117" t="n">
-        <v>8.688447552447553</v>
       </c>
     </row>
     <row r="118">
@@ -5747,22 +6453,28 @@
         <v>20.95774647887324</v>
       </c>
       <c r="H118" t="n">
+        <v>55.98118279569893</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8.607023322732092</v>
+      </c>
+      <c r="J118" t="n">
+        <v>20.95774647887324</v>
+      </c>
+      <c r="K118" t="n">
         <v>833</v>
       </c>
-      <c r="I118" t="n">
+      <c r="L118" t="n">
         <v>1488</v>
       </c>
-      <c r="J118" t="n">
+      <c r="M118" t="n">
         <v>3.11760752688172</v>
       </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
         <v>7.913306451612903</v>
-      </c>
-      <c r="M118" t="n">
-        <v>8.607023322732092</v>
       </c>
     </row>
     <row r="119">
@@ -5792,22 +6504,28 @@
         <v>27.36585365853659</v>
       </c>
       <c r="H119" t="n">
+        <v>58.28877005347594</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11.17949654362854</v>
+      </c>
+      <c r="J119" t="n">
+        <v>27.36585365853659</v>
+      </c>
+      <c r="K119" t="n">
         <v>654</v>
       </c>
-      <c r="I119" t="n">
+      <c r="L119" t="n">
         <v>1122</v>
       </c>
-      <c r="J119" t="n">
+      <c r="M119" t="n">
         <v>3.322638146167558</v>
       </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
         <v>8.470588235294118</v>
-      </c>
-      <c r="M119" t="n">
-        <v>11.17949654362854</v>
       </c>
     </row>
     <row r="120">
@@ -5837,22 +6555,28 @@
         <v>17.23255813953488</v>
       </c>
       <c r="H120" t="n">
+        <v>67.47638326585695</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.162928788877382</v>
+      </c>
+      <c r="J120" t="n">
+        <v>17.23255813953488</v>
+      </c>
+      <c r="K120" t="n">
         <v>500</v>
       </c>
-      <c r="I120" t="n">
+      <c r="L120" t="n">
         <v>741</v>
       </c>
-      <c r="J120" t="n">
+      <c r="M120" t="n">
         <v>3.709851551956815</v>
       </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
         <v>9.421052631578947</v>
-      </c>
-      <c r="M120" t="n">
-        <v>7.162928788877382</v>
       </c>
     </row>
     <row r="121">
@@ -5882,22 +6606,28 @@
         <v>32.1304347826087</v>
       </c>
       <c r="H121" t="n">
+        <v>70.77131258457375</v>
+      </c>
+      <c r="I121" t="n">
+        <v>13.13525916338177</v>
+      </c>
+      <c r="J121" t="n">
+        <v>32.1304347826087</v>
+      </c>
+      <c r="K121" t="n">
         <v>523</v>
       </c>
-      <c r="I121" t="n">
+      <c r="L121" t="n">
         <v>739</v>
       </c>
-      <c r="J121" t="n">
+      <c r="M121" t="n">
         <v>3.822733423545332</v>
       </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
         <v>9.645466847090663</v>
-      </c>
-      <c r="M121" t="n">
-        <v>13.13525916338177</v>
       </c>
     </row>
     <row r="122">
@@ -5927,22 +6657,28 @@
         <v>31.26086956521739</v>
       </c>
       <c r="H122" t="n">
+        <v>69.12378303198888</v>
+      </c>
+      <c r="I122" t="n">
+        <v>12.78084295821491</v>
+      </c>
+      <c r="J122" t="n">
+        <v>31.26086956521739</v>
+      </c>
+      <c r="K122" t="n">
         <v>497</v>
       </c>
-      <c r="I122" t="n">
+      <c r="L122" t="n">
         <v>719</v>
       </c>
-      <c r="J122" t="n">
+      <c r="M122" t="n">
         <v>3.833101529902643</v>
       </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
         <v>9.709318497913769</v>
-      </c>
-      <c r="M122" t="n">
-        <v>12.78084295821491</v>
       </c>
     </row>
     <row r="123">
@@ -5972,22 +6708,28 @@
         <v>37.05</v>
       </c>
       <c r="H123" t="n">
+        <v>67.47638326585695</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.08990553306343</v>
+      </c>
+      <c r="J123" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="K123" t="n">
         <v>500</v>
       </c>
-      <c r="I123" t="n">
+      <c r="L123" t="n">
         <v>741</v>
       </c>
-      <c r="J123" t="n">
+      <c r="M123" t="n">
         <v>3.777327935222672</v>
       </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
         <v>9.587044534412955</v>
-      </c>
-      <c r="M123" t="n">
-        <v>15.08990553306343</v>
       </c>
     </row>
     <row r="124">
@@ -6017,22 +6759,28 @@
         <v>31.04347826086957</v>
       </c>
       <c r="H124" t="n">
+        <v>70.86834733893558</v>
+      </c>
+      <c r="I124" t="n">
+        <v>12.70086469370357</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.04347826086957</v>
+      </c>
+      <c r="K124" t="n">
         <v>506</v>
       </c>
-      <c r="I124" t="n">
+      <c r="L124" t="n">
         <v>714</v>
       </c>
-      <c r="J124" t="n">
+      <c r="M124" t="n">
         <v>3.854341736694678</v>
       </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
         <v>9.733893557422968</v>
-      </c>
-      <c r="M124" t="n">
-        <v>12.70086469370357</v>
       </c>
     </row>
     <row r="125">
@@ -6062,22 +6810,28 @@
         <v>32.68181818181818</v>
       </c>
       <c r="H125" t="n">
+        <v>70.79276773296245</v>
+      </c>
+      <c r="I125" t="n">
+        <v>13.35589834365912</v>
+      </c>
+      <c r="J125" t="n">
+        <v>32.68181818181818</v>
+      </c>
+      <c r="K125" t="n">
         <v>509</v>
       </c>
-      <c r="I125" t="n">
+      <c r="L125" t="n">
         <v>719</v>
       </c>
-      <c r="J125" t="n">
+      <c r="M125" t="n">
         <v>3.835883171070932</v>
       </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
         <v>9.695410292072323</v>
-      </c>
-      <c r="M125" t="n">
-        <v>13.35589834365912</v>
       </c>
     </row>
     <row r="126">
@@ -6107,22 +6861,28 @@
         <v>21.04166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>62.17821782178218</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8.665379537953795</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21.04166666666667</v>
+      </c>
+      <c r="K126" t="n">
         <v>628</v>
       </c>
-      <c r="I126" t="n">
+      <c r="L126" t="n">
         <v>1010</v>
       </c>
-      <c r="J126" t="n">
+      <c r="M126" t="n">
         <v>3.443564356435644</v>
       </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
         <v>8.846534653465346</v>
-      </c>
-      <c r="M126" t="n">
-        <v>8.665379537953795</v>
       </c>
     </row>
     <row r="127">
@@ -6152,22 +6912,28 @@
         <v>27</v>
       </c>
       <c r="H127" t="n">
+        <v>68.65079365079364</v>
+      </c>
+      <c r="I127" t="n">
+        <v>11.07460317460318</v>
+      </c>
+      <c r="J127" t="n">
+        <v>27</v>
+      </c>
+      <c r="K127" t="n">
         <v>519</v>
       </c>
-      <c r="I127" t="n">
+      <c r="L127" t="n">
         <v>756</v>
       </c>
-      <c r="J127" t="n">
+      <c r="M127" t="n">
         <v>3.767195767195767</v>
       </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
         <v>9.5</v>
-      </c>
-      <c r="M127" t="n">
-        <v>11.07460317460318</v>
       </c>
     </row>
     <row r="128">
@@ -6197,22 +6963,28 @@
         <v>28.9375</v>
       </c>
       <c r="H128" t="n">
+        <v>66.09071274298056</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11.83936285097192</v>
+      </c>
+      <c r="J128" t="n">
+        <v>28.9375</v>
+      </c>
+      <c r="K128" t="n">
         <v>612</v>
       </c>
-      <c r="I128" t="n">
+      <c r="L128" t="n">
         <v>926</v>
       </c>
-      <c r="J128" t="n">
+      <c r="M128" t="n">
         <v>3.598272138228942</v>
       </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
         <v>9.056155507559396</v>
-      </c>
-      <c r="M128" t="n">
-        <v>11.83936285097192</v>
       </c>
     </row>
     <row r="129">
@@ -6242,22 +7014,28 @@
         <v>32.29166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>67.2258064516129</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13.18556989247312</v>
+      </c>
+      <c r="J129" t="n">
+        <v>32.29166666666666</v>
+      </c>
+      <c r="K129" t="n">
         <v>521</v>
       </c>
-      <c r="I129" t="n">
+      <c r="L129" t="n">
         <v>775</v>
       </c>
-      <c r="J129" t="n">
+      <c r="M129" t="n">
         <v>3.756129032258065</v>
       </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
         <v>9.530322580645162</v>
-      </c>
-      <c r="M129" t="n">
-        <v>13.18556989247312</v>
       </c>
     </row>
     <row r="130">
@@ -6287,22 +7065,28 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H130" t="n">
+        <v>68.51415094339622</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.696278825995808</v>
+      </c>
+      <c r="J130" t="n">
+        <v>23.55555555555556</v>
+      </c>
+      <c r="K130" t="n">
         <v>581</v>
       </c>
-      <c r="I130" t="n">
+      <c r="L130" t="n">
         <v>848</v>
       </c>
-      <c r="J130" t="n">
+      <c r="M130" t="n">
         <v>3.726415094339623</v>
       </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
         <v>9.40683962264151</v>
-      </c>
-      <c r="M130" t="n">
-        <v>9.696278825995808</v>
       </c>
     </row>
     <row r="131">
@@ -6332,22 +7116,28 @@
         <v>24.74285714285714</v>
       </c>
       <c r="H131" t="n">
+        <v>63.39491916859122</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10.15072253381722</v>
+      </c>
+      <c r="J131" t="n">
+        <v>24.74285714285714</v>
+      </c>
+      <c r="K131" t="n">
         <v>549</v>
       </c>
-      <c r="I131" t="n">
+      <c r="L131" t="n">
         <v>866</v>
       </c>
-      <c r="J131" t="n">
+      <c r="M131" t="n">
         <v>3.584295612009238</v>
       </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
         <v>9.197459584295611</v>
-      </c>
-      <c r="M131" t="n">
-        <v>10.15072253381722</v>
       </c>
     </row>
     <row r="132">
@@ -6377,22 +7167,28 @@
         <v>24.11428571428571</v>
       </c>
       <c r="H132" t="n">
+        <v>65.28436018957346</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9.906851726472581</v>
+      </c>
+      <c r="J132" t="n">
+        <v>24.11428571428571</v>
+      </c>
+      <c r="K132" t="n">
         <v>551</v>
       </c>
-      <c r="I132" t="n">
+      <c r="L132" t="n">
         <v>844</v>
       </c>
-      <c r="J132" t="n">
+      <c r="M132" t="n">
         <v>3.626777251184834</v>
       </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
         <v>9.266587677725118</v>
-      </c>
-      <c r="M132" t="n">
-        <v>9.906851726472581</v>
       </c>
     </row>
     <row r="133">
@@ -6422,22 +7218,28 @@
         <v>26.12903225806452</v>
       </c>
       <c r="H133" t="n">
+        <v>66.91358024691358</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10.71926722421346</v>
+      </c>
+      <c r="J133" t="n">
+        <v>26.12903225806452</v>
+      </c>
+      <c r="K133" t="n">
         <v>542</v>
       </c>
-      <c r="I133" t="n">
+      <c r="L133" t="n">
         <v>810</v>
       </c>
-      <c r="J133" t="n">
+      <c r="M133" t="n">
         <v>3.68395061728395</v>
       </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
         <v>9.388888888888889</v>
-      </c>
-      <c r="M133" t="n">
-        <v>10.71926722421346</v>
       </c>
     </row>
     <row r="134">
@@ -6467,22 +7269,28 @@
         <v>31.76</v>
       </c>
       <c r="H134" t="n">
+        <v>68.01007556675063</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12.976040302267</v>
+      </c>
+      <c r="J134" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="K134" t="n">
         <v>540</v>
       </c>
-      <c r="I134" t="n">
+      <c r="L134" t="n">
         <v>794</v>
       </c>
-      <c r="J134" t="n">
+      <c r="M134" t="n">
         <v>3.739294710327456</v>
       </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
         <v>9.385390428211586</v>
-      </c>
-      <c r="M134" t="n">
-        <v>12.976040302267</v>
       </c>
     </row>
     <row r="135">
@@ -6512,22 +7320,28 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H135" t="n">
+        <v>67.04260651629073</v>
+      </c>
+      <c r="I135" t="n">
+        <v>12.09039264828739</v>
+      </c>
+      <c r="J135" t="n">
+        <v>29.55555555555556</v>
+      </c>
+      <c r="K135" t="n">
         <v>535</v>
       </c>
-      <c r="I135" t="n">
+      <c r="L135" t="n">
         <v>798</v>
       </c>
-      <c r="J135" t="n">
+      <c r="M135" t="n">
         <v>3.725563909774436</v>
       </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="n">
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
         <v>9.414786967418546</v>
-      </c>
-      <c r="M135" t="n">
-        <v>12.09039264828739</v>
       </c>
     </row>
     <row r="136">
@@ -6557,22 +7371,28 @@
         <v>32.25</v>
       </c>
       <c r="H136" t="n">
+        <v>68.34625322997417</v>
+      </c>
+      <c r="I136" t="n">
+        <v>13.1733850129199</v>
+      </c>
+      <c r="J136" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="K136" t="n">
         <v>529</v>
       </c>
-      <c r="I136" t="n">
+      <c r="L136" t="n">
         <v>774</v>
       </c>
-      <c r="J136" t="n">
+      <c r="M136" t="n">
         <v>3.760981912144703</v>
       </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
         <v>9.490956072351421</v>
-      </c>
-      <c r="M136" t="n">
-        <v>13.1733850129199</v>
       </c>
     </row>
     <row r="137">
@@ -6602,22 +7422,28 @@
         <v>34.90909090909091</v>
       </c>
       <c r="H137" t="n">
+        <v>68.48958333333334</v>
+      </c>
+      <c r="I137" t="n">
+        <v>14.2375946969697</v>
+      </c>
+      <c r="J137" t="n">
+        <v>34.90909090909091</v>
+      </c>
+      <c r="K137" t="n">
         <v>526</v>
       </c>
-      <c r="I137" t="n">
+      <c r="L137" t="n">
         <v>768</v>
       </c>
-      <c r="J137" t="n">
+      <c r="M137" t="n">
         <v>3.774739583333333</v>
       </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
         <v>9.5234375</v>
-      </c>
-      <c r="M137" t="n">
-        <v>14.2375946969697</v>
       </c>
     </row>
     <row r="138">
@@ -6647,22 +7473,28 @@
         <v>23.81818181818182</v>
       </c>
       <c r="H138" t="n">
+        <v>67.43002544529261</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9.796992829053899</v>
+      </c>
+      <c r="J138" t="n">
+        <v>23.81818181818182</v>
+      </c>
+      <c r="K138" t="n">
         <v>530</v>
       </c>
-      <c r="I138" t="n">
+      <c r="L138" t="n">
         <v>786</v>
       </c>
-      <c r="J138" t="n">
+      <c r="M138" t="n">
         <v>3.723918575063613</v>
       </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
         <v>9.421119592875318</v>
-      </c>
-      <c r="M138" t="n">
-        <v>9.796992829053899</v>
       </c>
     </row>
     <row r="139">
@@ -6692,22 +7524,28 @@
         <v>33.04166666666666</v>
       </c>
       <c r="H139" t="n">
+        <v>66.33039092055486</v>
+      </c>
+      <c r="I139" t="n">
+        <v>13.48198823034888</v>
+      </c>
+      <c r="J139" t="n">
+        <v>33.04166666666666</v>
+      </c>
+      <c r="K139" t="n">
         <v>526</v>
       </c>
-      <c r="I139" t="n">
+      <c r="L139" t="n">
         <v>793</v>
       </c>
-      <c r="J139" t="n">
+      <c r="M139" t="n">
         <v>3.697351828499369</v>
       </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
         <v>9.336696090794451</v>
-      </c>
-      <c r="M139" t="n">
-        <v>13.48198823034888</v>
       </c>
     </row>
     <row r="140">
@@ -6737,22 +7575,28 @@
         <v>30.80769230769231</v>
       </c>
       <c r="H140" t="n">
+        <v>67.16604244694132</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12.59174109286469</v>
+      </c>
+      <c r="J140" t="n">
+        <v>30.80769230769231</v>
+      </c>
+      <c r="K140" t="n">
         <v>538</v>
       </c>
-      <c r="I140" t="n">
+      <c r="L140" t="n">
         <v>801</v>
       </c>
-      <c r="J140" t="n">
+      <c r="M140" t="n">
         <v>3.701622971285893</v>
       </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
         <v>9.3083645443196</v>
-      </c>
-      <c r="M140" t="n">
-        <v>12.59174109286469</v>
       </c>
     </row>
     <row r="141">
@@ -6782,22 +7626,28 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H141" t="n">
+        <v>64.15313225058004</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.834390306780099</v>
+      </c>
+      <c r="J141" t="n">
+        <v>23.94444444444444</v>
+      </c>
+      <c r="K141" t="n">
         <v>553</v>
       </c>
-      <c r="I141" t="n">
+      <c r="L141" t="n">
         <v>862</v>
       </c>
-      <c r="J141" t="n">
+      <c r="M141" t="n">
         <v>3.603248259860789</v>
       </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
         <v>9.209976798143851</v>
-      </c>
-      <c r="M141" t="n">
-        <v>9.834390306780099</v>
       </c>
     </row>
     <row r="142">
@@ -6827,22 +7677,28 @@
         <v>16.98550724637681</v>
       </c>
       <c r="H142" t="n">
+        <v>56.0580204778157</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7.018434980461987</v>
+      </c>
+      <c r="J142" t="n">
+        <v>16.98550724637681</v>
+      </c>
+      <c r="K142" t="n">
         <v>657</v>
       </c>
-      <c r="I142" t="n">
+      <c r="L142" t="n">
         <v>1172</v>
       </c>
-      <c r="J142" t="n">
+      <c r="M142" t="n">
         <v>3.28839590443686</v>
       </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
         <v>8.529863481228668</v>
-      </c>
-      <c r="M142" t="n">
-        <v>7.018434980461987</v>
       </c>
     </row>
     <row r="143">
@@ -6872,22 +7728,28 @@
         <v>23.35714285714286</v>
       </c>
       <c r="H143" t="n">
+        <v>67.48216106014272</v>
+      </c>
+      <c r="I143" t="n">
+        <v>9.612785787097714</v>
+      </c>
+      <c r="J143" t="n">
+        <v>23.35714285714286</v>
+      </c>
+      <c r="K143" t="n">
         <v>662</v>
       </c>
-      <c r="I143" t="n">
+      <c r="L143" t="n">
         <v>981</v>
       </c>
-      <c r="J143" t="n">
+      <c r="M143" t="n">
         <v>3.577981651376147</v>
       </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
         <v>9.132517838939858</v>
-      </c>
-      <c r="M143" t="n">
-        <v>9.612785787097714</v>
       </c>
     </row>
     <row r="144">
@@ -6917,22 +7779,28 @@
         <v>21.10909090909091</v>
       </c>
       <c r="H144" t="n">
+        <v>60.98191214470285</v>
+      </c>
+      <c r="I144" t="n">
+        <v>8.687564012215175</v>
+      </c>
+      <c r="J144" t="n">
+        <v>21.10909090909091</v>
+      </c>
+      <c r="K144" t="n">
         <v>708</v>
       </c>
-      <c r="I144" t="n">
+      <c r="L144" t="n">
         <v>1161</v>
       </c>
-      <c r="J144" t="n">
+      <c r="M144" t="n">
         <v>3.383290267011197</v>
       </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
         <v>8.648578811369509</v>
-      </c>
-      <c r="M144" t="n">
-        <v>8.687564012215175</v>
       </c>
     </row>
     <row r="145">
@@ -6962,22 +7830,28 @@
         <v>17.54878048780488</v>
       </c>
       <c r="H145" t="n">
+        <v>60.18068102849201</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7.260234919235919</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17.54878048780488</v>
+      </c>
+      <c r="K145" t="n">
         <v>866</v>
       </c>
-      <c r="I145" t="n">
+      <c r="L145" t="n">
         <v>1439</v>
       </c>
-      <c r="J145" t="n">
+      <c r="M145" t="n">
         <v>3.264767199444059</v>
       </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
         <v>8.229325920778319</v>
-      </c>
-      <c r="M145" t="n">
-        <v>7.260234919235919</v>
       </c>
     </row>
     <row r="146">
@@ -7007,22 +7881,28 @@
         <v>21.74358974358974</v>
       </c>
       <c r="H146" t="n">
+        <v>64.97641509433963</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.957341557813256</v>
+      </c>
+      <c r="J146" t="n">
+        <v>21.74358974358974</v>
+      </c>
+      <c r="K146" t="n">
         <v>551</v>
       </c>
-      <c r="I146" t="n">
+      <c r="L146" t="n">
         <v>848</v>
       </c>
-      <c r="J146" t="n">
+      <c r="M146" t="n">
         <v>3.613207547169811</v>
       </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
         <v>9.163915094339623</v>
-      </c>
-      <c r="M146" t="n">
-        <v>8.957341557813256</v>
       </c>
     </row>
     <row r="147">
@@ -7052,22 +7932,28 @@
         <v>48.46666666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>68.22558459422284</v>
+      </c>
+      <c r="I147" t="n">
+        <v>19.65956900504356</v>
+      </c>
+      <c r="J147" t="n">
+        <v>48.46666666666667</v>
+      </c>
+      <c r="K147" t="n">
         <v>496</v>
       </c>
-      <c r="I147" t="n">
+      <c r="L147" t="n">
         <v>727</v>
       </c>
-      <c r="J147" t="n">
+      <c r="M147" t="n">
         <v>3.81292984869326</v>
       </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
         <v>9.675378266850069</v>
-      </c>
-      <c r="M147" t="n">
-        <v>19.65956900504356</v>
       </c>
     </row>
     <row r="148">
@@ -7097,22 +7983,28 @@
         <v>34.09523809523809</v>
       </c>
       <c r="H148" t="n">
+        <v>69.1340782122905</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13.9146315509444</v>
+      </c>
+      <c r="J148" t="n">
+        <v>34.09523809523809</v>
+      </c>
+      <c r="K148" t="n">
         <v>495</v>
       </c>
-      <c r="I148" t="n">
+      <c r="L148" t="n">
         <v>716</v>
       </c>
-      <c r="J148" t="n">
+      <c r="M148" t="n">
         <v>3.835195530726257</v>
       </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
         <v>9.69413407821229</v>
-      </c>
-      <c r="M148" t="n">
-        <v>13.9146315509444</v>
       </c>
     </row>
   </sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -537,25 +537,25 @@
         <v>27.96551724137931</v>
       </c>
       <c r="H2" t="n">
-        <v>67.07768187422934</v>
+        <v>60.17262638717632</v>
       </c>
       <c r="I2" t="n">
-        <v>11.45451762404864</v>
+        <v>11.42689740210043</v>
       </c>
       <c r="J2" t="n">
         <v>27.96551724137931</v>
       </c>
       <c r="K2" t="n">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="L2" t="n">
         <v>811</v>
       </c>
       <c r="M2" t="n">
-        <v>3.683107274969174</v>
+        <v>3.316892725030826</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O2" t="n">
         <v>9.42170160295931</v>
@@ -588,25 +588,25 @@
         <v>18.10344827586207</v>
       </c>
       <c r="H3" t="n">
-        <v>61.90476190476191</v>
+        <v>54.47619047619048</v>
       </c>
       <c r="I3" t="n">
-        <v>7.488998357963876</v>
+        <v>7.45928407224959</v>
       </c>
       <c r="J3" t="n">
         <v>18.10344827586207</v>
       </c>
       <c r="K3" t="n">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="L3" t="n">
         <v>1050</v>
       </c>
       <c r="M3" t="n">
-        <v>3.422857142857143</v>
+        <v>3.052380952380952</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O3" t="n">
         <v>8.80952380952381</v>
@@ -639,25 +639,25 @@
         <v>23.1</v>
       </c>
       <c r="H4" t="n">
-        <v>63.41991341991342</v>
+        <v>56.92640692640693</v>
       </c>
       <c r="I4" t="n">
-        <v>9.493679653679655</v>
+        <v>9.467705627705628</v>
       </c>
       <c r="J4" t="n">
         <v>23.1</v>
       </c>
       <c r="K4" t="n">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
         <v>924</v>
       </c>
       <c r="M4" t="n">
-        <v>3.494588744588745</v>
+        <v>3.154761904761905</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
         <v>8.930735930735931</v>
@@ -690,25 +690,25 @@
         <v>22.91304347826087</v>
       </c>
       <c r="H5" t="n">
-        <v>68.59582542694497</v>
+        <v>59.01328273244781</v>
       </c>
       <c r="I5" t="n">
-        <v>9.43960069301213</v>
+        <v>9.401270522234141</v>
       </c>
       <c r="J5" t="n">
         <v>22.91304347826087</v>
       </c>
       <c r="K5" t="n">
-        <v>723</v>
+        <v>622</v>
       </c>
       <c r="L5" t="n">
         <v>1054</v>
       </c>
       <c r="M5" t="n">
-        <v>3.566413662239089</v>
+        <v>3.11100569259962</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O5" t="n">
         <v>9.193548387096774</v>
@@ -741,25 +741,25 @@
         <v>12.96116504854369</v>
       </c>
       <c r="H6" t="n">
-        <v>56.32958801498127</v>
+        <v>49.66292134831461</v>
       </c>
       <c r="I6" t="n">
-        <v>5.409784371477401</v>
+        <v>5.383117704810735</v>
       </c>
       <c r="J6" t="n">
         <v>12.96116504854369</v>
       </c>
       <c r="K6" t="n">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="L6" t="n">
         <v>1335</v>
       </c>
       <c r="M6" t="n">
-        <v>3.210486891385768</v>
+        <v>2.893632958801498</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O6" t="n">
         <v>8.28689138576779</v>
@@ -792,25 +792,25 @@
         <v>27.96551724137931</v>
       </c>
       <c r="H7" t="n">
-        <v>67.07768187422934</v>
+        <v>60.17262638717632</v>
       </c>
       <c r="I7" t="n">
-        <v>11.45451762404864</v>
+        <v>11.42689740210043</v>
       </c>
       <c r="J7" t="n">
         <v>27.96551724137931</v>
       </c>
       <c r="K7" t="n">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="L7" t="n">
         <v>811</v>
       </c>
       <c r="M7" t="n">
-        <v>3.683107274969174</v>
+        <v>3.316892725030826</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O7" t="n">
         <v>9.42170160295931</v>
@@ -843,25 +843,25 @@
         <v>18.10344827586207</v>
       </c>
       <c r="H8" t="n">
-        <v>61.90476190476191</v>
+        <v>54.47619047619048</v>
       </c>
       <c r="I8" t="n">
-        <v>7.488998357963876</v>
+        <v>7.45928407224959</v>
       </c>
       <c r="J8" t="n">
         <v>18.10344827586207</v>
       </c>
       <c r="K8" t="n">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="L8" t="n">
         <v>1050</v>
       </c>
       <c r="M8" t="n">
-        <v>3.422857142857143</v>
+        <v>3.052380952380952</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O8" t="n">
         <v>8.80952380952381</v>
@@ -894,25 +894,25 @@
         <v>23.1</v>
       </c>
       <c r="H9" t="n">
-        <v>63.41991341991342</v>
+        <v>56.92640692640693</v>
       </c>
       <c r="I9" t="n">
-        <v>9.493679653679655</v>
+        <v>9.467705627705628</v>
       </c>
       <c r="J9" t="n">
         <v>23.1</v>
       </c>
       <c r="K9" t="n">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="L9" t="n">
         <v>924</v>
       </c>
       <c r="M9" t="n">
-        <v>3.494588744588745</v>
+        <v>3.154761904761905</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O9" t="n">
         <v>8.930735930735931</v>
@@ -945,25 +945,25 @@
         <v>22.91304347826087</v>
       </c>
       <c r="H10" t="n">
-        <v>68.59582542694497</v>
+        <v>59.01328273244781</v>
       </c>
       <c r="I10" t="n">
-        <v>9.43960069301213</v>
+        <v>9.401270522234141</v>
       </c>
       <c r="J10" t="n">
         <v>22.91304347826087</v>
       </c>
       <c r="K10" t="n">
-        <v>723</v>
+        <v>622</v>
       </c>
       <c r="L10" t="n">
         <v>1054</v>
       </c>
       <c r="M10" t="n">
-        <v>3.566413662239089</v>
+        <v>3.11100569259962</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O10" t="n">
         <v>9.193548387096774</v>
@@ -996,25 +996,25 @@
         <v>14.192</v>
       </c>
       <c r="H11" t="n">
-        <v>65.05073280721533</v>
+        <v>55.91882750845547</v>
       </c>
       <c r="I11" t="n">
-        <v>5.937002931228862</v>
+        <v>5.900475310033823</v>
       </c>
       <c r="J11" t="n">
         <v>14.192</v>
       </c>
       <c r="K11" t="n">
-        <v>1154</v>
+        <v>992</v>
       </c>
       <c r="L11" t="n">
         <v>1774</v>
       </c>
       <c r="M11" t="n">
-        <v>3.337655016910936</v>
+        <v>2.950394588500564</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O11" t="n">
         <v>8.455467869222097</v>
@@ -1047,25 +1047,25 @@
         <v>22.72093023255814</v>
       </c>
       <c r="H12" t="n">
-        <v>68.57727737973389</v>
+        <v>61.31013306038895</v>
       </c>
       <c r="I12" t="n">
-        <v>9.362681202542191</v>
+        <v>9.333612625264811</v>
       </c>
       <c r="J12" t="n">
         <v>22.72093023255814</v>
       </c>
       <c r="K12" t="n">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="L12" t="n">
         <v>977</v>
       </c>
       <c r="M12" t="n">
-        <v>3.632548618219038</v>
+        <v>3.272262026612078</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O12" t="n">
         <v>9.221084953940634</v>
@@ -1098,25 +1098,25 @@
         <v>23.74468085106383</v>
       </c>
       <c r="H13" t="n">
-        <v>67.20430107526882</v>
+        <v>60.0358422939068</v>
       </c>
       <c r="I13" t="n">
-        <v>9.766689544726608</v>
+        <v>9.738015709601159</v>
       </c>
       <c r="J13" t="n">
         <v>23.74468085106383</v>
       </c>
       <c r="K13" t="n">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="L13" t="n">
         <v>1116</v>
       </c>
       <c r="M13" t="n">
-        <v>3.531362007168459</v>
+        <v>3.181899641577061</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O13" t="n">
         <v>9.049283154121865</v>
@@ -1149,25 +1149,25 @@
         <v>22.27906976744186</v>
       </c>
       <c r="H14" t="n">
-        <v>66.59707724425887</v>
+        <v>57.72442588726514</v>
       </c>
       <c r="I14" t="n">
-        <v>9.178016215953781</v>
+        <v>9.142525610525805</v>
       </c>
       <c r="J14" t="n">
         <v>22.27906976744186</v>
       </c>
       <c r="K14" t="n">
-        <v>638</v>
+        <v>553</v>
       </c>
       <c r="L14" t="n">
         <v>958</v>
       </c>
       <c r="M14" t="n">
-        <v>3.599164926931107</v>
+        <v>3.168058455114823</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O14" t="n">
         <v>9.267223382045929</v>
@@ -1200,25 +1200,25 @@
         <v>24.28205128205128</v>
       </c>
       <c r="H15" t="n">
-        <v>68.6378035902851</v>
+        <v>60.19007391763463</v>
       </c>
       <c r="I15" t="n">
-        <v>9.987371727181653</v>
+        <v>9.953580808491052</v>
       </c>
       <c r="J15" t="n">
         <v>24.28205128205128</v>
       </c>
       <c r="K15" t="n">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="L15" t="n">
         <v>947</v>
       </c>
       <c r="M15" t="n">
-        <v>3.664202745512144</v>
+        <v>3.251319957761352</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O15" t="n">
         <v>9.327349524815206</v>
@@ -1251,25 +1251,25 @@
         <v>17.05747126436782</v>
       </c>
       <c r="H16" t="n">
-        <v>62.6010781671159</v>
+        <v>55.45822102425875</v>
       </c>
       <c r="I16" t="n">
-        <v>7.073392818415591</v>
+        <v>7.044821389844161</v>
       </c>
       <c r="J16" t="n">
         <v>17.05747126436782</v>
       </c>
       <c r="K16" t="n">
-        <v>929</v>
+        <v>823</v>
       </c>
       <c r="L16" t="n">
         <v>1484</v>
       </c>
       <c r="M16" t="n">
-        <v>3.331536388140162</v>
+        <v>2.962938005390836</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O16" t="n">
         <v>8.661725067385445</v>
@@ -1302,25 +1302,25 @@
         <v>11.1484375</v>
       </c>
       <c r="H17" t="n">
-        <v>61.80798878766643</v>
+        <v>53.39873861247371</v>
       </c>
       <c r="I17" t="n">
-        <v>4.706606955150666</v>
+        <v>4.672969954449895</v>
       </c>
       <c r="J17" t="n">
         <v>11.1484375</v>
       </c>
       <c r="K17" t="n">
-        <v>882</v>
+        <v>762</v>
       </c>
       <c r="L17" t="n">
         <v>1427</v>
       </c>
       <c r="M17" t="n">
-        <v>3.292221443587947</v>
+        <v>2.871058163980378</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O17" t="n">
         <v>8.393833216538193</v>
@@ -1353,25 +1353,25 @@
         <v>19.11764705882353</v>
       </c>
       <c r="H18" t="n">
-        <v>65.84615384615384</v>
+        <v>56.12307692307692</v>
       </c>
       <c r="I18" t="n">
-        <v>7.910443438914027</v>
+        <v>7.871551131221719</v>
       </c>
       <c r="J18" t="n">
         <v>19.11764705882353</v>
       </c>
       <c r="K18" t="n">
-        <v>1070</v>
+        <v>912</v>
       </c>
       <c r="L18" t="n">
         <v>1625</v>
       </c>
       <c r="M18" t="n">
-        <v>3.433230769230769</v>
+        <v>3.004923076923077</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O18" t="n">
         <v>8.764923076923077</v>
@@ -1404,25 +1404,25 @@
         <v>21.86842105263158</v>
       </c>
       <c r="H19" t="n">
-        <v>66.66666666666666</v>
+        <v>59.08543922984356</v>
       </c>
       <c r="I19" t="n">
-        <v>9.014035087719298</v>
+        <v>8.983710177972005</v>
       </c>
       <c r="J19" t="n">
         <v>21.86842105263158</v>
       </c>
       <c r="K19" t="n">
-        <v>554</v>
+        <v>491</v>
       </c>
       <c r="L19" t="n">
         <v>831</v>
       </c>
       <c r="M19" t="n">
-        <v>3.690734055354994</v>
+        <v>3.287605294825511</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O19" t="n">
         <v>9.393501805054152</v>
@@ -1455,25 +1455,25 @@
         <v>14.95</v>
       </c>
       <c r="H20" t="n">
-        <v>60.53511705685619</v>
+        <v>51.50501672240802</v>
       </c>
       <c r="I20" t="n">
-        <v>6.222140468227425</v>
+        <v>6.186020066889633</v>
       </c>
       <c r="J20" t="n">
         <v>14.95</v>
       </c>
       <c r="K20" t="n">
-        <v>905</v>
+        <v>770</v>
       </c>
       <c r="L20" t="n">
         <v>1495</v>
       </c>
       <c r="M20" t="n">
-        <v>3.357859531772575</v>
+        <v>2.912374581939799</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O20" t="n">
         <v>8.549832775919732</v>
@@ -1506,25 +1506,25 @@
         <v>18.03448275862069</v>
       </c>
       <c r="H21" t="n">
-        <v>64.43594646271511</v>
+        <v>54.97131931166348</v>
       </c>
       <c r="I21" t="n">
-        <v>7.471536889299137</v>
+        <v>7.43367838069493</v>
       </c>
       <c r="J21" t="n">
         <v>18.03448275862069</v>
       </c>
       <c r="K21" t="n">
-        <v>674</v>
+        <v>575</v>
       </c>
       <c r="L21" t="n">
         <v>1046</v>
       </c>
       <c r="M21" t="n">
-        <v>3.509560229445507</v>
+        <v>3.073613766730401</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O21" t="n">
         <v>8.921606118546846</v>
@@ -1557,25 +1557,25 @@
         <v>20.24390243902439</v>
       </c>
       <c r="H22" t="n">
-        <v>66.98795180722892</v>
+        <v>58.19277108433734</v>
       </c>
       <c r="I22" t="n">
-        <v>8.365512782838671</v>
+        <v>8.330332059947105</v>
       </c>
       <c r="J22" t="n">
         <v>20.24390243902439</v>
       </c>
       <c r="K22" t="n">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="L22" t="n">
         <v>830</v>
       </c>
       <c r="M22" t="n">
-        <v>3.687951807228916</v>
+        <v>3.259036144578313</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O22" t="n">
         <v>9.349397590361447</v>
@@ -1608,25 +1608,25 @@
         <v>20.75609756097561</v>
       </c>
       <c r="H23" t="n">
-        <v>68.86016451233843</v>
+        <v>61.33960047003525</v>
       </c>
       <c r="I23" t="n">
-        <v>8.577879682439599</v>
+        <v>8.547797426270385</v>
       </c>
       <c r="J23" t="n">
         <v>20.75609756097561</v>
       </c>
       <c r="K23" t="n">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="L23" t="n">
         <v>851</v>
       </c>
       <c r="M23" t="n">
-        <v>3.722679200940071</v>
+        <v>3.347826086956522</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O23" t="n">
         <v>9.471210340775558</v>
@@ -1659,25 +1659,25 @@
         <v>21.05</v>
       </c>
       <c r="H24" t="n">
-        <v>67.3396674584323</v>
+        <v>59.14489311163895</v>
       </c>
       <c r="I24" t="n">
-        <v>8.68935866983373</v>
+        <v>8.656579572446557</v>
       </c>
       <c r="J24" t="n">
         <v>21.05</v>
       </c>
       <c r="K24" t="n">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="L24" t="n">
         <v>842</v>
       </c>
       <c r="M24" t="n">
-        <v>3.675771971496437</v>
+        <v>3.276722090261283</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O24" t="n">
         <v>9.396674584323041</v>
@@ -1710,25 +1710,25 @@
         <v>20.51219512195122</v>
       </c>
       <c r="H25" t="n">
-        <v>70.27348394768134</v>
+        <v>61.23662306777645</v>
       </c>
       <c r="I25" t="n">
-        <v>8.485971984571213</v>
+        <v>8.449824541051594</v>
       </c>
       <c r="J25" t="n">
         <v>20.51219512195122</v>
       </c>
       <c r="K25" t="n">
-        <v>591</v>
+        <v>515</v>
       </c>
       <c r="L25" t="n">
         <v>841</v>
       </c>
       <c r="M25" t="n">
-        <v>3.763376932223543</v>
+        <v>3.33769322235434</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O25" t="n">
         <v>9.510107015457788</v>
@@ -1761,25 +1761,25 @@
         <v>20.68292682926829</v>
       </c>
       <c r="H26" t="n">
-        <v>69.5754716981132</v>
+        <v>61.43867924528303</v>
       </c>
       <c r="I26" t="n">
-        <v>8.551472618499771</v>
+        <v>8.518925448688449</v>
       </c>
       <c r="J26" t="n">
         <v>20.68292682926829</v>
       </c>
       <c r="K26" t="n">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="L26" t="n">
         <v>848</v>
       </c>
       <c r="M26" t="n">
-        <v>3.725235849056604</v>
+        <v>3.326650943396226</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O26" t="n">
         <v>9.464622641509434</v>
@@ -1812,25 +1812,25 @@
         <v>19.63636363636364</v>
       </c>
       <c r="H27" t="n">
-        <v>68.05555555555556</v>
+        <v>59.49074074074075</v>
       </c>
       <c r="I27" t="n">
-        <v>8.126767676767678</v>
+        <v>8.092508417508418</v>
       </c>
       <c r="J27" t="n">
         <v>19.63636363636364</v>
       </c>
       <c r="K27" t="n">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="L27" t="n">
         <v>864</v>
       </c>
       <c r="M27" t="n">
-        <v>3.666666666666667</v>
+        <v>3.251157407407407</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O27" t="n">
         <v>9.32175925925926</v>
@@ -1863,25 +1863,25 @@
         <v>18.81666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>59.96457041629761</v>
+        <v>51.90434012400355</v>
       </c>
       <c r="I28" t="n">
-        <v>7.766524948331858</v>
+        <v>7.734284027162682</v>
       </c>
       <c r="J28" t="n">
         <v>18.81666666666667</v>
       </c>
       <c r="K28" t="n">
-        <v>677</v>
+        <v>586</v>
       </c>
       <c r="L28" t="n">
         <v>1129</v>
       </c>
       <c r="M28" t="n">
-        <v>3.331266607617361</v>
+        <v>2.953055801594331</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O28" t="n">
         <v>8.705048715677592</v>
@@ -1914,25 +1914,25 @@
         <v>20.58928571428572</v>
       </c>
       <c r="H29" t="n">
-        <v>62.70598438855161</v>
+        <v>54.81352992194276</v>
       </c>
       <c r="I29" t="n">
-        <v>8.486538223268493</v>
+        <v>8.454968405402058</v>
       </c>
       <c r="J29" t="n">
         <v>20.58928571428572</v>
       </c>
       <c r="K29" t="n">
-        <v>723</v>
+        <v>632</v>
       </c>
       <c r="L29" t="n">
         <v>1153</v>
       </c>
       <c r="M29" t="n">
-        <v>3.367736339982654</v>
+        <v>2.998265394622723</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O29" t="n">
         <v>8.722463139635733</v>
@@ -1965,25 +1965,25 @@
         <v>17.55384615384616</v>
       </c>
       <c r="H30" t="n">
-        <v>63.27782646801051</v>
+        <v>53.54951796669588</v>
       </c>
       <c r="I30" t="n">
-        <v>7.274649767410505</v>
+        <v>7.235736533405246</v>
       </c>
       <c r="J30" t="n">
         <v>17.55384615384616</v>
       </c>
       <c r="K30" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="L30" t="n">
         <v>1141</v>
       </c>
       <c r="M30" t="n">
-        <v>3.418054338299737</v>
+        <v>2.983347940403155</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O30" t="n">
         <v>8.860648553900088</v>
@@ -2016,25 +2016,25 @@
         <v>18.14285714285714</v>
       </c>
       <c r="H31" t="n">
-        <v>66.05424321959755</v>
+        <v>56.86789151356081</v>
       </c>
       <c r="I31" t="n">
-        <v>7.521359830021247</v>
+        <v>7.4846144231971</v>
       </c>
       <c r="J31" t="n">
         <v>18.14285714285714</v>
       </c>
       <c r="K31" t="n">
-        <v>755</v>
+        <v>650</v>
       </c>
       <c r="L31" t="n">
         <v>1143</v>
       </c>
       <c r="M31" t="n">
-        <v>3.470691163604549</v>
+        <v>3.063867016622922</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O31" t="n">
         <v>8.797025371828521</v>
@@ -2067,25 +2067,25 @@
         <v>16.93548387096774</v>
       </c>
       <c r="H32" t="n">
-        <v>65.14285714285715</v>
+        <v>57.52380952380952</v>
       </c>
       <c r="I32" t="n">
-        <v>7.034764976958525</v>
+        <v>7.004288786482334</v>
       </c>
       <c r="J32" t="n">
         <v>16.93548387096774</v>
       </c>
       <c r="K32" t="n">
-        <v>684</v>
+        <v>604</v>
       </c>
       <c r="L32" t="n">
         <v>1050</v>
       </c>
       <c r="M32" t="n">
-        <v>3.495238095238095</v>
+        <v>3.12952380952381</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O32" t="n">
         <v>8.98952380952381</v>
@@ -2118,25 +2118,25 @@
         <v>22.34545454545454</v>
       </c>
       <c r="H33" t="n">
-        <v>64.19853539462979</v>
+        <v>54.8413344182262</v>
       </c>
       <c r="I33" t="n">
-        <v>9.194975959760336</v>
+        <v>9.157547155854722</v>
       </c>
       <c r="J33" t="n">
         <v>22.34545454545454</v>
       </c>
       <c r="K33" t="n">
-        <v>789</v>
+        <v>674</v>
       </c>
       <c r="L33" t="n">
         <v>1229</v>
       </c>
       <c r="M33" t="n">
-        <v>3.484947111472742</v>
+        <v>3.054515866558178</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O33" t="n">
         <v>8.938161106590725</v>
@@ -2169,25 +2169,25 @@
         <v>16.59340659340659</v>
       </c>
       <c r="H34" t="n">
-        <v>61.65562913907284</v>
+        <v>52.71523178807948</v>
       </c>
       <c r="I34" t="n">
-        <v>6.88398515391893</v>
+        <v>6.848223564514957</v>
       </c>
       <c r="J34" t="n">
         <v>16.59340659340659</v>
       </c>
       <c r="K34" t="n">
-        <v>931</v>
+        <v>796</v>
       </c>
       <c r="L34" t="n">
         <v>1510</v>
       </c>
       <c r="M34" t="n">
-        <v>3.312582781456954</v>
+        <v>2.917880794701987</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O34" t="n">
         <v>8.479470198675497</v>
@@ -2220,25 +2220,25 @@
         <v>20.36734693877551</v>
       </c>
       <c r="H35" t="n">
-        <v>64.52905811623246</v>
+        <v>56.1122244488978</v>
       </c>
       <c r="I35" t="n">
-        <v>8.405055007975134</v>
+        <v>8.371387673305795</v>
       </c>
       <c r="J35" t="n">
         <v>20.36734693877551</v>
       </c>
       <c r="K35" t="n">
-        <v>644</v>
+        <v>560</v>
       </c>
       <c r="L35" t="n">
         <v>998</v>
       </c>
       <c r="M35" t="n">
-        <v>3.466933867735471</v>
+        <v>3.074148296593187</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O35" t="n">
         <v>8.965931863727455</v>
@@ -2271,25 +2271,25 @@
         <v>11.10126582278481</v>
       </c>
       <c r="H36" t="n">
-        <v>56.61345496009123</v>
+        <v>49.03078677309008</v>
       </c>
       <c r="I36" t="n">
-        <v>4.666960148954289</v>
+        <v>4.636629476206284</v>
       </c>
       <c r="J36" t="n">
         <v>11.10126582278481</v>
       </c>
       <c r="K36" t="n">
-        <v>993</v>
+        <v>860</v>
       </c>
       <c r="L36" t="n">
         <v>1754</v>
       </c>
       <c r="M36" t="n">
-        <v>3.129988597491448</v>
+        <v>2.787913340935006</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O36" t="n">
         <v>8.254846066134549</v>
@@ -2322,25 +2322,25 @@
         <v>13.59139784946237</v>
       </c>
       <c r="H37" t="n">
-        <v>61.62974683544304</v>
+        <v>53.63924050632911</v>
       </c>
       <c r="I37" t="n">
-        <v>5.683078127126719</v>
+        <v>5.651116101810263</v>
       </c>
       <c r="J37" t="n">
         <v>13.59139784946237</v>
       </c>
       <c r="K37" t="n">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="L37" t="n">
         <v>1264</v>
       </c>
       <c r="M37" t="n">
-        <v>3.380537974683544</v>
+        <v>2.988924050632912</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O37" t="n">
         <v>8.666139240506329</v>
@@ -2373,25 +2373,25 @@
         <v>14.93827160493827</v>
       </c>
       <c r="H38" t="n">
-        <v>67.60330578512396</v>
+        <v>59.42148760330579</v>
       </c>
       <c r="I38" t="n">
-        <v>6.245721865115804</v>
+        <v>6.212994592388533</v>
       </c>
       <c r="J38" t="n">
         <v>14.93827160493827</v>
       </c>
       <c r="K38" t="n">
-        <v>818</v>
+        <v>719</v>
       </c>
       <c r="L38" t="n">
         <v>1210</v>
       </c>
       <c r="M38" t="n">
-        <v>3.533884297520661</v>
+        <v>3.150413223140496</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O38" t="n">
         <v>8.99504132231405</v>
@@ -2424,25 +2424,25 @@
         <v>18.67123287671233</v>
       </c>
       <c r="H39" t="n">
-        <v>64.19662509170946</v>
+        <v>56.71313279530447</v>
       </c>
       <c r="I39" t="n">
-        <v>7.725279651051769</v>
+        <v>7.69534568186615</v>
       </c>
       <c r="J39" t="n">
         <v>18.67123287671233</v>
       </c>
       <c r="K39" t="n">
-        <v>875</v>
+        <v>773</v>
       </c>
       <c r="L39" t="n">
         <v>1363</v>
       </c>
       <c r="M39" t="n">
-        <v>3.407923697725605</v>
+        <v>3.047688921496698</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O39" t="n">
         <v>8.694057226705796</v>
@@ -2475,25 +2475,25 @@
         <v>11.68148148148148</v>
       </c>
       <c r="H40" t="n">
-        <v>57.32403297400127</v>
+        <v>50.34876347495244</v>
       </c>
       <c r="I40" t="n">
-        <v>4.901888724488598</v>
+        <v>4.873987646492402</v>
       </c>
       <c r="J40" t="n">
         <v>11.68148148148148</v>
       </c>
       <c r="K40" t="n">
-        <v>904</v>
+        <v>794</v>
       </c>
       <c r="L40" t="n">
         <v>1577</v>
       </c>
       <c r="M40" t="n">
-        <v>3.159797083069118</v>
+        <v>2.840202916930882</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O40" t="n">
         <v>8.098287888395689</v>
@@ -2526,25 +2526,25 @@
         <v>11.72340425531915</v>
       </c>
       <c r="H41" t="n">
-        <v>57.62250453720507</v>
+        <v>51.17967332123412</v>
       </c>
       <c r="I41" t="n">
-        <v>4.91985172027648</v>
+        <v>4.894080395412597</v>
       </c>
       <c r="J41" t="n">
         <v>11.72340425531915</v>
       </c>
       <c r="K41" t="n">
-        <v>635</v>
+        <v>564</v>
       </c>
       <c r="L41" t="n">
         <v>1102</v>
       </c>
       <c r="M41" t="n">
-        <v>3.323049001814882</v>
+        <v>2.990018148820327</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O41" t="n">
         <v>8.526315789473685</v>
@@ -2577,25 +2577,25 @@
         <v>28.37142857142857</v>
       </c>
       <c r="H42" t="n">
-        <v>63.94763343403827</v>
+        <v>57.30110775427995</v>
       </c>
       <c r="I42" t="n">
-        <v>11.60436196230758</v>
+        <v>11.57777585958855</v>
       </c>
       <c r="J42" t="n">
         <v>28.37142857142857</v>
       </c>
       <c r="K42" t="n">
-        <v>635</v>
+        <v>569</v>
       </c>
       <c r="L42" t="n">
         <v>993</v>
       </c>
       <c r="M42" t="n">
-        <v>3.531722054380665</v>
+        <v>3.171198388721047</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O42" t="n">
         <v>9.021148036253777</v>
@@ -2628,25 +2628,25 @@
         <v>24.6969696969697</v>
       </c>
       <c r="H43" t="n">
-        <v>66.13496932515336</v>
+        <v>59.2638036809816</v>
       </c>
       <c r="I43" t="n">
-        <v>10.14332775608849</v>
+        <v>10.11584309351181</v>
       </c>
       <c r="J43" t="n">
         <v>24.6969696969697</v>
       </c>
       <c r="K43" t="n">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="L43" t="n">
         <v>815</v>
       </c>
       <c r="M43" t="n">
-        <v>3.656441717791411</v>
+        <v>3.296932515337423</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O43" t="n">
         <v>9.267484662576686</v>
@@ -2679,25 +2679,25 @@
         <v>19.15555555555556</v>
       </c>
       <c r="H44" t="n">
-        <v>66.70533642691416</v>
+        <v>59.86078886310905</v>
       </c>
       <c r="I44" t="n">
-        <v>7.929043567929878</v>
+        <v>7.901665377674658</v>
       </c>
       <c r="J44" t="n">
         <v>19.15555555555556</v>
       </c>
       <c r="K44" t="n">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="L44" t="n">
         <v>862</v>
       </c>
       <c r="M44" t="n">
-        <v>3.610208816705336</v>
+        <v>3.265661252900232</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="O44" t="n">
         <v>9.196055684454757</v>
@@ -2730,25 +2730,25 @@
         <v>20.5</v>
       </c>
       <c r="H45" t="n">
-        <v>65</v>
+        <v>58.78048780487804</v>
       </c>
       <c r="I45" t="n">
-        <v>8.459999999999999</v>
+        <v>8.435121951219513</v>
       </c>
       <c r="J45" t="n">
         <v>20.5</v>
       </c>
       <c r="K45" t="n">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="L45" t="n">
         <v>820</v>
       </c>
       <c r="M45" t="n">
-        <v>3.615853658536585</v>
+        <v>3.276829268292683</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="O45" t="n">
         <v>9.223170731707317</v>
@@ -2781,25 +2781,25 @@
         <v>14.18333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>65.33490011750881</v>
+        <v>58.75440658049354</v>
       </c>
       <c r="I46" t="n">
-        <v>5.93467293380337</v>
+        <v>5.908350959655309</v>
       </c>
       <c r="J46" t="n">
         <v>14.18333333333333</v>
       </c>
       <c r="K46" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="L46" t="n">
         <v>851</v>
       </c>
       <c r="M46" t="n">
-        <v>3.562867215041128</v>
+        <v>3.220916568742656</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O46" t="n">
         <v>9.142185663924794</v>
@@ -2832,25 +2832,25 @@
         <v>15.55128205128205</v>
       </c>
       <c r="H47" t="n">
-        <v>60.42868920032976</v>
+        <v>50.20610057708161</v>
       </c>
       <c r="I47" t="n">
-        <v>6.46222757731414</v>
+        <v>6.421337222821148</v>
       </c>
       <c r="J47" t="n">
         <v>15.55128205128205</v>
       </c>
       <c r="K47" t="n">
-        <v>733</v>
+        <v>609</v>
       </c>
       <c r="L47" t="n">
         <v>1213</v>
       </c>
       <c r="M47" t="n">
-        <v>3.315746084089036</v>
+        <v>2.845836768342951</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O47" t="n">
         <v>8.539983511953833</v>
@@ -2883,25 +2883,25 @@
         <v>28.53125</v>
       </c>
       <c r="H48" t="n">
-        <v>66.37458926615552</v>
+        <v>58.15991237677984</v>
       </c>
       <c r="I48" t="n">
-        <v>11.67799835706462</v>
+        <v>11.64513964950712</v>
       </c>
       <c r="J48" t="n">
         <v>28.53125</v>
       </c>
       <c r="K48" t="n">
-        <v>606</v>
+        <v>531</v>
       </c>
       <c r="L48" t="n">
         <v>913</v>
       </c>
       <c r="M48" t="n">
-        <v>3.559693318729463</v>
+        <v>3.153340635268346</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O48" t="n">
         <v>9.056955093099672</v>
@@ -2934,25 +2934,25 @@
         <v>35.07692307692308</v>
       </c>
       <c r="H49" t="n">
-        <v>65.78947368421053</v>
+        <v>58.11403508771929</v>
       </c>
       <c r="I49" t="n">
-        <v>14.29392712550607</v>
+        <v>14.26322537112011</v>
       </c>
       <c r="J49" t="n">
         <v>35.07692307692308</v>
       </c>
       <c r="K49" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="L49" t="n">
         <v>912</v>
       </c>
       <c r="M49" t="n">
-        <v>3.554824561403509</v>
+        <v>3.161184210526316</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O49" t="n">
         <v>9.083333333333334</v>
@@ -2985,25 +2985,25 @@
         <v>31.14814814814815</v>
       </c>
       <c r="H50" t="n">
-        <v>64.56599286563615</v>
+        <v>57.90725326991677</v>
       </c>
       <c r="I50" t="n">
-        <v>12.7175232307218</v>
+        <v>12.69088827233893</v>
       </c>
       <c r="J50" t="n">
         <v>31.14814814814815</v>
       </c>
       <c r="K50" t="n">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="L50" t="n">
         <v>841</v>
       </c>
       <c r="M50" t="n">
-        <v>3.604042806183115</v>
+        <v>3.253269916765755</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O50" t="n">
         <v>9.260404280618312</v>
@@ -3036,25 +3036,25 @@
         <v>33.4</v>
       </c>
       <c r="H51" t="n">
-        <v>66.34730538922156</v>
+        <v>59.52095808383233</v>
       </c>
       <c r="I51" t="n">
-        <v>13.62538922155689</v>
+        <v>13.59808383233533</v>
       </c>
       <c r="J51" t="n">
         <v>33.4</v>
       </c>
       <c r="K51" t="n">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="L51" t="n">
         <v>835</v>
       </c>
       <c r="M51" t="n">
-        <v>3.658682634730539</v>
+        <v>3.280239520958084</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O51" t="n">
         <v>9.295808383233533</v>
@@ -3087,25 +3087,25 @@
         <v>21.27659574468085</v>
       </c>
       <c r="H52" t="n">
-        <v>63.1</v>
+        <v>52.7</v>
       </c>
       <c r="I52" t="n">
-        <v>8.76303829787234</v>
+        <v>8.721438297872341</v>
       </c>
       <c r="J52" t="n">
         <v>21.27659574468085</v>
       </c>
       <c r="K52" t="n">
-        <v>631</v>
+        <v>527</v>
       </c>
       <c r="L52" t="n">
         <v>1000</v>
       </c>
       <c r="M52" t="n">
-        <v>3.44</v>
+        <v>2.976</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="O52" t="n">
         <v>8.882999999999999</v>
@@ -3138,25 +3138,25 @@
         <v>24</v>
       </c>
       <c r="H53" t="n">
-        <v>61.51315789473685</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="I53" t="n">
-        <v>9.846052631578949</v>
+        <v>9.821052631578949</v>
       </c>
       <c r="J53" t="n">
         <v>24</v>
       </c>
       <c r="K53" t="n">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="L53" t="n">
         <v>912</v>
       </c>
       <c r="M53" t="n">
-        <v>3.490131578947369</v>
+        <v>3.145833333333333</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O53" t="n">
         <v>8.949561403508772</v>
@@ -3189,25 +3189,25 @@
         <v>19.60869565217391</v>
       </c>
       <c r="H54" t="n">
-        <v>62.97117516629712</v>
+        <v>55.54323725055432</v>
       </c>
       <c r="I54" t="n">
-        <v>8.095362961534754</v>
+        <v>8.065651209871783</v>
       </c>
       <c r="J54" t="n">
         <v>19.60869565217391</v>
       </c>
       <c r="K54" t="n">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="L54" t="n">
         <v>902</v>
       </c>
       <c r="M54" t="n">
-        <v>3.521064301552106</v>
+        <v>3.149667405764967</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O54" t="n">
         <v>8.991130820399112</v>
@@ -3240,25 +3240,25 @@
         <v>19.40909090909091</v>
       </c>
       <c r="H55" t="n">
-        <v>66.86182669789227</v>
+        <v>60.4215456674473</v>
       </c>
       <c r="I55" t="n">
-        <v>8.031083670427932</v>
+        <v>8.005322546306154</v>
       </c>
       <c r="J55" t="n">
         <v>19.40909090909091</v>
       </c>
       <c r="K55" t="n">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="L55" t="n">
         <v>854</v>
       </c>
       <c r="M55" t="n">
-        <v>3.640515222482436</v>
+        <v>3.2903981264637</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O55" t="n">
         <v>9.270491803278688</v>
@@ -3291,25 +3291,25 @@
         <v>29.72413793103448</v>
       </c>
       <c r="H56" t="n">
-        <v>64.38515081206496</v>
+        <v>55.4524361948956</v>
       </c>
       <c r="I56" t="n">
-        <v>12.14719577566206</v>
+        <v>12.11146491719338</v>
       </c>
       <c r="J56" t="n">
         <v>29.72413793103448</v>
       </c>
       <c r="K56" t="n">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="L56" t="n">
         <v>862</v>
       </c>
       <c r="M56" t="n">
-        <v>3.595127610208817</v>
+        <v>3.160092807424594</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O56" t="n">
         <v>9.241299303944315</v>
@@ -3342,25 +3342,25 @@
         <v>34.59090909090909</v>
       </c>
       <c r="H57" t="n">
-        <v>69.38239159001314</v>
+        <v>61.36662286465177</v>
       </c>
       <c r="I57" t="n">
-        <v>14.11389320272369</v>
+        <v>14.08183012782224</v>
       </c>
       <c r="J57" t="n">
         <v>34.59090909090909</v>
       </c>
       <c r="K57" t="n">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="L57" t="n">
         <v>761</v>
       </c>
       <c r="M57" t="n">
-        <v>3.789750328515112</v>
+        <v>3.390275952693824</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O57" t="n">
         <v>9.609724047306177</v>
@@ -3393,25 +3393,25 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>64.72602739726028</v>
+        <v>55.82191780821918</v>
       </c>
       <c r="I58" t="n">
-        <v>9.992237442922374</v>
+        <v>9.956621004566209</v>
       </c>
       <c r="J58" t="n">
         <v>24.33333333333333</v>
       </c>
       <c r="K58" t="n">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="L58" t="n">
         <v>876</v>
       </c>
       <c r="M58" t="n">
-        <v>3.59703196347032</v>
+        <v>3.146118721461187</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O58" t="n">
         <v>9.164383561643836</v>
@@ -3444,25 +3444,25 @@
         <v>23.2972972972973</v>
       </c>
       <c r="H59" t="n">
-        <v>65.42923433874709</v>
+        <v>56.8445475638051</v>
       </c>
       <c r="I59" t="n">
-        <v>9.580635856273908</v>
+        <v>9.546297109174139</v>
       </c>
       <c r="J59" t="n">
         <v>23.2972972972973</v>
       </c>
       <c r="K59" t="n">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="L59" t="n">
         <v>862</v>
       </c>
       <c r="M59" t="n">
-        <v>3.650812064965197</v>
+        <v>3.215777262180974</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O59" t="n">
         <v>9.21461716937355</v>
@@ -3495,25 +3495,25 @@
         <v>30.52</v>
       </c>
       <c r="H60" t="n">
-        <v>68.93840104849279</v>
+        <v>61.9921363040629</v>
       </c>
       <c r="I60" t="n">
-        <v>12.48375360419397</v>
+        <v>12.45596854521625</v>
       </c>
       <c r="J60" t="n">
         <v>30.52</v>
       </c>
       <c r="K60" t="n">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="L60" t="n">
         <v>763</v>
       </c>
       <c r="M60" t="n">
-        <v>3.773263433813892</v>
+        <v>3.403669724770642</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O60" t="n">
         <v>9.546526867627785</v>
@@ -3546,25 +3546,25 @@
         <v>34.38095238095238</v>
       </c>
       <c r="H61" t="n">
-        <v>69.94459833795014</v>
+        <v>62.74238227146814</v>
       </c>
       <c r="I61" t="n">
-        <v>14.03215934573275</v>
+        <v>14.00335048146682</v>
       </c>
       <c r="J61" t="n">
         <v>34.38095238095238</v>
       </c>
       <c r="K61" t="n">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="L61" t="n">
         <v>722</v>
       </c>
       <c r="M61" t="n">
-        <v>3.833795013850415</v>
+        <v>3.457063711911357</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O61" t="n">
         <v>9.720221606648199</v>
@@ -3597,25 +3597,25 @@
         <v>29.96</v>
       </c>
       <c r="H62" t="n">
-        <v>68.75834445927904</v>
+        <v>61.81575433911883</v>
       </c>
       <c r="I62" t="n">
-        <v>12.25903337783712</v>
+        <v>12.23126301735648</v>
       </c>
       <c r="J62" t="n">
         <v>29.96</v>
       </c>
       <c r="K62" t="n">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="L62" t="n">
         <v>749</v>
       </c>
       <c r="M62" t="n">
-        <v>3.795727636849132</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O62" t="n">
         <v>9.647530040053404</v>
@@ -3648,25 +3648,25 @@
         <v>32.91304347826087</v>
       </c>
       <c r="H63" t="n">
-        <v>68.56010568031704</v>
+        <v>61.8229854689564</v>
       </c>
       <c r="I63" t="n">
-        <v>13.43945781402562</v>
+        <v>13.41250933318018</v>
       </c>
       <c r="J63" t="n">
         <v>32.91304347826087</v>
       </c>
       <c r="K63" t="n">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="L63" t="n">
         <v>757</v>
       </c>
       <c r="M63" t="n">
-        <v>3.784676354029062</v>
+        <v>3.428005284015852</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O63" t="n">
         <v>9.620871862615587</v>
@@ -3699,25 +3699,25 @@
         <v>34.66666666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>70.46703296703298</v>
+        <v>62.5</v>
       </c>
       <c r="I64" t="n">
-        <v>14.1485347985348</v>
+        <v>14.11666666666667</v>
       </c>
       <c r="J64" t="n">
         <v>34.66666666666666</v>
       </c>
       <c r="K64" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="L64" t="n">
         <v>728</v>
       </c>
       <c r="M64" t="n">
-        <v>3.850274725274725</v>
+        <v>3.442307692307693</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O64" t="n">
         <v>9.743131868131869</v>
@@ -3750,25 +3750,25 @@
         <v>27.5</v>
       </c>
       <c r="H65" t="n">
-        <v>69.22077922077922</v>
+        <v>62.07792207792208</v>
       </c>
       <c r="I65" t="n">
-        <v>11.27688311688312</v>
+        <v>11.24831168831169</v>
       </c>
       <c r="J65" t="n">
         <v>27.5</v>
       </c>
       <c r="K65" t="n">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="L65" t="n">
         <v>770</v>
       </c>
       <c r="M65" t="n">
-        <v>3.774025974025974</v>
+        <v>3.4</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O65" t="n">
         <v>9.548051948051947</v>
@@ -3801,25 +3801,25 @@
         <v>23.51428571428572</v>
       </c>
       <c r="H66" t="n">
-        <v>67.07168894289185</v>
+        <v>58.93074119076549</v>
       </c>
       <c r="I66" t="n">
-        <v>9.674001041485855</v>
+        <v>9.641437250477349</v>
       </c>
       <c r="J66" t="n">
         <v>23.51428571428572</v>
       </c>
       <c r="K66" t="n">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="L66" t="n">
         <v>823</v>
       </c>
       <c r="M66" t="n">
-        <v>3.663426488456865</v>
+        <v>3.266099635479951</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O66" t="n">
         <v>9.334143377885784</v>
@@ -3852,25 +3852,25 @@
         <v>23.24324324324324</v>
       </c>
       <c r="H67" t="n">
-        <v>66.74418604651163</v>
+        <v>59.18604651162791</v>
       </c>
       <c r="I67" t="n">
-        <v>9.564274041483344</v>
+        <v>9.53404148334381</v>
       </c>
       <c r="J67" t="n">
         <v>23.24324324324324</v>
       </c>
       <c r="K67" t="n">
-        <v>574</v>
+        <v>509</v>
       </c>
       <c r="L67" t="n">
         <v>860</v>
       </c>
       <c r="M67" t="n">
-        <v>3.638372093023256</v>
+        <v>3.256976744186046</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O67" t="n">
         <v>9.309302325581395</v>
@@ -3903,25 +3903,25 @@
         <v>26.875</v>
       </c>
       <c r="H68" t="n">
-        <v>66.74418604651163</v>
+        <v>59.41860465116279</v>
       </c>
       <c r="I68" t="n">
-        <v>11.01697674418605</v>
+        <v>10.98767441860465</v>
       </c>
       <c r="J68" t="n">
         <v>26.875</v>
       </c>
       <c r="K68" t="n">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="L68" t="n">
         <v>860</v>
       </c>
       <c r="M68" t="n">
-        <v>3.626744186046511</v>
+        <v>3.25</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O68" t="n">
         <v>9.182558139534883</v>
@@ -3954,25 +3954,25 @@
         <v>21.59523809523809</v>
       </c>
       <c r="H69" t="n">
-        <v>61.63175303197354</v>
+        <v>54.35501653803748</v>
       </c>
       <c r="I69" t="n">
-        <v>8.884622250223133</v>
+        <v>8.855515304247389</v>
       </c>
       <c r="J69" t="n">
         <v>21.59523809523809</v>
       </c>
       <c r="K69" t="n">
-        <v>559</v>
+        <v>493</v>
       </c>
       <c r="L69" t="n">
         <v>907</v>
       </c>
       <c r="M69" t="n">
-        <v>3.498346196251378</v>
+        <v>3.138919514884234</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="O69" t="n">
         <v>8.997794928335171</v>
@@ -4005,25 +4005,25 @@
         <v>24.8</v>
       </c>
       <c r="H70" t="n">
-        <v>69.23963133640552</v>
+        <v>61.9815668202765</v>
       </c>
       <c r="I70" t="n">
-        <v>10.19695852534562</v>
+        <v>10.16792626728111</v>
       </c>
       <c r="J70" t="n">
         <v>24.8</v>
       </c>
       <c r="K70" t="n">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="L70" t="n">
         <v>868</v>
       </c>
       <c r="M70" t="n">
-        <v>3.661290322580645</v>
+        <v>3.299539170506912</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O70" t="n">
         <v>9.198156682027649</v>
@@ -4056,25 +4056,25 @@
         <v>31.5</v>
       </c>
       <c r="H71" t="n">
-        <v>68.25396825396825</v>
+        <v>60.07326007326007</v>
       </c>
       <c r="I71" t="n">
-        <v>12.87301587301587</v>
+        <v>12.84029304029304</v>
       </c>
       <c r="J71" t="n">
         <v>31.5</v>
       </c>
       <c r="K71" t="n">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="L71" t="n">
         <v>819</v>
       </c>
       <c r="M71" t="n">
-        <v>3.705738705738706</v>
+        <v>3.291819291819292</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O71" t="n">
         <v>9.411477411477412</v>
@@ -4107,25 +4107,25 @@
         <v>21.7037037037037</v>
       </c>
       <c r="H72" t="n">
-        <v>62.37201365187713</v>
+        <v>53.24232081911263</v>
       </c>
       <c r="I72" t="n">
-        <v>8.930969536088989</v>
+        <v>8.894450764757933</v>
       </c>
       <c r="J72" t="n">
         <v>21.7037037037037</v>
       </c>
       <c r="K72" t="n">
-        <v>731</v>
+        <v>624</v>
       </c>
       <c r="L72" t="n">
         <v>1172</v>
       </c>
       <c r="M72" t="n">
-        <v>3.408703071672355</v>
+        <v>2.984641638225256</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O72" t="n">
         <v>8.709044368600683</v>
@@ -4158,25 +4158,25 @@
         <v>28.7741935483871</v>
       </c>
       <c r="H73" t="n">
-        <v>61.54708520179371</v>
+        <v>55.26905829596412</v>
       </c>
       <c r="I73" t="n">
-        <v>11.75586576016201</v>
+        <v>11.7307536525387</v>
       </c>
       <c r="J73" t="n">
         <v>28.7741935483871</v>
       </c>
       <c r="K73" t="n">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="L73" t="n">
         <v>892</v>
       </c>
       <c r="M73" t="n">
-        <v>3.513452914798206</v>
+        <v>3.177130044843049</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O73" t="n">
         <v>9.050448430493274</v>
@@ -4209,25 +4209,25 @@
         <v>26.625</v>
       </c>
       <c r="H74" t="n">
-        <v>65.72769953051643</v>
+        <v>58.80281690140845</v>
       </c>
       <c r="I74" t="n">
-        <v>10.91291079812207</v>
+        <v>10.88521126760563</v>
       </c>
       <c r="J74" t="n">
         <v>26.625</v>
       </c>
       <c r="K74" t="n">
-        <v>560</v>
+        <v>501</v>
       </c>
       <c r="L74" t="n">
         <v>852</v>
       </c>
       <c r="M74" t="n">
-        <v>3.647887323943662</v>
+        <v>3.269953051643192</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O74" t="n">
         <v>9.342723004694836</v>
@@ -4260,25 +4260,25 @@
         <v>32.125</v>
       </c>
       <c r="H75" t="n">
-        <v>64.07263294422827</v>
+        <v>57.71725032425421</v>
       </c>
       <c r="I75" t="n">
-        <v>13.10629053177691</v>
+        <v>13.08086900129702</v>
       </c>
       <c r="J75" t="n">
         <v>32.125</v>
       </c>
       <c r="K75" t="n">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="L75" t="n">
         <v>771</v>
       </c>
       <c r="M75" t="n">
-        <v>3.675745784695201</v>
+        <v>3.316472114137484</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O75" t="n">
         <v>9.354085603112841</v>
@@ -4311,25 +4311,25 @@
         <v>27.06451612903226</v>
       </c>
       <c r="H76" t="n">
-        <v>66.15017878426698</v>
+        <v>59.35637663885578</v>
       </c>
       <c r="I76" t="n">
-        <v>11.09040716674997</v>
+        <v>11.06323195816833</v>
       </c>
       <c r="J76" t="n">
         <v>27.06451612903226</v>
       </c>
       <c r="K76" t="n">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="L76" t="n">
         <v>839</v>
       </c>
       <c r="M76" t="n">
-        <v>3.64958283671037</v>
+        <v>3.286054827175209</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O76" t="n">
         <v>9.34207389749702</v>
@@ -4362,25 +4362,25 @@
         <v>27.125</v>
       </c>
       <c r="H77" t="n">
-        <v>65.32258064516128</v>
+        <v>58.6405529953917</v>
       </c>
       <c r="I77" t="n">
-        <v>11.11129032258065</v>
+        <v>11.08456221198157</v>
       </c>
       <c r="J77" t="n">
         <v>27.125</v>
       </c>
       <c r="K77" t="n">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="L77" t="n">
         <v>868</v>
       </c>
       <c r="M77" t="n">
-        <v>3.579493087557604</v>
+        <v>3.223502304147465</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O77" t="n">
         <v>9.139400921658986</v>
@@ -4413,25 +4413,25 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H78" t="n">
-        <v>66.54501216545012</v>
+        <v>57.90754257907543</v>
       </c>
       <c r="I78" t="n">
-        <v>12.44395782643958</v>
+        <v>12.40940794809408</v>
       </c>
       <c r="J78" t="n">
         <v>30.44444444444444</v>
       </c>
       <c r="K78" t="n">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="L78" t="n">
         <v>822</v>
       </c>
       <c r="M78" t="n">
-        <v>3.665450121654501</v>
+        <v>3.25669099756691</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="O78" t="n">
         <v>9.318734793187348</v>
@@ -4464,25 +4464,25 @@
         <v>29.59259259259259</v>
       </c>
       <c r="H79" t="n">
-        <v>69.96245306633291</v>
+        <v>62.82853566958698</v>
       </c>
       <c r="I79" t="n">
-        <v>12.11688684930237</v>
+        <v>12.08835117971539</v>
       </c>
       <c r="J79" t="n">
         <v>29.59259259259259</v>
       </c>
       <c r="K79" t="n">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="L79" t="n">
         <v>799</v>
       </c>
       <c r="M79" t="n">
-        <v>3.801001251564456</v>
+        <v>3.429286608260325</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O79" t="n">
         <v>9.531914893617021</v>
@@ -4515,25 +4515,25 @@
         <v>25.42424242424243</v>
       </c>
       <c r="H80" t="n">
-        <v>65.67342073897497</v>
+        <v>58.87961859356376</v>
       </c>
       <c r="I80" t="n">
-        <v>10.43239065265287</v>
+        <v>10.40521544407123</v>
       </c>
       <c r="J80" t="n">
         <v>25.42424242424243</v>
       </c>
       <c r="K80" t="n">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="L80" t="n">
         <v>839</v>
       </c>
       <c r="M80" t="n">
-        <v>3.636471990464839</v>
+        <v>3.280095351609059</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O80" t="n">
         <v>9.191895113230036</v>
@@ -4566,25 +4566,25 @@
         <v>26.54285714285714</v>
       </c>
       <c r="H81" t="n">
-        <v>63.07857911733046</v>
+        <v>55.75888051668461</v>
       </c>
       <c r="I81" t="n">
-        <v>10.86945717361218</v>
+        <v>10.8401783792096</v>
       </c>
       <c r="J81" t="n">
         <v>26.54285714285714</v>
       </c>
       <c r="K81" t="n">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="L81" t="n">
         <v>929</v>
       </c>
       <c r="M81" t="n">
-        <v>3.470398277717976</v>
+        <v>3.11194833153929</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O81" t="n">
         <v>9.011840688912809</v>
@@ -4617,25 +4617,25 @@
         <v>25.14705882352941</v>
       </c>
       <c r="H82" t="n">
-        <v>66.43274853801169</v>
+        <v>58.47953216374269</v>
       </c>
       <c r="I82" t="n">
-        <v>10.32455452356381</v>
+        <v>10.29274165806674</v>
       </c>
       <c r="J82" t="n">
         <v>25.14705882352941</v>
       </c>
       <c r="K82" t="n">
-        <v>568</v>
+        <v>500</v>
       </c>
       <c r="L82" t="n">
         <v>855</v>
       </c>
       <c r="M82" t="n">
-        <v>3.632748538011696</v>
+        <v>3.223391812865497</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O82" t="n">
         <v>9.266666666666667</v>
@@ -4668,25 +4668,25 @@
         <v>38.2</v>
       </c>
       <c r="H83" t="n">
-        <v>66.8848167539267</v>
+        <v>59.55497382198953</v>
       </c>
       <c r="I83" t="n">
-        <v>15.54753926701571</v>
+        <v>15.51821989528796</v>
       </c>
       <c r="J83" t="n">
         <v>38.2</v>
       </c>
       <c r="K83" t="n">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="L83" t="n">
         <v>764</v>
       </c>
       <c r="M83" t="n">
-        <v>3.735602094240838</v>
+        <v>3.352094240837696</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O83" t="n">
         <v>9.518324607329843</v>
@@ -4719,25 +4719,25 @@
         <v>24.63636363636364</v>
       </c>
       <c r="H84" t="n">
-        <v>65.19065190651907</v>
+        <v>58.05658056580566</v>
       </c>
       <c r="I84" t="n">
-        <v>10.11530806217153</v>
+        <v>10.08677177680868</v>
       </c>
       <c r="J84" t="n">
         <v>24.63636363636364</v>
       </c>
       <c r="K84" t="n">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="L84" t="n">
         <v>813</v>
       </c>
       <c r="M84" t="n">
-        <v>3.674046740467405</v>
+        <v>3.297662976629766</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O84" t="n">
         <v>9.392373923739237</v>
@@ -4770,25 +4770,25 @@
         <v>29.78571428571428</v>
       </c>
       <c r="H85" t="n">
-        <v>64.98800959232614</v>
+        <v>57.31414868105516</v>
       </c>
       <c r="I85" t="n">
-        <v>12.17423775265502</v>
+        <v>12.14354230900994</v>
       </c>
       <c r="J85" t="n">
         <v>29.78571428571428</v>
       </c>
       <c r="K85" t="n">
-        <v>542</v>
+        <v>478</v>
       </c>
       <c r="L85" t="n">
         <v>834</v>
       </c>
       <c r="M85" t="n">
-        <v>3.65347721822542</v>
+        <v>3.255395683453238</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O85" t="n">
         <v>9.311750599520384</v>
@@ -4821,25 +4821,25 @@
         <v>31.84</v>
       </c>
       <c r="H86" t="n">
-        <v>66.08040201005025</v>
+        <v>59.2964824120603</v>
       </c>
       <c r="I86" t="n">
-        <v>13.0003216080402</v>
+        <v>12.97318592964824</v>
       </c>
       <c r="J86" t="n">
         <v>31.84</v>
       </c>
       <c r="K86" t="n">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="L86" t="n">
         <v>796</v>
       </c>
       <c r="M86" t="n">
-        <v>3.706030150753769</v>
+        <v>3.335427135678392</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O86" t="n">
         <v>9.381909547738694</v>
@@ -4872,25 +4872,25 @@
         <v>48.8125</v>
       </c>
       <c r="H87" t="n">
-        <v>66.58130601792574</v>
+        <v>59.53905249679897</v>
       </c>
       <c r="I87" t="n">
-        <v>19.79132522407171</v>
+        <v>19.7631562099872</v>
       </c>
       <c r="J87" t="n">
         <v>48.8125</v>
       </c>
       <c r="K87" t="n">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="L87" t="n">
         <v>781</v>
       </c>
       <c r="M87" t="n">
-        <v>3.69270166453265</v>
+        <v>3.314980793854033</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O87" t="n">
         <v>9.348271446862997</v>
@@ -4923,25 +4923,25 @@
         <v>25.53125</v>
       </c>
       <c r="H88" t="n">
-        <v>66.95226438188494</v>
+        <v>59.97552019583844</v>
       </c>
       <c r="I88" t="n">
-        <v>10.48030905752754</v>
+        <v>10.45240208078335</v>
       </c>
       <c r="J88" t="n">
         <v>25.53125</v>
       </c>
       <c r="K88" t="n">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="L88" t="n">
         <v>817</v>
       </c>
       <c r="M88" t="n">
-        <v>3.692778457772338</v>
+        <v>3.30110159118727</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O88" t="n">
         <v>9.384332925336597</v>
@@ -4974,25 +4974,25 @@
         <v>19.90909090909091</v>
       </c>
       <c r="H89" t="n">
-        <v>64.95433789954338</v>
+        <v>58.10502283105022</v>
       </c>
       <c r="I89" t="n">
-        <v>8.223453715234539</v>
+        <v>8.196056454960566</v>
       </c>
       <c r="J89" t="n">
         <v>19.90909090909091</v>
       </c>
       <c r="K89" t="n">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="L89" t="n">
         <v>876</v>
       </c>
       <c r="M89" t="n">
-        <v>3.638127853881278</v>
+        <v>3.263698630136986</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O89" t="n">
         <v>9.242009132420092</v>
@@ -5025,25 +5025,25 @@
         <v>19.06521739130435</v>
       </c>
       <c r="H90" t="n">
-        <v>63.16989737742303</v>
+        <v>56.55644241733181</v>
       </c>
       <c r="I90" t="n">
-        <v>7.878766546031432</v>
+        <v>7.852312726191066</v>
       </c>
       <c r="J90" t="n">
         <v>19.06521739130435</v>
       </c>
       <c r="K90" t="n">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="L90" t="n">
         <v>877</v>
       </c>
       <c r="M90" t="n">
-        <v>3.565564424173318</v>
+        <v>3.189281641961232</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O90" t="n">
         <v>9.076396807297606</v>
@@ -5076,25 +5076,25 @@
         <v>47.76470588235294</v>
       </c>
       <c r="H91" t="n">
-        <v>67.24137931034483</v>
+        <v>60.71428571428571</v>
       </c>
       <c r="I91" t="n">
-        <v>19.37484787018256</v>
+        <v>19.34873949579832</v>
       </c>
       <c r="J91" t="n">
         <v>47.76470588235294</v>
       </c>
       <c r="K91" t="n">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="L91" t="n">
         <v>812</v>
       </c>
       <c r="M91" t="n">
-        <v>3.661330049261084</v>
+        <v>3.316502463054187</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O91" t="n">
         <v>9.198275862068966</v>
@@ -5127,25 +5127,25 @@
         <v>41.05</v>
       </c>
       <c r="H92" t="n">
-        <v>65.40803897685748</v>
+        <v>58.7088915956151</v>
       </c>
       <c r="I92" t="n">
-        <v>16.68163215590743</v>
+        <v>16.65483556638246</v>
       </c>
       <c r="J92" t="n">
         <v>41.05</v>
       </c>
       <c r="K92" t="n">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="L92" t="n">
         <v>821</v>
       </c>
       <c r="M92" t="n">
-        <v>3.617539585870889</v>
+        <v>3.270401948842875</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O92" t="n">
         <v>9.261875761266747</v>
@@ -5178,25 +5178,25 @@
         <v>17.83582089552239</v>
       </c>
       <c r="H93" t="n">
-        <v>65.02092050209205</v>
+        <v>58.32635983263599</v>
       </c>
       <c r="I93" t="n">
-        <v>7.394412040217325</v>
+        <v>7.367633797539501</v>
       </c>
       <c r="J93" t="n">
         <v>17.83582089552239</v>
       </c>
       <c r="K93" t="n">
-        <v>777</v>
+        <v>697</v>
       </c>
       <c r="L93" t="n">
         <v>1195</v>
       </c>
       <c r="M93" t="n">
-        <v>3.34560669456067</v>
+        <v>3.00836820083682</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O93" t="n">
         <v>8.600836820083682</v>
@@ -5229,25 +5229,25 @@
         <v>19.25396825396825</v>
       </c>
       <c r="H94" t="n">
-        <v>63.56141797197032</v>
+        <v>56.63643858202803</v>
       </c>
       <c r="I94" t="n">
-        <v>7.955832973475182</v>
+        <v>7.928133055915414</v>
       </c>
       <c r="J94" t="n">
         <v>19.25396825396825</v>
       </c>
       <c r="K94" t="n">
-        <v>771</v>
+        <v>687</v>
       </c>
       <c r="L94" t="n">
         <v>1213</v>
       </c>
       <c r="M94" t="n">
-        <v>3.348722176422094</v>
+        <v>3.017312448474856</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O94" t="n">
         <v>8.550700741962077</v>
@@ -5280,25 +5280,25 @@
         <v>28.14285714285714</v>
       </c>
       <c r="H95" t="n">
-        <v>68.1472081218274</v>
+        <v>61.04060913705583</v>
       </c>
       <c r="I95" t="n">
-        <v>11.52973168963017</v>
+        <v>11.50130529369108</v>
       </c>
       <c r="J95" t="n">
         <v>28.14285714285714</v>
       </c>
       <c r="K95" t="n">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="L95" t="n">
         <v>788</v>
       </c>
       <c r="M95" t="n">
-        <v>3.739847715736041</v>
+        <v>3.356598984771574</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O95" t="n">
         <v>9.447969543147208</v>
@@ -5331,25 +5331,25 @@
         <v>23.62857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>66.0217654171705</v>
+        <v>58.40386940749698</v>
       </c>
       <c r="I96" t="n">
-        <v>9.715515633097255</v>
+        <v>9.685044049058561</v>
       </c>
       <c r="J96" t="n">
         <v>23.62857142857143</v>
       </c>
       <c r="K96" t="n">
-        <v>546</v>
+        <v>483</v>
       </c>
       <c r="L96" t="n">
         <v>827</v>
       </c>
       <c r="M96" t="n">
-        <v>3.638452237001209</v>
+        <v>3.259975816203144</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O96" t="n">
         <v>9.222490931076178</v>
@@ -5382,25 +5382,25 @@
         <v>28.66666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>67.31266149870801</v>
+        <v>59.17312661498708</v>
       </c>
       <c r="I97" t="n">
-        <v>11.7359173126615</v>
+        <v>11.70335917312662</v>
       </c>
       <c r="J97" t="n">
         <v>28.66666666666667</v>
       </c>
       <c r="K97" t="n">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="L97" t="n">
         <v>774</v>
       </c>
       <c r="M97" t="n">
-        <v>3.739018087855297</v>
+        <v>3.332041343669251</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O97" t="n">
         <v>9.488372093023257</v>
@@ -5433,25 +5433,25 @@
         <v>24.44117647058824</v>
       </c>
       <c r="H98" t="n">
-        <v>64.38026474127557</v>
+        <v>56.9193742478941</v>
       </c>
       <c r="I98" t="n">
-        <v>10.0339916472004</v>
+        <v>10.00414808522687</v>
       </c>
       <c r="J98" t="n">
         <v>24.44117647058824</v>
       </c>
       <c r="K98" t="n">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="L98" t="n">
         <v>831</v>
       </c>
       <c r="M98" t="n">
-        <v>3.641395908543923</v>
+        <v>3.243080625752106</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O98" t="n">
         <v>9.247894103489772</v>
@@ -5484,25 +5484,25 @@
         <v>29.84615384615385</v>
       </c>
       <c r="H99" t="n">
-        <v>70.10309278350515</v>
+        <v>63.14432989690722</v>
       </c>
       <c r="I99" t="n">
-        <v>12.21887390959556</v>
+        <v>12.19103885804917</v>
       </c>
       <c r="J99" t="n">
         <v>29.84615384615385</v>
       </c>
       <c r="K99" t="n">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="L99" t="n">
         <v>776</v>
       </c>
       <c r="M99" t="n">
-        <v>3.791237113402062</v>
+        <v>3.421391752577319</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O99" t="n">
         <v>9.610824742268042</v>
@@ -5535,25 +5535,25 @@
         <v>30</v>
       </c>
       <c r="H100" t="n">
-        <v>67</v>
+        <v>59.88888888888889</v>
       </c>
       <c r="I100" t="n">
-        <v>12.268</v>
+        <v>12.23955555555556</v>
       </c>
       <c r="J100" t="n">
         <v>30</v>
       </c>
       <c r="K100" t="n">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="L100" t="n">
         <v>900</v>
       </c>
       <c r="M100" t="n">
-        <v>3.661111111111111</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O100" t="n">
         <v>9.384444444444444</v>
@@ -5586,25 +5586,25 @@
         <v>24.93548387096774</v>
       </c>
       <c r="H101" t="n">
-        <v>68.04657179818886</v>
+        <v>61.70763260025873</v>
       </c>
       <c r="I101" t="n">
-        <v>10.24637983557985</v>
+        <v>10.22102407878813</v>
       </c>
       <c r="J101" t="n">
         <v>24.93548387096774</v>
       </c>
       <c r="K101" t="n">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="L101" t="n">
         <v>773</v>
       </c>
       <c r="M101" t="n">
-        <v>3.763260025873221</v>
+        <v>3.41914618369987</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O101" t="n">
         <v>9.479948253557568</v>
@@ -5637,25 +5637,25 @@
         <v>24.75757575757576</v>
       </c>
       <c r="H102" t="n">
-        <v>65.48347613219094</v>
+        <v>58.01713586291309</v>
       </c>
       <c r="I102" t="n">
-        <v>10.16496420755907</v>
+        <v>10.13509884648196</v>
       </c>
       <c r="J102" t="n">
         <v>24.75757575757576</v>
       </c>
       <c r="K102" t="n">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="L102" t="n">
         <v>817</v>
       </c>
       <c r="M102" t="n">
-        <v>3.649938800489596</v>
+        <v>3.258261933904529</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O102" t="n">
         <v>9.260709914320685</v>
@@ -5688,25 +5688,25 @@
         <v>30.53846153846154</v>
       </c>
       <c r="H103" t="n">
-        <v>67.63224181360201</v>
+        <v>60.45340050377834</v>
       </c>
       <c r="I103" t="n">
-        <v>12.48591358263903</v>
+        <v>12.45719821739973</v>
       </c>
       <c r="J103" t="n">
         <v>30.53846153846154</v>
       </c>
       <c r="K103" t="n">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="L103" t="n">
         <v>794</v>
       </c>
       <c r="M103" t="n">
-        <v>3.702770780856423</v>
+        <v>3.331234256926952</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O103" t="n">
         <v>9.416876574307304</v>
@@ -5739,25 +5739,25 @@
         <v>26.26470588235294</v>
       </c>
       <c r="H104" t="n">
-        <v>64.72564389697648</v>
+        <v>57.78275475923852</v>
       </c>
       <c r="I104" t="n">
-        <v>10.76478492852908</v>
+        <v>10.73701337197813</v>
       </c>
       <c r="J104" t="n">
         <v>26.26470588235294</v>
       </c>
       <c r="K104" t="n">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="L104" t="n">
         <v>893</v>
       </c>
       <c r="M104" t="n">
-        <v>3.601343784994401</v>
+        <v>3.22508398656215</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O104" t="n">
         <v>9.132138857782754</v>
@@ -5790,25 +5790,25 @@
         <v>31.95833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>66.36245110821382</v>
+        <v>59.19165580182529</v>
       </c>
       <c r="I105" t="n">
-        <v>13.04878313776619</v>
+        <v>13.02009995654063</v>
       </c>
       <c r="J105" t="n">
         <v>31.95833333333333</v>
       </c>
       <c r="K105" t="n">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="L105" t="n">
         <v>767</v>
       </c>
       <c r="M105" t="n">
-        <v>3.722294654498044</v>
+        <v>3.332464146023468</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O105" t="n">
         <v>9.455019556714472</v>
@@ -5841,25 +5841,25 @@
         <v>16.44927536231884</v>
       </c>
       <c r="H106" t="n">
-        <v>61.67400881057269</v>
+        <v>52.68722466960353</v>
       </c>
       <c r="I106" t="n">
-        <v>6.826406180169826</v>
+        <v>6.790459043605951</v>
       </c>
       <c r="J106" t="n">
         <v>16.44927536231884</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="L106" t="n">
         <v>1135</v>
       </c>
       <c r="M106" t="n">
-        <v>3.390308370044053</v>
+        <v>2.970044052863436</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O106" t="n">
         <v>8.591189427312775</v>
@@ -5892,25 +5892,25 @@
         <v>20.5</v>
       </c>
       <c r="H107" t="n">
-        <v>60.97560975609756</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="I107" t="n">
-        <v>8.44390243902439</v>
+        <v>8.414634146341463</v>
       </c>
       <c r="J107" t="n">
         <v>20.5</v>
       </c>
       <c r="K107" t="n">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="L107" t="n">
         <v>943</v>
       </c>
       <c r="M107" t="n">
-        <v>3.423117709437964</v>
+        <v>3.060445387062566</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="O107" t="n">
         <v>8.744432661717921</v>
@@ -5943,25 +5943,25 @@
         <v>27.63333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>65.98311218335344</v>
+        <v>59.71049457177322</v>
       </c>
       <c r="I108" t="n">
-        <v>11.31726578206675</v>
+        <v>11.29217531162043</v>
       </c>
       <c r="J108" t="n">
         <v>27.63333333333333</v>
       </c>
       <c r="K108" t="n">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="L108" t="n">
         <v>829</v>
       </c>
       <c r="M108" t="n">
-        <v>3.605548854041013</v>
+        <v>3.265379975874548</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O108" t="n">
         <v>9.202653799758746</v>
@@ -5994,25 +5994,25 @@
         <v>39.6</v>
       </c>
       <c r="H109" t="n">
-        <v>68.56060606060606</v>
+        <v>61.86868686868687</v>
       </c>
       <c r="I109" t="n">
-        <v>16.11424242424243</v>
+        <v>16.08747474747475</v>
       </c>
       <c r="J109" t="n">
         <v>39.6</v>
       </c>
       <c r="K109" t="n">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="L109" t="n">
         <v>792</v>
       </c>
       <c r="M109" t="n">
-        <v>3.70959595959596</v>
+        <v>3.362373737373737</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O109" t="n">
         <v>9.382575757575758</v>
@@ -6045,25 +6045,25 @@
         <v>23.55882352941176</v>
       </c>
       <c r="H110" t="n">
-        <v>66.541822721598</v>
+        <v>60.42446941323346</v>
       </c>
       <c r="I110" t="n">
-        <v>9.689696702651098</v>
+        <v>9.66522728941764</v>
       </c>
       <c r="J110" t="n">
         <v>23.55882352941176</v>
       </c>
       <c r="K110" t="n">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="L110" t="n">
         <v>801</v>
       </c>
       <c r="M110" t="n">
-        <v>3.694132334581773</v>
+        <v>3.355805243445693</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O110" t="n">
         <v>9.309612983770288</v>
@@ -6096,25 +6096,25 @@
         <v>31.33333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>60.21276595744681</v>
+        <v>53.93617021276596</v>
       </c>
       <c r="I111" t="n">
-        <v>12.77418439716312</v>
+        <v>12.7490780141844</v>
       </c>
       <c r="J111" t="n">
         <v>31.33333333333333</v>
       </c>
       <c r="K111" t="n">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="L111" t="n">
         <v>940</v>
       </c>
       <c r="M111" t="n">
-        <v>3.45</v>
+        <v>3.117021276595745</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O111" t="n">
         <v>8.853191489361702</v>
@@ -6147,25 +6147,25 @@
         <v>27.17647058823529</v>
       </c>
       <c r="H112" t="n">
-        <v>63.31168831168831</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="I112" t="n">
-        <v>11.12383498854087</v>
+        <v>11.09915966386555</v>
       </c>
       <c r="J112" t="n">
         <v>27.17647058823529</v>
       </c>
       <c r="K112" t="n">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="L112" t="n">
         <v>924</v>
       </c>
       <c r="M112" t="n">
-        <v>3.511904761904762</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O112" t="n">
         <v>8.944805194805195</v>
@@ -6198,25 +6198,25 @@
         <v>27.46666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>64.92718446601941</v>
+        <v>58.00970873786407</v>
       </c>
       <c r="I113" t="n">
-        <v>11.24637540453075</v>
+        <v>11.21870550161812</v>
       </c>
       <c r="J113" t="n">
         <v>27.46666666666667</v>
       </c>
       <c r="K113" t="n">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="L113" t="n">
         <v>824</v>
       </c>
       <c r="M113" t="n">
-        <v>3.628640776699029</v>
+        <v>3.263349514563107</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O113" t="n">
         <v>9.20752427184466</v>
@@ -6249,25 +6249,25 @@
         <v>24.91891891891892</v>
       </c>
       <c r="H114" t="n">
-        <v>61.49674620390455</v>
+        <v>54.88069414316703</v>
       </c>
       <c r="I114" t="n">
-        <v>10.21355455238319</v>
+        <v>10.18709034414024</v>
       </c>
       <c r="J114" t="n">
         <v>24.91891891891892</v>
       </c>
       <c r="K114" t="n">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="L114" t="n">
         <v>922</v>
       </c>
       <c r="M114" t="n">
-        <v>3.523861171366594</v>
+        <v>3.170281995661605</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O114" t="n">
         <v>8.962039045553146</v>
@@ -6300,25 +6300,25 @@
         <v>26.27586206896552</v>
       </c>
       <c r="H115" t="n">
-        <v>67.97900262467192</v>
+        <v>61.41732283464567</v>
       </c>
       <c r="I115" t="n">
-        <v>10.78226083808489</v>
+        <v>10.75601411892479</v>
       </c>
       <c r="J115" t="n">
         <v>26.27586206896552</v>
       </c>
       <c r="K115" t="n">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="L115" t="n">
         <v>762</v>
       </c>
       <c r="M115" t="n">
-        <v>3.733595800524935</v>
+        <v>3.383202099737533</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O115" t="n">
         <v>9.450131233595801</v>
@@ -6351,25 +6351,25 @@
         <v>30.89285714285714</v>
       </c>
       <c r="H116" t="n">
-        <v>69.01734104046243</v>
+        <v>62.42774566473989</v>
       </c>
       <c r="I116" t="n">
-        <v>12.63321222130471</v>
+        <v>12.60685383980182</v>
       </c>
       <c r="J116" t="n">
         <v>30.89285714285714</v>
       </c>
       <c r="K116" t="n">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="L116" t="n">
         <v>865</v>
       </c>
       <c r="M116" t="n">
-        <v>3.730635838150289</v>
+        <v>3.383815028901734</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O116" t="n">
         <v>9.448554913294798</v>
@@ -6402,25 +6402,25 @@
         <v>21.15384615384615</v>
       </c>
       <c r="H117" t="n">
-        <v>56.72727272727273</v>
+        <v>49.90909090909091</v>
       </c>
       <c r="I117" t="n">
-        <v>8.688447552447553</v>
+        <v>8.661174825174825</v>
       </c>
       <c r="J117" t="n">
         <v>21.15384615384615</v>
       </c>
       <c r="K117" t="n">
-        <v>624</v>
+        <v>549</v>
       </c>
       <c r="L117" t="n">
         <v>1100</v>
       </c>
       <c r="M117" t="n">
-        <v>3.211818181818182</v>
+        <v>2.873636363636364</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O117" t="n">
         <v>8.299090909090909</v>
@@ -6453,25 +6453,25 @@
         <v>20.95774647887324</v>
       </c>
       <c r="H118" t="n">
-        <v>55.98118279569893</v>
+        <v>49.32795698924731</v>
       </c>
       <c r="I118" t="n">
-        <v>8.607023322732092</v>
+        <v>8.580410419506284</v>
       </c>
       <c r="J118" t="n">
         <v>20.95774647887324</v>
       </c>
       <c r="K118" t="n">
-        <v>833</v>
+        <v>734</v>
       </c>
       <c r="L118" t="n">
         <v>1488</v>
       </c>
       <c r="M118" t="n">
-        <v>3.11760752688172</v>
+        <v>2.782930107526882</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O118" t="n">
         <v>7.913306451612903</v>
@@ -6504,25 +6504,25 @@
         <v>27.36585365853659</v>
       </c>
       <c r="H119" t="n">
-        <v>58.28877005347594</v>
+        <v>50.89126559714795</v>
       </c>
       <c r="I119" t="n">
-        <v>11.17949654362854</v>
+        <v>11.14990652580323</v>
       </c>
       <c r="J119" t="n">
         <v>27.36585365853659</v>
       </c>
       <c r="K119" t="n">
-        <v>654</v>
+        <v>571</v>
       </c>
       <c r="L119" t="n">
         <v>1122</v>
       </c>
       <c r="M119" t="n">
-        <v>3.322638146167558</v>
+        <v>2.961675579322638</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O119" t="n">
         <v>8.470588235294118</v>
@@ -6555,25 +6555,25 @@
         <v>17.23255813953488</v>
       </c>
       <c r="H120" t="n">
-        <v>67.47638326585695</v>
+        <v>60.72874493927125</v>
       </c>
       <c r="I120" t="n">
-        <v>7.162928788877382</v>
+        <v>7.135938235571039</v>
       </c>
       <c r="J120" t="n">
         <v>17.23255813953488</v>
       </c>
       <c r="K120" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L120" t="n">
         <v>741</v>
       </c>
       <c r="M120" t="n">
-        <v>3.709851551956815</v>
+        <v>3.348178137651822</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O120" t="n">
         <v>9.421052631578947</v>
@@ -6606,25 +6606,25 @@
         <v>32.1304347826087</v>
       </c>
       <c r="H121" t="n">
-        <v>70.77131258457375</v>
+        <v>64.27604871447903</v>
       </c>
       <c r="I121" t="n">
-        <v>13.13525916338177</v>
+        <v>13.1092781079014</v>
       </c>
       <c r="J121" t="n">
         <v>32.1304347826087</v>
       </c>
       <c r="K121" t="n">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="L121" t="n">
         <v>739</v>
       </c>
       <c r="M121" t="n">
-        <v>3.822733423545332</v>
+        <v>3.468200270635994</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O121" t="n">
         <v>9.645466847090663</v>
@@ -6657,25 +6657,25 @@
         <v>31.26086956521739</v>
       </c>
       <c r="H122" t="n">
-        <v>69.12378303198888</v>
+        <v>62.58692628650904</v>
       </c>
       <c r="I122" t="n">
-        <v>12.78084295821491</v>
+        <v>12.75469553123299</v>
       </c>
       <c r="J122" t="n">
         <v>31.26086956521739</v>
       </c>
       <c r="K122" t="n">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="L122" t="n">
         <v>719</v>
       </c>
       <c r="M122" t="n">
-        <v>3.833101529902643</v>
+        <v>3.47009735744089</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O122" t="n">
         <v>9.709318497913769</v>
@@ -6708,25 +6708,25 @@
         <v>37.05</v>
       </c>
       <c r="H123" t="n">
-        <v>67.47638326585695</v>
+        <v>61.1336032388664</v>
       </c>
       <c r="I123" t="n">
-        <v>15.08990553306343</v>
+        <v>15.06453441295547</v>
       </c>
       <c r="J123" t="n">
         <v>37.05</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="L123" t="n">
         <v>741</v>
       </c>
       <c r="M123" t="n">
-        <v>3.777327935222672</v>
+        <v>3.41970310391363</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O123" t="n">
         <v>9.587044534412955</v>
@@ -6759,25 +6759,25 @@
         <v>31.04347826086957</v>
       </c>
       <c r="H124" t="n">
-        <v>70.86834733893558</v>
+        <v>64.00560224089635</v>
       </c>
       <c r="I124" t="n">
-        <v>12.70086469370357</v>
+        <v>12.67341371331141</v>
       </c>
       <c r="J124" t="n">
         <v>31.04347826086957</v>
       </c>
       <c r="K124" t="n">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="L124" t="n">
         <v>714</v>
       </c>
       <c r="M124" t="n">
-        <v>3.854341736694678</v>
+        <v>3.483193277310924</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O124" t="n">
         <v>9.733893557422968</v>
@@ -6810,25 +6810,25 @@
         <v>32.68181818181818</v>
       </c>
       <c r="H125" t="n">
-        <v>70.79276773296245</v>
+        <v>64.11682892906815</v>
       </c>
       <c r="I125" t="n">
-        <v>13.35589834365912</v>
+        <v>13.32919458844355</v>
       </c>
       <c r="J125" t="n">
         <v>32.68181818181818</v>
       </c>
       <c r="K125" t="n">
-        <v>509</v>
+        <v>461</v>
       </c>
       <c r="L125" t="n">
         <v>719</v>
       </c>
       <c r="M125" t="n">
-        <v>3.835883171070932</v>
+        <v>3.471488178025035</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O125" t="n">
         <v>9.695410292072323</v>
@@ -6861,25 +6861,25 @@
         <v>21.04166666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>62.17821782178218</v>
+        <v>54.75247524752476</v>
       </c>
       <c r="I126" t="n">
-        <v>8.665379537953795</v>
+        <v>8.635676567656766</v>
       </c>
       <c r="J126" t="n">
         <v>21.04166666666667</v>
       </c>
       <c r="K126" t="n">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="L126" t="n">
         <v>1010</v>
       </c>
       <c r="M126" t="n">
-        <v>3.443564356435644</v>
+        <v>3.073267326732673</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O126" t="n">
         <v>8.846534653465346</v>
@@ -6912,25 +6912,25 @@
         <v>27</v>
       </c>
       <c r="H127" t="n">
-        <v>68.65079365079364</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="I127" t="n">
-        <v>11.07460317460318</v>
+        <v>11.04444444444444</v>
       </c>
       <c r="J127" t="n">
         <v>27</v>
       </c>
       <c r="K127" t="n">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="L127" t="n">
         <v>756</v>
       </c>
       <c r="M127" t="n">
-        <v>3.767195767195767</v>
+        <v>3.374338624338624</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O127" t="n">
         <v>9.5</v>
@@ -6963,25 +6963,25 @@
         <v>28.9375</v>
       </c>
       <c r="H128" t="n">
-        <v>66.09071274298056</v>
+        <v>57.77537796976242</v>
       </c>
       <c r="I128" t="n">
-        <v>11.83936285097192</v>
+        <v>11.80610151187905</v>
       </c>
       <c r="J128" t="n">
         <v>28.9375</v>
       </c>
       <c r="K128" t="n">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="L128" t="n">
         <v>926</v>
       </c>
       <c r="M128" t="n">
-        <v>3.598272138228942</v>
+        <v>3.192224622030237</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O128" t="n">
         <v>9.056155507559396</v>
@@ -7014,25 +7014,25 @@
         <v>32.29166666666666</v>
       </c>
       <c r="H129" t="n">
-        <v>67.2258064516129</v>
+        <v>60.38709677419355</v>
       </c>
       <c r="I129" t="n">
-        <v>13.18556989247312</v>
+        <v>13.15821505376344</v>
       </c>
       <c r="J129" t="n">
         <v>32.29166666666666</v>
       </c>
       <c r="K129" t="n">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="L129" t="n">
         <v>775</v>
       </c>
       <c r="M129" t="n">
-        <v>3.756129032258065</v>
+        <v>3.381935483870968</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O129" t="n">
         <v>9.530322580645162</v>
@@ -7065,25 +7065,25 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H130" t="n">
-        <v>68.51415094339622</v>
+        <v>60.25943396226415</v>
       </c>
       <c r="I130" t="n">
-        <v>9.696278825995808</v>
+        <v>9.663259958071279</v>
       </c>
       <c r="J130" t="n">
         <v>23.55555555555556</v>
       </c>
       <c r="K130" t="n">
-        <v>581</v>
+        <v>511</v>
       </c>
       <c r="L130" t="n">
         <v>848</v>
       </c>
       <c r="M130" t="n">
-        <v>3.726415094339623</v>
+        <v>3.316037735849056</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O130" t="n">
         <v>9.40683962264151</v>
@@ -7116,25 +7116,25 @@
         <v>24.74285714285714</v>
       </c>
       <c r="H131" t="n">
-        <v>63.39491916859122</v>
+        <v>56.9284064665127</v>
       </c>
       <c r="I131" t="n">
-        <v>10.15072253381722</v>
+        <v>10.12485648300891</v>
       </c>
       <c r="J131" t="n">
         <v>24.74285714285714</v>
       </c>
       <c r="K131" t="n">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="L131" t="n">
         <v>866</v>
       </c>
       <c r="M131" t="n">
-        <v>3.584295612009238</v>
+        <v>3.233256351039261</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O131" t="n">
         <v>9.197459584295611</v>
@@ -7167,25 +7167,25 @@
         <v>24.11428571428571</v>
       </c>
       <c r="H132" t="n">
-        <v>65.28436018957346</v>
+        <v>58.29383886255924</v>
       </c>
       <c r="I132" t="n">
-        <v>9.906851726472581</v>
+        <v>9.878889641164523</v>
       </c>
       <c r="J132" t="n">
         <v>24.11428571428571</v>
       </c>
       <c r="K132" t="n">
-        <v>551</v>
+        <v>492</v>
       </c>
       <c r="L132" t="n">
         <v>844</v>
       </c>
       <c r="M132" t="n">
-        <v>3.626777251184834</v>
+        <v>3.247630331753554</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O132" t="n">
         <v>9.266587677725118</v>
@@ -7218,25 +7218,25 @@
         <v>26.12903225806452</v>
       </c>
       <c r="H133" t="n">
-        <v>66.91358024691358</v>
+        <v>60.61728395061728</v>
       </c>
       <c r="I133" t="n">
-        <v>10.71926722421346</v>
+        <v>10.69408203902828</v>
       </c>
       <c r="J133" t="n">
         <v>26.12903225806452</v>
       </c>
       <c r="K133" t="n">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="L133" t="n">
         <v>810</v>
       </c>
       <c r="M133" t="n">
-        <v>3.68395061728395</v>
+        <v>3.330864197530864</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O133" t="n">
         <v>9.388888888888889</v>
@@ -7269,25 +7269,25 @@
         <v>31.76</v>
       </c>
       <c r="H134" t="n">
-        <v>68.01007556675063</v>
+        <v>60.70528967254408</v>
       </c>
       <c r="I134" t="n">
-        <v>12.976040302267</v>
+        <v>12.94682115869018</v>
       </c>
       <c r="J134" t="n">
         <v>31.76</v>
       </c>
       <c r="K134" t="n">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="L134" t="n">
         <v>794</v>
       </c>
       <c r="M134" t="n">
-        <v>3.739294710327456</v>
+        <v>3.348866498740554</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O134" t="n">
         <v>9.385390428211586</v>
@@ -7320,25 +7320,25 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H135" t="n">
-        <v>67.04260651629073</v>
+        <v>58.89724310776943</v>
       </c>
       <c r="I135" t="n">
-        <v>12.09039264828739</v>
+        <v>12.0578111946533</v>
       </c>
       <c r="J135" t="n">
         <v>29.55555555555556</v>
       </c>
       <c r="K135" t="n">
-        <v>535</v>
+        <v>470</v>
       </c>
       <c r="L135" t="n">
         <v>798</v>
       </c>
       <c r="M135" t="n">
-        <v>3.725563909774436</v>
+        <v>3.31203007518797</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O135" t="n">
         <v>9.414786967418546</v>
@@ -7371,25 +7371,25 @@
         <v>32.25</v>
       </c>
       <c r="H136" t="n">
-        <v>68.34625322997417</v>
+        <v>61.24031007751937</v>
       </c>
       <c r="I136" t="n">
-        <v>13.1733850129199</v>
+        <v>13.14496124031008</v>
       </c>
       <c r="J136" t="n">
         <v>32.25</v>
       </c>
       <c r="K136" t="n">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="L136" t="n">
         <v>774</v>
       </c>
       <c r="M136" t="n">
-        <v>3.760981912144703</v>
+        <v>3.386304909560724</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O136" t="n">
         <v>9.490956072351421</v>
@@ -7422,25 +7422,25 @@
         <v>34.90909090909091</v>
       </c>
       <c r="H137" t="n">
-        <v>68.48958333333334</v>
+        <v>61.328125</v>
       </c>
       <c r="I137" t="n">
-        <v>14.2375946969697</v>
+        <v>14.20894886363636</v>
       </c>
       <c r="J137" t="n">
         <v>34.90909090909091</v>
       </c>
       <c r="K137" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="L137" t="n">
         <v>768</v>
       </c>
       <c r="M137" t="n">
-        <v>3.774739583333333</v>
+        <v>3.399739583333333</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O137" t="n">
         <v>9.5234375</v>
@@ -7473,25 +7473,25 @@
         <v>23.81818181818182</v>
       </c>
       <c r="H138" t="n">
-        <v>67.43002544529261</v>
+        <v>59.92366412213741</v>
       </c>
       <c r="I138" t="n">
-        <v>9.796992829053899</v>
+        <v>9.766967383761276</v>
       </c>
       <c r="J138" t="n">
         <v>23.81818181818182</v>
       </c>
       <c r="K138" t="n">
-        <v>530</v>
+        <v>471</v>
       </c>
       <c r="L138" t="n">
         <v>786</v>
       </c>
       <c r="M138" t="n">
-        <v>3.723918575063613</v>
+        <v>3.334605597964376</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O138" t="n">
         <v>9.421119592875318</v>
@@ -7524,25 +7524,25 @@
         <v>33.04166666666666</v>
       </c>
       <c r="H139" t="n">
-        <v>66.33039092055486</v>
+        <v>59.01639344262295</v>
       </c>
       <c r="I139" t="n">
-        <v>13.48198823034888</v>
+        <v>13.45273224043716</v>
       </c>
       <c r="J139" t="n">
         <v>33.04166666666666</v>
       </c>
       <c r="K139" t="n">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="L139" t="n">
         <v>793</v>
       </c>
       <c r="M139" t="n">
-        <v>3.697351828499369</v>
+        <v>3.317780580075662</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O139" t="n">
         <v>9.336696090794451</v>
@@ -7575,25 +7575,25 @@
         <v>30.80769230769231</v>
       </c>
       <c r="H140" t="n">
-        <v>67.16604244694132</v>
+        <v>59.67540574282148</v>
       </c>
       <c r="I140" t="n">
-        <v>12.59174109286469</v>
+        <v>12.56177854604821</v>
       </c>
       <c r="J140" t="n">
         <v>30.80769230769231</v>
       </c>
       <c r="K140" t="n">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="L140" t="n">
         <v>801</v>
       </c>
       <c r="M140" t="n">
-        <v>3.701622971285893</v>
+        <v>3.31585518102372</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O140" t="n">
         <v>9.3083645443196</v>
@@ -7626,25 +7626,25 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H141" t="n">
-        <v>64.15313225058004</v>
+        <v>56.96055684454756</v>
       </c>
       <c r="I141" t="n">
-        <v>9.834390306780099</v>
+        <v>9.805620005155967</v>
       </c>
       <c r="J141" t="n">
         <v>23.94444444444444</v>
       </c>
       <c r="K141" t="n">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="L141" t="n">
         <v>862</v>
       </c>
       <c r="M141" t="n">
-        <v>3.603248259860789</v>
+        <v>3.205336426914153</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O141" t="n">
         <v>9.209976798143851</v>
@@ -7677,25 +7677,25 @@
         <v>16.98550724637681</v>
       </c>
       <c r="H142" t="n">
-        <v>56.0580204778157</v>
+        <v>47.52559726962458</v>
       </c>
       <c r="I142" t="n">
-        <v>7.018434980461987</v>
+        <v>6.984305287629224</v>
       </c>
       <c r="J142" t="n">
         <v>16.98550724637681</v>
       </c>
       <c r="K142" t="n">
-        <v>657</v>
+        <v>557</v>
       </c>
       <c r="L142" t="n">
         <v>1172</v>
       </c>
       <c r="M142" t="n">
-        <v>3.28839590443686</v>
+        <v>2.843856655290102</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O142" t="n">
         <v>8.529863481228668</v>
@@ -7728,25 +7728,25 @@
         <v>23.35714285714286</v>
       </c>
       <c r="H143" t="n">
-        <v>67.48216106014272</v>
+        <v>60.55045871559633</v>
       </c>
       <c r="I143" t="n">
-        <v>9.612785787097714</v>
+        <v>9.585058977719529</v>
       </c>
       <c r="J143" t="n">
         <v>23.35714285714286</v>
       </c>
       <c r="K143" t="n">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="L143" t="n">
         <v>981</v>
       </c>
       <c r="M143" t="n">
-        <v>3.577981651376147</v>
+        <v>3.221202854230377</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O143" t="n">
         <v>9.132517838939858</v>
@@ -7779,25 +7779,25 @@
         <v>21.10909090909091</v>
       </c>
       <c r="H144" t="n">
-        <v>60.98191214470285</v>
+        <v>52.36864771748493</v>
       </c>
       <c r="I144" t="n">
-        <v>8.687564012215175</v>
+        <v>8.653110954506303</v>
       </c>
       <c r="J144" t="n">
         <v>21.10909090909091</v>
       </c>
       <c r="K144" t="n">
-        <v>708</v>
+        <v>608</v>
       </c>
       <c r="L144" t="n">
         <v>1161</v>
       </c>
       <c r="M144" t="n">
-        <v>3.383290267011197</v>
+        <v>2.964685615848407</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O144" t="n">
         <v>8.648578811369509</v>
@@ -7830,25 +7830,25 @@
         <v>17.54878048780488</v>
       </c>
       <c r="H145" t="n">
-        <v>60.18068102849201</v>
+        <v>52.18902015288395</v>
       </c>
       <c r="I145" t="n">
-        <v>7.260234919235919</v>
+        <v>7.228268275733488</v>
       </c>
       <c r="J145" t="n">
         <v>17.54878048780488</v>
       </c>
       <c r="K145" t="n">
-        <v>866</v>
+        <v>751</v>
       </c>
       <c r="L145" t="n">
         <v>1439</v>
       </c>
       <c r="M145" t="n">
-        <v>3.264767199444059</v>
+        <v>2.887421820708826</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O145" t="n">
         <v>8.229325920778319</v>
@@ -7881,25 +7881,25 @@
         <v>21.74358974358974</v>
       </c>
       <c r="H146" t="n">
-        <v>64.97641509433963</v>
+        <v>57.78301886792453</v>
       </c>
       <c r="I146" t="n">
-        <v>8.957341557813256</v>
+        <v>8.928567972907597</v>
       </c>
       <c r="J146" t="n">
         <v>21.74358974358974</v>
       </c>
       <c r="K146" t="n">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="L146" t="n">
         <v>848</v>
       </c>
       <c r="M146" t="n">
-        <v>3.613207547169811</v>
+        <v>3.237028301886792</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O146" t="n">
         <v>9.163915094339623</v>
@@ -7932,25 +7932,25 @@
         <v>48.46666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>68.22558459422284</v>
+        <v>60.52269601100413</v>
       </c>
       <c r="I147" t="n">
-        <v>19.65956900504356</v>
+        <v>19.62875745071069</v>
       </c>
       <c r="J147" t="n">
         <v>48.46666666666667</v>
       </c>
       <c r="K147" t="n">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="L147" t="n">
         <v>727</v>
       </c>
       <c r="M147" t="n">
-        <v>3.81292984869326</v>
+        <v>3.41678129298487</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O147" t="n">
         <v>9.675378266850069</v>
@@ -7983,25 +7983,25 @@
         <v>34.09523809523809</v>
       </c>
       <c r="H148" t="n">
-        <v>69.1340782122905</v>
+        <v>62.43016759776536</v>
       </c>
       <c r="I148" t="n">
-        <v>13.9146315509444</v>
+        <v>13.8878159084863</v>
       </c>
       <c r="J148" t="n">
         <v>34.09523809523809</v>
       </c>
       <c r="K148" t="n">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="L148" t="n">
         <v>716</v>
       </c>
       <c r="M148" t="n">
-        <v>3.835195530726257</v>
+        <v>3.472067039106145</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O148" t="n">
         <v>9.69413407821229</v>
